--- a/NRI_STLF_Data/LoadData/L_Manategh95.xlsx
+++ b/NRI_STLF_Data/LoadData/L_Manategh95.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\karami\LoadForecasting\STLF\NRI_STLF_Data\LoadData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hkarami\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -359,8 +359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M14" sqref="A1:AC366"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="F261" sqref="F261:AC261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -385,31 +385,31 @@
         <v>20897.897846999997</v>
       </c>
       <c r="G1">
-        <v>19112.556222000003</v>
+        <v>19173.156222000001</v>
       </c>
       <c r="H1">
-        <v>17764.490731999998</v>
+        <v>18114.590731999997</v>
       </c>
       <c r="I1">
-        <v>17094.032152</v>
+        <v>17579.432152000001</v>
       </c>
       <c r="J1">
-        <v>16727.606845000002</v>
+        <v>17211.306845000003</v>
       </c>
       <c r="K1">
-        <v>16599.058507999998</v>
+        <v>17079.958508</v>
       </c>
       <c r="L1">
-        <v>16553.000000000004</v>
+        <v>17030.800000000003</v>
       </c>
       <c r="M1">
-        <v>17959.098185000003</v>
+        <v>18241.598185000003</v>
       </c>
       <c r="N1">
-        <v>18333.769839999997</v>
+        <v>18571.969839999998</v>
       </c>
       <c r="O1">
-        <v>18171.930308000003</v>
+        <v>18373.630308000003</v>
       </c>
       <c r="P1">
         <v>17827.485865000002</v>
@@ -477,31 +477,31 @@
         <v>17434.699999999997</v>
       </c>
       <c r="H2">
-        <v>16932.899999999998</v>
+        <v>16981.599999999999</v>
       </c>
       <c r="I2">
-        <v>16235.197333999999</v>
+        <v>16680.097333999998</v>
       </c>
       <c r="J2">
-        <v>15966.070882999997</v>
+        <v>16451.270882999997</v>
       </c>
       <c r="K2">
-        <v>15940.689548999997</v>
+        <v>16422.589548999997</v>
       </c>
       <c r="L2">
-        <v>15847.048865999999</v>
+        <v>16326.348865999998</v>
       </c>
       <c r="M2">
-        <v>15334.024179999999</v>
+        <v>15884.924179999998</v>
       </c>
       <c r="N2">
-        <v>15764.6</v>
+        <v>16311.7</v>
       </c>
       <c r="O2">
-        <v>16760.470606000003</v>
+        <v>16998.070606000001</v>
       </c>
       <c r="P2">
-        <v>17823.971836999997</v>
+        <v>17894.871836999999</v>
       </c>
       <c r="Q2">
         <v>18472.671436000001</v>
@@ -563,28 +563,28 @@
         <v>19926.400000000005</v>
       </c>
       <c r="G3">
-        <v>18367.176854999994</v>
+        <v>18371.376854999995</v>
       </c>
       <c r="H3">
-        <v>17267.755385999997</v>
+        <v>17510.655385999999</v>
       </c>
       <c r="I3">
-        <v>16638.953484000001</v>
+        <v>17017.353484000003</v>
       </c>
       <c r="J3">
-        <v>16313.040221000003</v>
+        <v>16793.040221000003</v>
       </c>
       <c r="K3">
-        <v>16217.000000000002</v>
+        <v>16692.900000000001</v>
       </c>
       <c r="L3">
-        <v>16172.794598</v>
+        <v>16647.094598</v>
       </c>
       <c r="M3">
-        <v>15580.744116000002</v>
+        <v>16053.444116000002</v>
       </c>
       <c r="N3">
-        <v>15927.710148</v>
+        <v>16298.410148000001</v>
       </c>
       <c r="O3">
         <v>16770.411315000001</v>
@@ -658,25 +658,25 @@
         <v>16669.696488999998</v>
       </c>
       <c r="I4">
-        <v>16134.400000000001</v>
+        <v>16499.7</v>
       </c>
       <c r="J4">
-        <v>15754.488693000003</v>
+        <v>16240.788693000002</v>
       </c>
       <c r="K4">
-        <v>15829.124206</v>
+        <v>16311.124206</v>
       </c>
       <c r="L4">
-        <v>15792.176362999999</v>
+        <v>16273.276362999999</v>
       </c>
       <c r="M4">
-        <v>15211.898730000001</v>
+        <v>15689.498730000001</v>
       </c>
       <c r="N4">
-        <v>15668.526200000002</v>
+        <v>16029.026200000002</v>
       </c>
       <c r="O4">
-        <v>16695.246493999999</v>
+        <v>16758.546493999998</v>
       </c>
       <c r="P4">
         <v>17725.899999999998</v>
@@ -744,28 +744,28 @@
         <v>18062.268368000001</v>
       </c>
       <c r="H5">
-        <v>16994.399999999994</v>
+        <v>17028.599999999995</v>
       </c>
       <c r="I5">
-        <v>16354.739642</v>
+        <v>16794.439642000001</v>
       </c>
       <c r="J5">
-        <v>16107.299911999997</v>
+        <v>16593.899911999997</v>
       </c>
       <c r="K5">
-        <v>16125.965786000001</v>
+        <v>16609.665786000001</v>
       </c>
       <c r="L5">
-        <v>16209.5</v>
+        <v>16691</v>
       </c>
       <c r="M5">
-        <v>15915.099999999999</v>
+        <v>16393.899999999998</v>
       </c>
       <c r="N5">
-        <v>16601.226145000001</v>
+        <v>17077.626145000002</v>
       </c>
       <c r="O5">
-        <v>17682.199999999997</v>
+        <v>17773.099999999999</v>
       </c>
       <c r="P5">
         <v>18674.2</v>
@@ -833,31 +833,31 @@
         <v>18476.8</v>
       </c>
       <c r="H6">
-        <v>17338.440512000001</v>
+        <v>17364.340512000002</v>
       </c>
       <c r="I6">
-        <v>16735.977803999998</v>
+        <v>17198.877804</v>
       </c>
       <c r="J6">
-        <v>16407.698899999996</v>
+        <v>16896.998899999995</v>
       </c>
       <c r="K6">
-        <v>16356.703740999998</v>
+        <v>16842.203740999998</v>
       </c>
       <c r="L6">
-        <v>16294.030116000005</v>
+        <v>16778.030116000005</v>
       </c>
       <c r="M6">
-        <v>15678.362271999998</v>
+        <v>16160.462271999999</v>
       </c>
       <c r="N6">
-        <v>16158.893708999998</v>
+        <v>16868.493708999998</v>
       </c>
       <c r="O6">
-        <v>17175.200827000001</v>
+        <v>17722.900827000001</v>
       </c>
       <c r="P6">
-        <v>18138.672604999996</v>
+        <v>18201.372604999997</v>
       </c>
       <c r="Q6">
         <v>18756.372179000002</v>
@@ -922,28 +922,28 @@
         <v>18210.400000000001</v>
       </c>
       <c r="H7">
-        <v>17110.571603999997</v>
+        <v>17181.571603999997</v>
       </c>
       <c r="I7">
-        <v>16546.893071999999</v>
+        <v>17034.593072</v>
       </c>
       <c r="J7">
-        <v>16304.100000000002</v>
+        <v>16787.300000000003</v>
       </c>
       <c r="K7">
-        <v>16344.879399000001</v>
+        <v>16823.679399000001</v>
       </c>
       <c r="L7">
-        <v>16686.127380000002</v>
+        <v>17164.827380000002</v>
       </c>
       <c r="M7">
-        <v>16646.621715000001</v>
+        <v>17120.921715</v>
       </c>
       <c r="N7">
-        <v>17738.406877999998</v>
+        <v>18170.606877999999</v>
       </c>
       <c r="O7">
-        <v>19022.773038000003</v>
+        <v>19026.673038000004</v>
       </c>
       <c r="P7">
         <v>20201.725549999999</v>
@@ -952,7 +952,7 @@
         <v>21071.759761999998</v>
       </c>
       <c r="R7">
-        <v>21407.366171000005</v>
+        <v>21408.666171000004</v>
       </c>
       <c r="S7">
         <v>21125.268557999996</v>
@@ -1011,28 +1011,28 @@
         <v>19221.253531000002</v>
       </c>
       <c r="H8">
-        <v>18138.200458000003</v>
+        <v>18481.800458000002</v>
       </c>
       <c r="I8">
-        <v>17481.197167999999</v>
+        <v>18001.397168</v>
       </c>
       <c r="J8">
-        <v>17265.542260000002</v>
+        <v>17753.542260000002</v>
       </c>
       <c r="K8">
-        <v>17278.880806000001</v>
+        <v>17760.280806000002</v>
       </c>
       <c r="L8">
-        <v>17360.607627999998</v>
+        <v>17841.907627999997</v>
       </c>
       <c r="M8">
-        <v>17413.459975999998</v>
+        <v>17891.859976</v>
       </c>
       <c r="N8">
-        <v>18442.732577000002</v>
+        <v>18918.032577000002</v>
       </c>
       <c r="O8">
-        <v>19616.618468000001</v>
+        <v>19785.318468000001</v>
       </c>
       <c r="P8">
         <v>20847.599999999999</v>
@@ -1097,28 +1097,28 @@
         <v>20760.866046000003</v>
       </c>
       <c r="G9">
-        <v>19230.229991999997</v>
+        <v>19502.129991999998</v>
       </c>
       <c r="H9">
-        <v>18249.644666</v>
+        <v>18734.144666</v>
       </c>
       <c r="I9">
-        <v>17631.088532000002</v>
+        <v>18114.888532000001</v>
       </c>
       <c r="J9">
-        <v>17426.114109000002</v>
+        <v>17907.114109000002</v>
       </c>
       <c r="K9">
-        <v>17262.136544999998</v>
+        <v>17741.036544999999</v>
       </c>
       <c r="L9">
-        <v>17312.435153000002</v>
+        <v>17790.035153000001</v>
       </c>
       <c r="M9">
-        <v>17344.193052999999</v>
+        <v>17744.593053000001</v>
       </c>
       <c r="N9">
-        <v>18415.193628999998</v>
+        <v>18423.093628999999</v>
       </c>
       <c r="O9">
         <v>19659.796759999997</v>
@@ -1186,28 +1186,28 @@
         <v>21068.043867000004</v>
       </c>
       <c r="G10">
-        <v>19638.5</v>
+        <v>19843.2</v>
       </c>
       <c r="H10">
-        <v>18435.744995000001</v>
+        <v>18740.244995000001</v>
       </c>
       <c r="I10">
-        <v>17772.139251000004</v>
+        <v>18256.239251000003</v>
       </c>
       <c r="J10">
-        <v>17458.326436000003</v>
+        <v>17939.526436000004</v>
       </c>
       <c r="K10">
-        <v>17476.240764000002</v>
+        <v>17952.540764000001</v>
       </c>
       <c r="L10">
-        <v>17425.600000000002</v>
+        <v>17901.2</v>
       </c>
       <c r="M10">
-        <v>17385.599999999999</v>
+        <v>17832.199999999997</v>
       </c>
       <c r="N10">
-        <v>18407.695241999998</v>
+        <v>18462.695241999998</v>
       </c>
       <c r="O10">
         <v>19536.293928000003</v>
@@ -1367,25 +1367,25 @@
         <v>19652.899999999998</v>
       </c>
       <c r="H12">
-        <v>18488.933634000001</v>
+        <v>18663.533633999999</v>
       </c>
       <c r="I12">
-        <v>17793.980768999998</v>
+        <v>18156.480768999998</v>
       </c>
       <c r="J12">
-        <v>17498.155444000004</v>
+        <v>17982.955444000003</v>
       </c>
       <c r="K12">
-        <v>17395.458347999996</v>
+        <v>17876.358347999998</v>
       </c>
       <c r="L12">
-        <v>17159.807769999999</v>
+        <v>17639.807769999999</v>
       </c>
       <c r="M12">
-        <v>16510.200000000004</v>
+        <v>16987.500000000004</v>
       </c>
       <c r="N12">
-        <v>17168.865330999997</v>
+        <v>17498.565330999998</v>
       </c>
       <c r="O12">
         <v>18213.5</v>
@@ -1453,34 +1453,34 @@
         <v>20555.552603999997</v>
       </c>
       <c r="G13">
-        <v>18910.116845</v>
+        <v>18925.116845</v>
       </c>
       <c r="H13">
-        <v>17754.062634999998</v>
+        <v>18000.962635</v>
       </c>
       <c r="I13">
-        <v>17160.100000000002</v>
+        <v>17544.300000000003</v>
       </c>
       <c r="J13">
-        <v>16871.840454000001</v>
+        <v>17358.740454000003</v>
       </c>
       <c r="K13">
-        <v>16794.36983</v>
+        <v>17278.169829999999</v>
       </c>
       <c r="L13">
-        <v>16123.181776000001</v>
+        <v>16605.481776000001</v>
       </c>
       <c r="M13">
-        <v>15604.426544999998</v>
+        <v>16082.626544999999</v>
       </c>
       <c r="N13">
-        <v>15723.585123000001</v>
+        <v>16200.085123000001</v>
       </c>
       <c r="O13">
-        <v>16314.399884000004</v>
+        <v>16555.999884000004</v>
       </c>
       <c r="P13">
-        <v>16721.622068999997</v>
+        <v>16903.622068999997</v>
       </c>
       <c r="Q13">
         <v>17020.255786999998</v>
@@ -1542,28 +1542,28 @@
         <v>19017.065158000001</v>
       </c>
       <c r="G14">
-        <v>17652.202415</v>
+        <v>17788.902415</v>
       </c>
       <c r="H14">
-        <v>16743.400000000001</v>
+        <v>17229.7</v>
       </c>
       <c r="I14">
-        <v>16358.771833999996</v>
+        <v>16842.971833999996</v>
       </c>
       <c r="J14">
-        <v>16227.339007999999</v>
+        <v>16707.539008</v>
       </c>
       <c r="K14">
-        <v>16398.634305</v>
+        <v>16876.134305</v>
       </c>
       <c r="L14">
-        <v>16954.348377000002</v>
+        <v>17427.648377000001</v>
       </c>
       <c r="M14">
-        <v>17603.877698000004</v>
+        <v>18075.977698000002</v>
       </c>
       <c r="N14">
-        <v>19325.400000000005</v>
+        <v>19452.500000000004</v>
       </c>
       <c r="O14">
         <v>20889.311900000001</v>
@@ -1628,28 +1628,28 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>21323.677444000001</v>
+        <v>21380.077444000002</v>
       </c>
       <c r="G15">
-        <v>19551.881574999996</v>
+        <v>20039.081574999997</v>
       </c>
       <c r="H15">
-        <v>18586.500290000004</v>
+        <v>19071.600290000002</v>
       </c>
       <c r="I15">
-        <v>18143.473912000001</v>
+        <v>18626.473912000001</v>
       </c>
       <c r="J15">
-        <v>17972.310367999995</v>
+        <v>18450.710367999996</v>
       </c>
       <c r="K15">
-        <v>18095</v>
+        <v>18570.8</v>
       </c>
       <c r="L15">
-        <v>18599.800000000007</v>
+        <v>19072.600000000006</v>
       </c>
       <c r="M15">
-        <v>19298.8</v>
+        <v>19639.7</v>
       </c>
       <c r="N15">
         <v>20866.841826</v>
@@ -1717,31 +1717,31 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>21580.857797999997</v>
+        <v>21622.757797999999</v>
       </c>
       <c r="G16">
-        <v>19938.2</v>
+        <v>20188</v>
       </c>
       <c r="H16">
-        <v>19057.446616000001</v>
+        <v>19497.146616000002</v>
       </c>
       <c r="I16">
-        <v>18659.600000000006</v>
+        <v>19142.700000000004</v>
       </c>
       <c r="J16">
-        <v>18563.600000000002</v>
+        <v>19043.900000000001</v>
       </c>
       <c r="K16">
-        <v>18740.145142999994</v>
+        <v>19217.045142999996</v>
       </c>
       <c r="L16">
-        <v>19380.746775999996</v>
+        <v>19856.246775999996</v>
       </c>
       <c r="M16">
-        <v>20152.840753999997</v>
+        <v>20601.540753999998</v>
       </c>
       <c r="N16">
-        <v>21945.897197000006</v>
+        <v>22083.597197000006</v>
       </c>
       <c r="O16">
         <v>23141.591445000005</v>
@@ -1809,22 +1809,22 @@
         <v>22020.580623999998</v>
       </c>
       <c r="G17">
-        <v>20322.5</v>
+        <v>20583</v>
       </c>
       <c r="H17">
-        <v>19535.106206</v>
+        <v>20021.506206000002</v>
       </c>
       <c r="I17">
-        <v>19113.669979999999</v>
+        <v>19598.469979999998</v>
       </c>
       <c r="J17">
-        <v>18899.7</v>
+        <v>19380.5</v>
       </c>
       <c r="K17">
-        <v>19038.799999999996</v>
+        <v>19516.699999999997</v>
       </c>
       <c r="L17">
-        <v>19476.265663000002</v>
+        <v>19778.465663000003</v>
       </c>
       <c r="M17">
         <v>20290.752256999996</v>
@@ -1898,34 +1898,34 @@
         <v>22632.320285000002</v>
       </c>
       <c r="G18">
-        <v>20914.761043999999</v>
+        <v>21019.861043999997</v>
       </c>
       <c r="H18">
-        <v>19911.815844000004</v>
+        <v>20327.415844000003</v>
       </c>
       <c r="I18">
-        <v>19504</v>
+        <v>19993.8</v>
       </c>
       <c r="J18">
-        <v>19286.036065999997</v>
+        <v>19773.736065999998</v>
       </c>
       <c r="K18">
-        <v>19452.419990000002</v>
+        <v>19936.819990000004</v>
       </c>
       <c r="L18">
-        <v>19865.415311999997</v>
+        <v>20345.715311999997</v>
       </c>
       <c r="M18">
-        <v>20650.912285999995</v>
+        <v>21128.412285999995</v>
       </c>
       <c r="N18">
-        <v>22466.399999999998</v>
+        <v>22939.999999999996</v>
       </c>
       <c r="O18">
-        <v>23864.477430000006</v>
+        <v>24117.077430000005</v>
       </c>
       <c r="P18">
-        <v>24801.566808000003</v>
+        <v>24939.666808000002</v>
       </c>
       <c r="Q18">
         <v>25458.099895000003</v>
@@ -1940,10 +1940,10 @@
         <v>24550.260620000001</v>
       </c>
       <c r="U18">
-        <v>24219.325817999998</v>
+        <v>24222.225817999999</v>
       </c>
       <c r="V18">
-        <v>24014.747578000006</v>
+        <v>24019.547578000005</v>
       </c>
       <c r="W18">
         <v>23993.012976999999</v>
@@ -1984,31 +1984,31 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>22890.223164999996</v>
+        <v>22932.323164999994</v>
       </c>
       <c r="G19">
-        <v>21235.685285</v>
+        <v>21668.585285000001</v>
       </c>
       <c r="H19">
-        <v>20220.008150000001</v>
+        <v>20704.908150000003</v>
       </c>
       <c r="I19">
-        <v>19688.135818999999</v>
+        <v>20168.835819</v>
       </c>
       <c r="J19">
-        <v>19460.123945999996</v>
+        <v>19938.623945999996</v>
       </c>
       <c r="K19">
-        <v>19464.162538</v>
+        <v>19938.262537999999</v>
       </c>
       <c r="L19">
-        <v>19431.909216000004</v>
+        <v>19906.009216000002</v>
       </c>
       <c r="M19">
-        <v>19973.7</v>
+        <v>20376.600000000002</v>
       </c>
       <c r="N19">
-        <v>21742.399999999998</v>
+        <v>21820.399999999998</v>
       </c>
       <c r="O19">
         <v>23313.399999999998</v>
@@ -2073,31 +2073,31 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>23028.990714999996</v>
+        <v>23053.290714999996</v>
       </c>
       <c r="G20">
-        <v>21465.193422999997</v>
+        <v>21712.393422999998</v>
       </c>
       <c r="H20">
-        <v>20414.205550999999</v>
+        <v>20846.705550999999</v>
       </c>
       <c r="I20">
-        <v>19841.049231999998</v>
+        <v>20323.449231999999</v>
       </c>
       <c r="J20">
-        <v>19289.130588000004</v>
+        <v>19769.230588000002</v>
       </c>
       <c r="K20">
-        <v>19124.899999999998</v>
+        <v>19601.699999999997</v>
       </c>
       <c r="L20">
-        <v>18570.156878000002</v>
+        <v>19045.656878000002</v>
       </c>
       <c r="M20">
-        <v>18094.943768000001</v>
+        <v>18475.043768</v>
       </c>
       <c r="N20">
-        <v>18849.826229999999</v>
+        <v>19051.026229999999</v>
       </c>
       <c r="O20">
         <v>19992.375598999999</v>
@@ -2165,28 +2165,28 @@
         <v>22696.950312999998</v>
       </c>
       <c r="G21">
-        <v>21077.171363999998</v>
+        <v>21135.671363999998</v>
       </c>
       <c r="H21">
-        <v>20103.653811999997</v>
+        <v>20549.553811999998</v>
       </c>
       <c r="I21">
-        <v>19623.799416000002</v>
+        <v>20106.799416000002</v>
       </c>
       <c r="J21">
-        <v>19475.722095999994</v>
+        <v>19954.622095999996</v>
       </c>
       <c r="K21">
-        <v>19517.159926</v>
+        <v>19993.659926</v>
       </c>
       <c r="L21">
-        <v>19790.977588000002</v>
+        <v>20265.577588</v>
       </c>
       <c r="M21">
-        <v>20771.739324000002</v>
+        <v>21241.039324000001</v>
       </c>
       <c r="N21">
-        <v>22728.3</v>
+        <v>22887</v>
       </c>
       <c r="O21">
         <v>24182.634868000001</v>
@@ -2207,7 +2207,7 @@
         <v>25603.932461999997</v>
       </c>
       <c r="U21">
-        <v>25344.01367</v>
+        <v>25345.113669999999</v>
       </c>
       <c r="V21">
         <v>24831.000324000001</v>
@@ -2251,31 +2251,31 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>24005.382547999998</v>
+        <v>24008.882547999998</v>
       </c>
       <c r="G22">
-        <v>22250.345067000002</v>
+        <v>22553.445067000001</v>
       </c>
       <c r="H22">
-        <v>21313.393175000001</v>
+        <v>21797.793175000003</v>
       </c>
       <c r="I22">
-        <v>20736.362760000004</v>
+        <v>21219.162760000003</v>
       </c>
       <c r="J22">
-        <v>20569.390140999996</v>
+        <v>21048.290140999998</v>
       </c>
       <c r="K22">
-        <v>20532.405497999996</v>
+        <v>21008.805497999998</v>
       </c>
       <c r="L22">
-        <v>20616.832480999998</v>
+        <v>21088.832480999998</v>
       </c>
       <c r="M22">
-        <v>21343.640582</v>
+        <v>21653.340582000001</v>
       </c>
       <c r="N22">
-        <v>23248.6</v>
+        <v>23435.899999999998</v>
       </c>
       <c r="O22">
         <v>24773.109386000004</v>
@@ -2340,31 +2340,31 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>24285.545658999999</v>
+        <v>24294.645658999998</v>
       </c>
       <c r="G23">
-        <v>22710.893260000004</v>
+        <v>23007.493260000003</v>
       </c>
       <c r="H23">
-        <v>21808.562432999996</v>
+        <v>22205.062432999996</v>
       </c>
       <c r="I23">
-        <v>21277.863426000004</v>
+        <v>21738.463426000002</v>
       </c>
       <c r="J23">
-        <v>21002.199658000001</v>
+        <v>21481.499658000001</v>
       </c>
       <c r="K23">
-        <v>20999.747100000004</v>
+        <v>21474.747100000004</v>
       </c>
       <c r="L23">
-        <v>21067.174763999999</v>
+        <v>21539.474763999999</v>
       </c>
       <c r="M23">
-        <v>21813.785003999998</v>
+        <v>22281.485003999998</v>
       </c>
       <c r="N23">
-        <v>23652.399999999998</v>
+        <v>23768.999999999996</v>
       </c>
       <c r="O23">
         <v>24892.192002</v>
@@ -2726,7 +2726,7 @@
         <v>19433.000000000004</v>
       </c>
       <c r="P27">
-        <v>20624.155443000003</v>
+        <v>20644.155443000003</v>
       </c>
       <c r="Q27">
         <v>21392.575607999999</v>
@@ -3204,7 +3204,7 @@
         <v>27992.122143999997</v>
       </c>
       <c r="AA32">
-        <v>28119.285696999999</v>
+        <v>28124.585696999999</v>
       </c>
       <c r="AB32">
         <v>27195.066001000007</v>
@@ -3770,34 +3770,34 @@
         <v>26061.647945000001</v>
       </c>
       <c r="H39">
-        <v>24931.293160000001</v>
+        <v>25060.09316</v>
       </c>
       <c r="I39">
-        <v>24392.607465000005</v>
+        <v>24873.707465000003</v>
       </c>
       <c r="J39">
-        <v>23988.055812000002</v>
+        <v>24468.255812000003</v>
       </c>
       <c r="K39">
-        <v>23767.081794000009</v>
+        <v>24243.181794000007</v>
       </c>
       <c r="L39">
-        <v>23046.547996000001</v>
+        <v>23521.547996000001</v>
       </c>
       <c r="M39">
-        <v>23971.4</v>
+        <v>24230.5</v>
       </c>
       <c r="N39">
-        <v>26085.099999999995</v>
+        <v>26210.999999999996</v>
       </c>
       <c r="O39">
-        <v>27761.592113000002</v>
+        <v>27766.092113000002</v>
       </c>
       <c r="P39">
-        <v>28884.665081999996</v>
+        <v>28888.965081999995</v>
       </c>
       <c r="Q39">
-        <v>30051.291405</v>
+        <v>30054.391404999998</v>
       </c>
       <c r="R39">
         <v>30693.939786000003</v>
@@ -4393,22 +4393,22 @@
         <v>26739.954836000001</v>
       </c>
       <c r="H46">
-        <v>25617.923181000002</v>
+        <v>25642.723181000001</v>
       </c>
       <c r="I46">
-        <v>24995.817122999997</v>
+        <v>25450.617122999996</v>
       </c>
       <c r="J46">
-        <v>24737.154777</v>
+        <v>25218.754776999998</v>
       </c>
       <c r="K46">
-        <v>24356.775304999996</v>
+        <v>24838.575304999995</v>
       </c>
       <c r="L46">
-        <v>23490.547614999996</v>
+        <v>23968.247614999997</v>
       </c>
       <c r="M46">
-        <v>24815.062691999996</v>
+        <v>25110.762691999997</v>
       </c>
       <c r="N46">
         <v>26763.463455000001</v>
@@ -4423,7 +4423,7 @@
         <v>30802.648701000002</v>
       </c>
       <c r="R46">
-        <v>31746.223157999997</v>
+        <v>31747.223157999997</v>
       </c>
       <c r="S46">
         <v>31633.136052000005</v>
@@ -4530,7 +4530,7 @@
         <v>28472.616049999997</v>
       </c>
       <c r="X47">
-        <v>27223.941909999998</v>
+        <v>27243.941909999998</v>
       </c>
       <c r="Y47">
         <v>27668.310476000002</v>
@@ -5375,22 +5375,22 @@
         <v>27534.850113999997</v>
       </c>
       <c r="I57">
-        <v>26813.822031999996</v>
+        <v>26855.022031999997</v>
       </c>
       <c r="J57">
-        <v>26482.269564000002</v>
+        <v>26793.869564000001</v>
       </c>
       <c r="K57">
-        <v>25886.664785000004</v>
+        <v>26368.064785000006</v>
       </c>
       <c r="L57">
-        <v>24957.997945999996</v>
+        <v>25435.997945999996</v>
       </c>
       <c r="M57">
-        <v>26354.635965999998</v>
+        <v>26726.035965999999</v>
       </c>
       <c r="N57">
-        <v>28813.4</v>
+        <v>28852.7</v>
       </c>
       <c r="O57">
         <v>30574.509661999997</v>
@@ -5485,7 +5485,7 @@
         <v>31493.577969999998</v>
       </c>
       <c r="P58">
-        <v>32748.800000000003</v>
+        <v>32749.800000000003</v>
       </c>
       <c r="Q58">
         <v>34373.417554</v>
@@ -5722,28 +5722,28 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>32806.200960000002</v>
+        <v>32938.400959999999</v>
       </c>
       <c r="G61">
-        <v>31037.822199999999</v>
+        <v>31282.7222</v>
       </c>
       <c r="H61">
-        <v>29927.422208</v>
+        <v>30353.922208</v>
       </c>
       <c r="I61">
-        <v>29122.060648000002</v>
+        <v>29605.760648000003</v>
       </c>
       <c r="J61">
-        <v>28633.823136000003</v>
+        <v>29114.823136000003</v>
       </c>
       <c r="K61">
-        <v>28009.253174999998</v>
+        <v>28487.753174999998</v>
       </c>
       <c r="L61">
-        <v>26776.799999999999</v>
+        <v>27251.200000000001</v>
       </c>
       <c r="M61">
-        <v>27848.999999999996</v>
+        <v>28170.999999999996</v>
       </c>
       <c r="N61">
         <v>30306.699999999997</v>
@@ -5817,25 +5817,25 @@
         <v>30729.519042000004</v>
       </c>
       <c r="H62">
-        <v>29428.19802</v>
+        <v>29642.69802</v>
       </c>
       <c r="I62">
-        <v>28549.5</v>
+        <v>28799.200000000001</v>
       </c>
       <c r="J62">
-        <v>27913.448679999998</v>
+        <v>28394.148679999998</v>
       </c>
       <c r="K62">
-        <v>27092.866856000001</v>
+        <v>27570.166856</v>
       </c>
       <c r="L62">
-        <v>25501.419303999995</v>
+        <v>25975.719303999995</v>
       </c>
       <c r="M62">
-        <v>25356.900000000005</v>
+        <v>25807.700000000004</v>
       </c>
       <c r="N62">
-        <v>26237.155061999994</v>
+        <v>26279.555061999996</v>
       </c>
       <c r="O62">
         <v>27478.299999999996</v>
@@ -6615,28 +6615,28 @@
         <v>33541.027575</v>
       </c>
       <c r="G71">
-        <v>31632.266169999999</v>
+        <v>31764.96617</v>
       </c>
       <c r="H71">
-        <v>29780.429431999994</v>
+        <v>30266.829431999995</v>
       </c>
       <c r="I71">
-        <v>28868.6</v>
+        <v>29350.5</v>
       </c>
       <c r="J71">
-        <v>28303.586699000003</v>
+        <v>28783.186699000002</v>
       </c>
       <c r="K71">
-        <v>27519.142488000001</v>
+        <v>27997.742488</v>
       </c>
       <c r="L71">
-        <v>26675.218271999998</v>
+        <v>27150.218271999998</v>
       </c>
       <c r="M71">
-        <v>28304.076292999998</v>
+        <v>28708.576292999998</v>
       </c>
       <c r="N71">
-        <v>31357.310406000004</v>
+        <v>31471.010406000005</v>
       </c>
       <c r="O71">
         <v>33478.568997000002</v>
@@ -6701,34 +6701,34 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>33950.426995000002</v>
+        <v>33952.326995000003</v>
       </c>
       <c r="G72">
-        <v>31816.711042999999</v>
+        <v>31965.311042999998</v>
       </c>
       <c r="H72">
-        <v>30147.053345000004</v>
+        <v>30640.153345000002</v>
       </c>
       <c r="I72">
-        <v>29321.756723999995</v>
+        <v>29810.956723999996</v>
       </c>
       <c r="J72">
-        <v>28770.9</v>
+        <v>29345.5</v>
       </c>
       <c r="K72">
-        <v>27717.117819999996</v>
+        <v>28440.617819999996</v>
       </c>
       <c r="L72">
-        <v>26612.800000000003</v>
+        <v>27328.700000000004</v>
       </c>
       <c r="M72">
-        <v>28264.066503000002</v>
+        <v>28898.866503000001</v>
       </c>
       <c r="N72">
-        <v>31218.199999999997</v>
+        <v>31666.6</v>
       </c>
       <c r="O72">
-        <v>33272.944438000006</v>
+        <v>33481.144438000003</v>
       </c>
       <c r="P72">
         <v>35260.699999999997</v>
@@ -6790,34 +6790,34 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>33350.773304000009</v>
+        <v>33440.973304000006</v>
       </c>
       <c r="G73">
-        <v>31162.480580000003</v>
+        <v>31548.680580000004</v>
       </c>
       <c r="H73">
-        <v>29834.919181000001</v>
+        <v>30322.919181000001</v>
       </c>
       <c r="I73">
-        <v>28977.953801</v>
+        <v>29461.553800999998</v>
       </c>
       <c r="J73">
-        <v>28330.155478000001</v>
+        <v>28813.655478000001</v>
       </c>
       <c r="K73">
-        <v>27346.087224000003</v>
+        <v>27998.687224000001</v>
       </c>
       <c r="L73">
-        <v>26296.726017999998</v>
+        <v>26969.526017999997</v>
       </c>
       <c r="M73">
-        <v>28035.9</v>
+        <v>28509.9</v>
       </c>
       <c r="N73">
-        <v>30672.473584999996</v>
+        <v>31017.673584999997</v>
       </c>
       <c r="O73">
-        <v>32322.199999999997</v>
+        <v>32420.199999999997</v>
       </c>
       <c r="P73">
         <v>33951.415181999997</v>
@@ -6885,25 +6885,25 @@
         <v>30995.972946000002</v>
       </c>
       <c r="H74">
-        <v>29817.234500000006</v>
+        <v>29818.834500000004</v>
       </c>
       <c r="I74">
-        <v>28692.1</v>
+        <v>28922.5</v>
       </c>
       <c r="J74">
-        <v>27965.864812999997</v>
+        <v>28393.264812999998</v>
       </c>
       <c r="K74">
-        <v>27061.327225000005</v>
+        <v>27539.027225000005</v>
       </c>
       <c r="L74">
-        <v>26112.924235999999</v>
+        <v>26586.224235999998</v>
       </c>
       <c r="M74">
-        <v>27438.100000000002</v>
+        <v>27908.000000000004</v>
       </c>
       <c r="N74">
-        <v>30483.000308000006</v>
+        <v>30593.000308000006</v>
       </c>
       <c r="O74">
         <v>32345.150099999999</v>
@@ -6930,7 +6930,7 @@
         <v>35706.991954999998</v>
       </c>
       <c r="W74">
-        <v>34606.11954</v>
+        <v>34607.11954</v>
       </c>
       <c r="X74">
         <v>32825.406508</v>
@@ -7013,7 +7013,7 @@
         <v>34757.952036000002</v>
       </c>
       <c r="U75">
-        <v>34529.600000000006</v>
+        <v>34530.600000000006</v>
       </c>
       <c r="V75">
         <v>33939.844625999991</v>
@@ -7244,19 +7244,19 @@
         <v>29829.480591</v>
       </c>
       <c r="I78">
-        <v>29193.640904</v>
+        <v>29230.040904000001</v>
       </c>
       <c r="J78">
-        <v>28697.912804000003</v>
+        <v>28935.612804000004</v>
       </c>
       <c r="K78">
-        <v>27912.762607999997</v>
+        <v>28150.762607999997</v>
       </c>
       <c r="L78">
-        <v>26968.792310000001</v>
+        <v>27204.992310000001</v>
       </c>
       <c r="M78">
-        <v>28742.499999999996</v>
+        <v>28918.099999999995</v>
       </c>
       <c r="N78">
         <v>31468.899999999998</v>
@@ -7327,31 +7327,31 @@
         <v>34991.528262</v>
       </c>
       <c r="G79">
-        <v>33001.93170999999</v>
+        <v>33220.231709999993</v>
       </c>
       <c r="H79">
-        <v>31840.311264000004</v>
+        <v>32327.611264000003</v>
       </c>
       <c r="I79">
-        <v>30891.399999999998</v>
+        <v>31377.199999999997</v>
       </c>
       <c r="J79">
-        <v>30270.258948000002</v>
+        <v>30754.058948000002</v>
       </c>
       <c r="K79">
-        <v>29175.401504000005</v>
+        <v>29657.201504000004</v>
       </c>
       <c r="L79">
-        <v>28159.307943999996</v>
+        <v>28638.707943999998</v>
       </c>
       <c r="M79">
-        <v>29670.026987000001</v>
+        <v>29934.226987000002</v>
       </c>
       <c r="N79">
-        <v>32497.989489999996</v>
+        <v>32737.189489999997</v>
       </c>
       <c r="O79">
-        <v>34663.536137999989</v>
+        <v>34742.836137999991</v>
       </c>
       <c r="P79">
         <v>36747.628983000002</v>
@@ -7413,34 +7413,34 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>36092.600881999999</v>
+        <v>36241.400882000002</v>
       </c>
       <c r="G80">
-        <v>34158.044054000005</v>
+        <v>34403.644054000004</v>
       </c>
       <c r="H80">
-        <v>32944.324552000005</v>
+        <v>33189.024552000003</v>
       </c>
       <c r="I80">
-        <v>32718.526033999999</v>
+        <v>32961.726033999999</v>
       </c>
       <c r="J80">
-        <v>31942.936320999994</v>
+        <v>32275.536320999992</v>
       </c>
       <c r="K80">
-        <v>30495.857238000001</v>
+        <v>31111.757238000002</v>
       </c>
       <c r="L80">
-        <v>29425.103746000004</v>
+        <v>30137.903746000004</v>
       </c>
       <c r="M80">
-        <v>30947.7</v>
+        <v>31442.600000000002</v>
       </c>
       <c r="N80">
-        <v>33636</v>
+        <v>34072.5</v>
       </c>
       <c r="O80">
-        <v>35827.5</v>
+        <v>35850.400000000001</v>
       </c>
       <c r="P80">
         <v>37491</v>
@@ -7505,31 +7505,31 @@
         <v>36289.194930000005</v>
       </c>
       <c r="G81">
-        <v>34313.477908000008</v>
+        <v>34487.077908000007</v>
       </c>
       <c r="H81">
-        <v>32994.412653000007</v>
+        <v>33307.112653000004</v>
       </c>
       <c r="I81">
-        <v>32571.081672000004</v>
+        <v>33060.381672000003</v>
       </c>
       <c r="J81">
-        <v>31735.768779000002</v>
+        <v>32221.068779000001</v>
       </c>
       <c r="K81">
-        <v>30282.565269999999</v>
+        <v>30821.065269999999</v>
       </c>
       <c r="L81">
-        <v>29233.499999999996</v>
+        <v>29947.199999999997</v>
       </c>
       <c r="M81">
-        <v>30700.696347000001</v>
+        <v>31259.696347000001</v>
       </c>
       <c r="N81">
-        <v>33291.334215999996</v>
+        <v>33542.134215999999</v>
       </c>
       <c r="O81">
-        <v>35335.043844</v>
+        <v>35456.243843999997</v>
       </c>
       <c r="P81">
         <v>36972.301016000005</v>
@@ -7594,28 +7594,28 @@
         <v>35590.307843999995</v>
       </c>
       <c r="G82">
-        <v>33793.982548</v>
+        <v>33807.382548000001</v>
       </c>
       <c r="H82">
-        <v>32541.704016000007</v>
+        <v>32783.504016000006</v>
       </c>
       <c r="I82">
-        <v>32237.570979000004</v>
+        <v>32478.670979000002</v>
       </c>
       <c r="J82">
-        <v>31404.411119999997</v>
+        <v>31650.611119999998</v>
       </c>
       <c r="K82">
-        <v>29914.675380000001</v>
+        <v>30392.075380000002</v>
       </c>
       <c r="L82">
-        <v>28597.204831999996</v>
+        <v>29069.704831999996</v>
       </c>
       <c r="M82">
-        <v>29860</v>
+        <v>30329.599999999999</v>
       </c>
       <c r="N82">
-        <v>31964.732393999999</v>
+        <v>32175.832393999997</v>
       </c>
       <c r="O82">
         <v>34039.087414999995</v>
@@ -7683,31 +7683,31 @@
         <v>35627.561048000003</v>
       </c>
       <c r="G83">
-        <v>34046.762608999998</v>
+        <v>34176.662608999999</v>
       </c>
       <c r="H83">
-        <v>32912.274510000003</v>
+        <v>33402.874510000001</v>
       </c>
       <c r="I83">
-        <v>32334.200000000004</v>
+        <v>32820.600000000006</v>
       </c>
       <c r="J83">
-        <v>31334.885192000005</v>
+        <v>31821.485192000004</v>
       </c>
       <c r="K83">
-        <v>29506.859799999998</v>
+        <v>29990.559799999999</v>
       </c>
       <c r="L83">
-        <v>27892.394508999998</v>
+        <v>28373.394508999998</v>
       </c>
       <c r="M83">
-        <v>28014.046801</v>
+        <v>28473.246801000001</v>
       </c>
       <c r="N83">
-        <v>28769.989076000002</v>
+        <v>29009.289076000001</v>
       </c>
       <c r="O83">
-        <v>30223.734643999996</v>
+        <v>30283.034643999996</v>
       </c>
       <c r="P83">
         <v>31656.739228000002</v>
@@ -7778,19 +7778,19 @@
         <v>32289.319500000001</v>
       </c>
       <c r="I84">
-        <v>31885.999999999993</v>
+        <v>32095.899999999994</v>
       </c>
       <c r="J84">
-        <v>30983.944230000001</v>
+        <v>31382.144230000002</v>
       </c>
       <c r="K84">
-        <v>29619.104584000001</v>
+        <v>30097.104584000001</v>
       </c>
       <c r="L84">
-        <v>28901.367544000001</v>
+        <v>29376.867544000001</v>
       </c>
       <c r="M84">
-        <v>30705.085838000006</v>
+        <v>31109.185838000005</v>
       </c>
       <c r="N84">
         <v>33432.836572</v>
@@ -7805,10 +7805,10 @@
         <v>38768.577211999997</v>
       </c>
       <c r="R84">
-        <v>39564.033531999994</v>
+        <v>39562.033531999994</v>
       </c>
       <c r="S84">
-        <v>39751.049060999998</v>
+        <v>39746.049060999998</v>
       </c>
       <c r="T84">
         <v>40157.864253999993</v>
@@ -7864,28 +7864,28 @@
         <v>34008.923536000002</v>
       </c>
       <c r="H85">
-        <v>32659.5</v>
+        <v>32848.400000000001</v>
       </c>
       <c r="I85">
-        <v>32327.296975999998</v>
+        <v>32688.196975999999</v>
       </c>
       <c r="J85">
-        <v>31330.606506000004</v>
+        <v>31937.106506000004</v>
       </c>
       <c r="K85">
-        <v>30070.799999999999</v>
+        <v>30795.5</v>
       </c>
       <c r="L85">
-        <v>28923.3</v>
+        <v>29641.5</v>
       </c>
       <c r="M85">
-        <v>30436.805492</v>
+        <v>31148.505492</v>
       </c>
       <c r="N85">
-        <v>32844.524860999998</v>
+        <v>33392.824861000001</v>
       </c>
       <c r="O85">
-        <v>34611.599999999999</v>
+        <v>34706.400000000001</v>
       </c>
       <c r="P85">
         <v>36069.299999999996</v>
@@ -7903,10 +7903,10 @@
         <v>38833.122562000004</v>
       </c>
       <c r="U85">
-        <v>38614.400000000009</v>
+        <v>38615.600000000006</v>
       </c>
       <c r="V85">
-        <v>38073.9</v>
+        <v>38075.4</v>
       </c>
       <c r="W85">
         <v>37510.216699000004</v>
@@ -8004,7 +8004,7 @@
         <v>34626.759802</v>
       </c>
       <c r="Y86">
-        <v>33706.400000000001</v>
+        <v>33708.700000000004</v>
       </c>
       <c r="Z86">
         <v>35554.436557999994</v>
@@ -8268,7 +8268,7 @@
         <v>36454.749375999992</v>
       </c>
       <c r="X89">
-        <v>35068.857543999999</v>
+        <v>35071.557543999996</v>
       </c>
       <c r="Y89">
         <v>34605.702346999999</v>
@@ -8348,7 +8348,7 @@
         <v>34633.008506999999</v>
       </c>
       <c r="U90">
-        <v>34635.946501999999</v>
+        <v>34637.446501999999</v>
       </c>
       <c r="V90">
         <v>34503.892401999998</v>
@@ -8582,19 +8582,19 @@
         <v>32963.990015000003</v>
       </c>
       <c r="J93">
-        <v>32079.563767999996</v>
+        <v>32204.363767999996</v>
       </c>
       <c r="K93">
-        <v>30684.886134</v>
+        <v>30981.986133999999</v>
       </c>
       <c r="L93">
-        <v>29638.2</v>
+        <v>30110.7</v>
       </c>
       <c r="M93">
-        <v>31011.899999999994</v>
+        <v>31457.299999999996</v>
       </c>
       <c r="N93">
-        <v>33557.399999999994</v>
+        <v>33724.499999999993</v>
       </c>
       <c r="O93">
         <v>35649.884459000001</v>
@@ -8674,16 +8674,16 @@
         <v>32517.698373000003</v>
       </c>
       <c r="K94">
-        <v>31010.569345000004</v>
+        <v>31214.169345000002</v>
       </c>
       <c r="L94">
-        <v>29901.995908000001</v>
+        <v>30139.295908</v>
       </c>
       <c r="M94">
-        <v>31235.129443000002</v>
+        <v>31471.129443000002</v>
       </c>
       <c r="N94">
-        <v>33757.599999999991</v>
+        <v>33803.499999999993</v>
       </c>
       <c r="O94">
         <v>35787.070698999989</v>
@@ -8754,25 +8754,25 @@
         <v>35652.323516000004</v>
       </c>
       <c r="H95">
-        <v>34073.270349999999</v>
+        <v>34272.970349999996</v>
       </c>
       <c r="I95">
-        <v>33149.977300999999</v>
+        <v>33608.877301</v>
       </c>
       <c r="J95">
-        <v>32276.575146999996</v>
+        <v>32754.775146999997</v>
       </c>
       <c r="K95">
-        <v>30884.427663999999</v>
+        <v>31361.527663999997</v>
       </c>
       <c r="L95">
-        <v>29848.800000000003</v>
+        <v>30322.000000000004</v>
       </c>
       <c r="M95">
-        <v>31377.041021999998</v>
+        <v>31655.241021999998</v>
       </c>
       <c r="N95">
-        <v>34094.299999999996</v>
+        <v>34137.1</v>
       </c>
       <c r="O95">
         <v>36128.753604999998</v>
@@ -8843,31 +8843,31 @@
         <v>36335.464376000004</v>
       </c>
       <c r="H96">
-        <v>34853</v>
+        <v>34917.4</v>
       </c>
       <c r="I96">
-        <v>33674.716195000001</v>
+        <v>34158.816194999999</v>
       </c>
       <c r="J96">
-        <v>32751.002118000004</v>
+        <v>33241.502118000004</v>
       </c>
       <c r="K96">
-        <v>31275.893470000003</v>
+        <v>31763.193470000002</v>
       </c>
       <c r="L96">
-        <v>29995.199999999997</v>
+        <v>30480.899999999998</v>
       </c>
       <c r="M96">
-        <v>31064.427042999996</v>
+        <v>31546.927042999996</v>
       </c>
       <c r="N96">
-        <v>33284.959511000001</v>
+        <v>33763.959511000001</v>
       </c>
       <c r="O96">
-        <v>35400.699999999997</v>
+        <v>35777</v>
       </c>
       <c r="P96">
-        <v>37502.306313000001</v>
+        <v>37540.606313000004</v>
       </c>
       <c r="Q96">
         <v>38992.87080199999</v>
@@ -8932,28 +8932,28 @@
         <v>35899.282835999998</v>
       </c>
       <c r="H97">
-        <v>34362.546884000003</v>
+        <v>34427.246884</v>
       </c>
       <c r="I97">
-        <v>33416.657799999994</v>
+        <v>33804.957799999996</v>
       </c>
       <c r="J97">
-        <v>32245.304603999997</v>
+        <v>32731.604603999996</v>
       </c>
       <c r="K97">
-        <v>30537.452973000007</v>
+        <v>31019.552973000005</v>
       </c>
       <c r="L97">
-        <v>28788.310124000003</v>
+        <v>29270.910124000002</v>
       </c>
       <c r="M97">
-        <v>28701.798656999999</v>
+        <v>29181.098656999999</v>
       </c>
       <c r="N97">
-        <v>29556.827272999999</v>
+        <v>30032.227273</v>
       </c>
       <c r="O97">
-        <v>31204.198669000001</v>
+        <v>31267.498669000001</v>
       </c>
       <c r="P97">
         <v>32671.347284000003</v>
@@ -9030,13 +9030,13 @@
         <v>32681.439569999995</v>
       </c>
       <c r="K98">
-        <v>31015.321649000001</v>
+        <v>31111.321649000001</v>
       </c>
       <c r="L98">
-        <v>29865.127396000004</v>
+        <v>30101.627396000004</v>
       </c>
       <c r="M98">
-        <v>30882.542731999998</v>
+        <v>31070.742731999999</v>
       </c>
       <c r="N98">
         <v>33360</v>
@@ -9134,7 +9134,7 @@
         <v>36822.952576999996</v>
       </c>
       <c r="P99">
-        <v>38660.399999999994</v>
+        <v>38662.399999999994</v>
       </c>
       <c r="Q99">
         <v>40200.615258999991</v>
@@ -9416,31 +9416,31 @@
         <v>44180.7</v>
       </c>
       <c r="U102">
-        <v>43922.399999999994</v>
+        <v>43926.7</v>
       </c>
       <c r="V102">
-        <v>43397.499999999985</v>
+        <v>43402.299999999988</v>
       </c>
       <c r="W102">
-        <v>42285.473466999989</v>
+        <v>42290.37346699999</v>
       </c>
       <c r="X102">
-        <v>40750.988938000002</v>
+        <v>40755.588938000001</v>
       </c>
       <c r="Y102">
-        <v>39513.400000000009</v>
+        <v>39518.100000000006</v>
       </c>
       <c r="Z102">
-        <v>41451.433908000006</v>
+        <v>41456.133908000003</v>
       </c>
       <c r="AA102">
-        <v>43006.837441999996</v>
+        <v>43011.537441999993</v>
       </c>
       <c r="AB102">
-        <v>42464.824717999989</v>
+        <v>42469.624717999992</v>
       </c>
       <c r="AC102">
-        <v>41804.700000000004</v>
+        <v>41809.500000000007</v>
       </c>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.2">
@@ -9460,43 +9460,43 @@
         <v>1</v>
       </c>
       <c r="F103">
-        <v>39905.269348000002</v>
+        <v>39909.369348</v>
       </c>
       <c r="G103">
-        <v>37966.85615</v>
+        <v>38187.456149999998</v>
       </c>
       <c r="H103">
-        <v>36291.800000000003</v>
+        <v>36764.9</v>
       </c>
       <c r="I103">
-        <v>35471.505941999996</v>
+        <v>35958.605941999995</v>
       </c>
       <c r="J103">
-        <v>34531.002559</v>
+        <v>35015.502559</v>
       </c>
       <c r="K103">
-        <v>32966.305944999993</v>
+        <v>33448.705944999994</v>
       </c>
       <c r="L103">
-        <v>32103.756968000002</v>
+        <v>32583.256968000002</v>
       </c>
       <c r="M103">
-        <v>33262.979655999996</v>
+        <v>33738.279655999999</v>
       </c>
       <c r="N103">
-        <v>35972.144788000005</v>
+        <v>36262.844788000002</v>
       </c>
       <c r="O103">
         <v>38594.730714000005</v>
       </c>
       <c r="P103">
-        <v>40527.687420000009</v>
+        <v>40529.387420000006</v>
       </c>
       <c r="Q103">
-        <v>42188.299999999988</v>
+        <v>42208.599999999991</v>
       </c>
       <c r="R103">
-        <v>43354.810591999994</v>
+        <v>43356.310591999994</v>
       </c>
       <c r="S103">
         <v>43413.847384000001</v>
@@ -9508,28 +9508,28 @@
         <v>43337.328473000001</v>
       </c>
       <c r="V103">
-        <v>42998.6</v>
+        <v>43007.6</v>
       </c>
       <c r="W103">
-        <v>42046.421695000005</v>
+        <v>42056.521695000003</v>
       </c>
       <c r="X103">
-        <v>40435.65726900001</v>
+        <v>40445.857269000007</v>
       </c>
       <c r="Y103">
-        <v>39213.806980999994</v>
+        <v>39221.406980999993</v>
       </c>
       <c r="Z103">
-        <v>40904.973023999999</v>
+        <v>40910.373024</v>
       </c>
       <c r="AA103">
-        <v>42527.03645</v>
+        <v>42532.636449999998</v>
       </c>
       <c r="AB103">
-        <v>41930.613188999996</v>
+        <v>41936.113188999996</v>
       </c>
       <c r="AC103">
-        <v>41270.312585</v>
+        <v>41275.712585000001</v>
       </c>
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.2">
@@ -9549,34 +9549,34 @@
         <v>1</v>
       </c>
       <c r="F104">
-        <v>40390.168968999998</v>
+        <v>40395.568969</v>
       </c>
       <c r="G104">
-        <v>38984.592175999998</v>
+        <v>39078.692175999997</v>
       </c>
       <c r="H104">
-        <v>37292.177881000003</v>
+        <v>37667.277881000002</v>
       </c>
       <c r="I104">
-        <v>36198.800000000003</v>
+        <v>36732</v>
       </c>
       <c r="J104">
-        <v>34782.089604000001</v>
+        <v>35512.589604000001</v>
       </c>
       <c r="K104">
-        <v>32949.605109999997</v>
+        <v>33673.90511</v>
       </c>
       <c r="L104">
-        <v>31085.282248000007</v>
+        <v>31803.882248000005</v>
       </c>
       <c r="M104">
-        <v>31029.161938000005</v>
+        <v>31737.761938000003</v>
       </c>
       <c r="N104">
-        <v>32062.041843999999</v>
+        <v>32762.041843999999</v>
       </c>
       <c r="O104">
-        <v>33906.899999999994</v>
+        <v>34088.399999999994</v>
       </c>
       <c r="P104">
         <v>35774</v>
@@ -9641,28 +9641,28 @@
         <v>40116.600000000006</v>
       </c>
       <c r="G105">
-        <v>38624.804337999994</v>
+        <v>38637.904337999993</v>
       </c>
       <c r="H105">
-        <v>36816.608312000004</v>
+        <v>37135.608312000004</v>
       </c>
       <c r="I105">
-        <v>35913.812443999996</v>
+        <v>36399.412443999994</v>
       </c>
       <c r="J105">
-        <v>34853.439810000003</v>
+        <v>35337.339810000005</v>
       </c>
       <c r="K105">
-        <v>33169.500756000001</v>
+        <v>33780.200755999998</v>
       </c>
       <c r="L105">
-        <v>32078.640953999995</v>
+        <v>32788.040953999996</v>
       </c>
       <c r="M105">
-        <v>33712.355858000003</v>
+        <v>34332.655858000006</v>
       </c>
       <c r="N105">
-        <v>36767.800000000003</v>
+        <v>37011.200000000004</v>
       </c>
       <c r="O105">
         <v>39306.017857999992</v>
@@ -9727,31 +9727,31 @@
         <v>1</v>
       </c>
       <c r="F106">
-        <v>41103.946355999993</v>
+        <v>41113.046355999992</v>
       </c>
       <c r="G106">
-        <v>39051.407242999987</v>
+        <v>39404.507242999985</v>
       </c>
       <c r="H106">
-        <v>37347.299999999996</v>
+        <v>37836.699999999997</v>
       </c>
       <c r="I106">
-        <v>36361.702181999994</v>
+        <v>36850.602181999995</v>
       </c>
       <c r="J106">
-        <v>35037.459736000004</v>
+        <v>35762.159736000001</v>
       </c>
       <c r="K106">
-        <v>33475.652504000005</v>
+        <v>34198.352504000002</v>
       </c>
       <c r="L106">
-        <v>32074.365574000003</v>
+        <v>32790.265574000005</v>
       </c>
       <c r="M106">
-        <v>33308.291595000002</v>
+        <v>34014.691595000004</v>
       </c>
       <c r="N106">
-        <v>36081.899999999994</v>
+        <v>36464.999999999993</v>
       </c>
       <c r="O106">
         <v>38567.541786000002</v>
@@ -9816,34 +9816,34 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>40397.126366999997</v>
+        <v>40398.126366999997</v>
       </c>
       <c r="G107">
-        <v>38254.698781999999</v>
+        <v>38531.398781999997</v>
       </c>
       <c r="H107">
-        <v>36606.306775999998</v>
+        <v>37095.706775999999</v>
       </c>
       <c r="I107">
-        <v>35737.499999999993</v>
+        <v>36224.299999999996</v>
       </c>
       <c r="J107">
-        <v>34512.286031000003</v>
+        <v>35107.486031</v>
       </c>
       <c r="K107">
-        <v>33143.699999999997</v>
+        <v>33864</v>
       </c>
       <c r="L107">
-        <v>31701.417723999999</v>
+        <v>32416.317724</v>
       </c>
       <c r="M107">
-        <v>32874.122833000001</v>
+        <v>33583.722833</v>
       </c>
       <c r="N107">
-        <v>35543.332994000004</v>
+        <v>35941.332994000004</v>
       </c>
       <c r="O107">
-        <v>38052.539327999999</v>
+        <v>38150.339328000002</v>
       </c>
       <c r="P107">
         <v>39824.999999999993</v>
@@ -9905,28 +9905,28 @@
         <v>1</v>
       </c>
       <c r="F108">
-        <v>38978.099999999991</v>
+        <v>39272.999999999993</v>
       </c>
       <c r="G108">
-        <v>37194.373090000001</v>
+        <v>37677.773090000002</v>
       </c>
       <c r="H108">
-        <v>35830.901854000003</v>
+        <v>36310.001854000002</v>
       </c>
       <c r="I108">
-        <v>35115.436807000006</v>
+        <v>35591.736807000008</v>
       </c>
       <c r="J108">
-        <v>34157.927453999997</v>
+        <v>34632.527453999995</v>
       </c>
       <c r="K108">
-        <v>32861.800000000003</v>
+        <v>33333.300000000003</v>
       </c>
       <c r="L108">
-        <v>31720.802798000008</v>
+        <v>32189.902798000006</v>
       </c>
       <c r="M108">
-        <v>33139.899099999995</v>
+        <v>33416.299099999997</v>
       </c>
       <c r="N108">
         <v>35744.300000000003</v>
@@ -9997,34 +9997,34 @@
         <v>39039.075483000008</v>
       </c>
       <c r="G109">
-        <v>37047.772984000003</v>
+        <v>37358.472984</v>
       </c>
       <c r="H109">
-        <v>35220.980552000008</v>
+        <v>35712.180552000005</v>
       </c>
       <c r="I109">
-        <v>33957.764931999991</v>
+        <v>34446.064931999994</v>
       </c>
       <c r="J109">
-        <v>33108.362695999997</v>
+        <v>33591.962695999995</v>
       </c>
       <c r="K109">
-        <v>31904.911803999999</v>
+        <v>32387.311804000001</v>
       </c>
       <c r="L109">
-        <v>29950.063065999999</v>
+        <v>30429.863065999998</v>
       </c>
       <c r="M109">
-        <v>29206.631941000003</v>
+        <v>29684.431941000003</v>
       </c>
       <c r="N109">
-        <v>30036.399999999998</v>
+        <v>30509.3</v>
       </c>
       <c r="O109">
-        <v>31526.409760999995</v>
+        <v>31913.209760999995</v>
       </c>
       <c r="P109">
-        <v>33281.117375000002</v>
+        <v>33285.017375000003</v>
       </c>
       <c r="Q109">
         <v>34651.98226199999</v>
@@ -10350,31 +10350,31 @@
         <v>1</v>
       </c>
       <c r="F113">
-        <v>39327.646718000004</v>
+        <v>39393.646718000004</v>
       </c>
       <c r="G113">
-        <v>37164.126147999988</v>
+        <v>37409.126147999988</v>
       </c>
       <c r="H113">
-        <v>35432.259473999991</v>
+        <v>35882.259473999991</v>
       </c>
       <c r="I113">
-        <v>34306.903972</v>
+        <v>34789.903972</v>
       </c>
       <c r="J113">
-        <v>33637.165821999995</v>
+        <v>34118.965821999998</v>
       </c>
       <c r="K113">
-        <v>32696.604668000007</v>
+        <v>33220.104668000007</v>
       </c>
       <c r="L113">
-        <v>31343.584284</v>
+        <v>32055.084284</v>
       </c>
       <c r="M113">
-        <v>32657.835456000001</v>
+        <v>33330.235456000002</v>
       </c>
       <c r="N113">
-        <v>35932.760114000012</v>
+        <v>36142.86011400001</v>
       </c>
       <c r="O113">
         <v>38262.646814000007</v>
@@ -10448,25 +10448,25 @@
         <v>36269.990539999999</v>
       </c>
       <c r="I114">
-        <v>34990.008140999998</v>
+        <v>35120.208140999996</v>
       </c>
       <c r="J114">
-        <v>34126.868576000001</v>
+        <v>34367.668576000004</v>
       </c>
       <c r="K114">
-        <v>33301.815701999993</v>
+        <v>33541.715701999994</v>
       </c>
       <c r="L114">
-        <v>31893.956384000001</v>
+        <v>32133.656384000002</v>
       </c>
       <c r="M114">
-        <v>33217.103417999999</v>
+        <v>33454.603417999999</v>
       </c>
       <c r="N114">
-        <v>35889.140743999997</v>
+        <v>36101.140743999997</v>
       </c>
       <c r="O114">
-        <v>38461.934326999995</v>
+        <v>38469.834326999997</v>
       </c>
       <c r="P114">
         <v>40373.100000000006</v>
@@ -10490,25 +10490,25 @@
         <v>43235.114293999999</v>
       </c>
       <c r="W114">
-        <v>42324.9</v>
+        <v>42334.9</v>
       </c>
       <c r="X114">
-        <v>40501.321045999997</v>
+        <v>40517.621046</v>
       </c>
       <c r="Y114">
-        <v>38773.992542</v>
+        <v>38787.792542000003</v>
       </c>
       <c r="Z114">
-        <v>40439.4</v>
+        <v>40453.700000000004</v>
       </c>
       <c r="AA114">
-        <v>42179.678171999993</v>
+        <v>42193.87817199999</v>
       </c>
       <c r="AB114">
-        <v>41736.6</v>
+        <v>41748.5</v>
       </c>
       <c r="AC114">
-        <v>40777</v>
+        <v>40781.9</v>
       </c>
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.2">
@@ -10528,34 +10528,34 @@
         <v>1</v>
       </c>
       <c r="F115">
-        <v>38780.171492000001</v>
+        <v>38781.571492000003</v>
       </c>
       <c r="G115">
-        <v>36825.130192000004</v>
+        <v>36967.130192000004</v>
       </c>
       <c r="H115">
-        <v>35119.412903999997</v>
+        <v>35360.812903999999</v>
       </c>
       <c r="I115">
-        <v>34147.710689000007</v>
+        <v>34389.110689000008</v>
       </c>
       <c r="J115">
-        <v>33555.420925999999</v>
+        <v>33796.420925999999</v>
       </c>
       <c r="K115">
-        <v>32632.389969</v>
+        <v>32873.089969000001</v>
       </c>
       <c r="L115">
-        <v>31185.203915999995</v>
+        <v>31560.203915999995</v>
       </c>
       <c r="M115">
-        <v>32328.563334000002</v>
+        <v>32799.863334000001</v>
       </c>
       <c r="N115">
-        <v>34904.923854000001</v>
+        <v>35316.623853999998</v>
       </c>
       <c r="O115">
-        <v>37530.858355000011</v>
+        <v>37546.358355000011</v>
       </c>
       <c r="P115">
         <v>39326.799999999996</v>
@@ -10576,22 +10576,22 @@
         <v>42780.399999999994</v>
       </c>
       <c r="V115">
-        <v>42632.73058000001</v>
+        <v>42640.73058000001</v>
       </c>
       <c r="W115">
-        <v>41811.822289000003</v>
+        <v>41826.022289</v>
       </c>
       <c r="X115">
-        <v>39962.490573000003</v>
+        <v>39977.490573000003</v>
       </c>
       <c r="Y115">
-        <v>38274.587716000002</v>
+        <v>38288.687716</v>
       </c>
       <c r="Z115">
-        <v>40098.367561999999</v>
+        <v>40106.767562000001</v>
       </c>
       <c r="AA115">
-        <v>41733.682056000005</v>
+        <v>41735.682056000005</v>
       </c>
       <c r="AB115">
         <v>41059.666538999998</v>
@@ -10926,34 +10926,34 @@
         <v>44332.192535999995</v>
       </c>
       <c r="T119">
-        <v>44966.299999999996</v>
+        <v>44967.499999999993</v>
       </c>
       <c r="U119">
-        <v>44977.610780000003</v>
+        <v>44987.210780000001</v>
       </c>
       <c r="V119">
-        <v>44802.9</v>
+        <v>44812.5</v>
       </c>
       <c r="W119">
-        <v>43762.075259999998</v>
+        <v>43771.675259999996</v>
       </c>
       <c r="X119">
-        <v>41684.290663999993</v>
+        <v>41693.690663999994</v>
       </c>
       <c r="Y119">
-        <v>39592.430201999996</v>
+        <v>39602.430201999996</v>
       </c>
       <c r="Z119">
-        <v>41297.116383999994</v>
+        <v>41307.216383999992</v>
       </c>
       <c r="AA119">
-        <v>43717.483481999989</v>
+        <v>43727.283481999992</v>
       </c>
       <c r="AB119">
-        <v>43121.147556000004</v>
+        <v>43131.347556000001</v>
       </c>
       <c r="AC119">
-        <v>42139.418511000011</v>
+        <v>42149.618511000008</v>
       </c>
     </row>
     <row r="120" spans="1:29" x14ac:dyDescent="0.2">
@@ -10973,34 +10973,34 @@
         <v>1</v>
       </c>
       <c r="F120">
-        <v>40494.310500000007</v>
+        <v>40503.810500000007</v>
       </c>
       <c r="G120">
-        <v>38156.896661999999</v>
+        <v>38447.396661999999</v>
       </c>
       <c r="H120">
-        <v>36375.744959999996</v>
+        <v>36870.344959999995</v>
       </c>
       <c r="I120">
-        <v>35159.335145000005</v>
+        <v>35652.735145000006</v>
       </c>
       <c r="J120">
-        <v>34451.83013599999</v>
+        <v>34941.630135999992</v>
       </c>
       <c r="K120">
-        <v>33382.607734999998</v>
+        <v>34093.007734999999</v>
       </c>
       <c r="L120">
-        <v>31908.284692000005</v>
+        <v>32626.684692000006</v>
       </c>
       <c r="M120">
-        <v>33149.145583999998</v>
+        <v>33858.445584000001</v>
       </c>
       <c r="N120">
-        <v>35996.457505999999</v>
+        <v>36500.157505999996</v>
       </c>
       <c r="O120">
-        <v>38529.636258000006</v>
+        <v>38862.636258000006</v>
       </c>
       <c r="P120">
         <v>41012.732171999989</v>
@@ -11012,37 +11012,37 @@
         <v>44374.739650000003</v>
       </c>
       <c r="S120">
-        <v>44958.478836000009</v>
+        <v>44963.878836000011</v>
       </c>
       <c r="T120">
-        <v>45609.465078000001</v>
+        <v>45614.765078000004</v>
       </c>
       <c r="U120">
-        <v>45714.336818999996</v>
+        <v>45719.636818999999</v>
       </c>
       <c r="V120">
-        <v>45254.966624999994</v>
+        <v>45260.766624999997</v>
       </c>
       <c r="W120">
-        <v>44255.624808999994</v>
+        <v>44261.824808999991</v>
       </c>
       <c r="X120">
-        <v>42078.210985000005</v>
+        <v>42085.910985000002</v>
       </c>
       <c r="Y120">
-        <v>39992.450539999998</v>
+        <v>40001.450539999998</v>
       </c>
       <c r="Z120">
-        <v>41731.300000000003</v>
+        <v>41739.700000000004</v>
       </c>
       <c r="AA120">
-        <v>43921.331632000001</v>
+        <v>43929.931632</v>
       </c>
       <c r="AB120">
-        <v>43568.043223999994</v>
+        <v>43576.843223999997</v>
       </c>
       <c r="AC120">
-        <v>42763.898610000004</v>
+        <v>42773.298610000005</v>
       </c>
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.2">
@@ -11062,31 +11062,31 @@
         <v>1</v>
       </c>
       <c r="F121">
-        <v>40836.838967000003</v>
+        <v>40846.338967000003</v>
       </c>
       <c r="G121">
-        <v>38442.341802999996</v>
+        <v>38797.941802999994</v>
       </c>
       <c r="H121">
-        <v>36625.682306000002</v>
+        <v>37122.082306000004</v>
       </c>
       <c r="I121">
-        <v>35447.542542000003</v>
+        <v>36019.442542000004</v>
       </c>
       <c r="J121">
-        <v>34551.665601000001</v>
+        <v>35276.365600999998</v>
       </c>
       <c r="K121">
-        <v>33745.504904000001</v>
+        <v>34463.704903999998</v>
       </c>
       <c r="L121">
-        <v>32296.739865000003</v>
+        <v>33008.839865000002</v>
       </c>
       <c r="M121">
-        <v>33638.933570000008</v>
+        <v>34341.633570000005</v>
       </c>
       <c r="N121">
-        <v>36627.290047999995</v>
+        <v>37097.990047999992</v>
       </c>
       <c r="O121">
         <v>39434.800000000003</v>
@@ -11101,37 +11101,37 @@
         <v>44604.866440999998</v>
       </c>
       <c r="S121">
-        <v>45308.17466199999</v>
+        <v>45310.074661999992</v>
       </c>
       <c r="T121">
-        <v>45941.208154</v>
+        <v>45947.708154</v>
       </c>
       <c r="U121">
-        <v>45834.599999999991</v>
+        <v>45840.399999999994</v>
       </c>
       <c r="V121">
-        <v>45310</v>
+        <v>45316.3</v>
       </c>
       <c r="W121">
-        <v>44123.700583999991</v>
+        <v>44130.500583999994</v>
       </c>
       <c r="X121">
-        <v>42034.225491000005</v>
+        <v>42041.225491000005</v>
       </c>
       <c r="Y121">
-        <v>40226.012849999992</v>
+        <v>40235.212849999989</v>
       </c>
       <c r="Z121">
-        <v>42144.017991999986</v>
+        <v>42153.317991999989</v>
       </c>
       <c r="AA121">
-        <v>44187.270184000001</v>
+        <v>44196.470183999998</v>
       </c>
       <c r="AB121">
-        <v>43781.861087000005</v>
+        <v>43791.261087000006</v>
       </c>
       <c r="AC121">
-        <v>42803.999999999993</v>
+        <v>42810.499999999993</v>
       </c>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.2">
@@ -11154,28 +11154,28 @@
         <v>41120.514470000002</v>
       </c>
       <c r="G122">
-        <v>38935.897961999995</v>
+        <v>39147.397961999995</v>
       </c>
       <c r="H122">
-        <v>37025.219172000005</v>
+        <v>37519.219172000005</v>
       </c>
       <c r="I122">
-        <v>35784.404732000003</v>
+        <v>36486.804732000004</v>
       </c>
       <c r="J122">
-        <v>35010.544163000006</v>
+        <v>35739.644163000004</v>
       </c>
       <c r="K122">
-        <v>34040.822304000001</v>
+        <v>34764.522303999998</v>
       </c>
       <c r="L122">
-        <v>32768.649981000002</v>
+        <v>33484.049981000004</v>
       </c>
       <c r="M122">
-        <v>34087.652969999996</v>
+        <v>34685.452969999998</v>
       </c>
       <c r="N122">
-        <v>37295.912203999993</v>
+        <v>37554.312203999994</v>
       </c>
       <c r="O122">
         <v>40009.399999999994</v>
@@ -11184,43 +11184,43 @@
         <v>42242.655141999996</v>
       </c>
       <c r="Q122">
-        <v>44229.899999999994</v>
+        <v>44232.2</v>
       </c>
       <c r="R122">
-        <v>45581.413760999996</v>
+        <v>45586.613760999993</v>
       </c>
       <c r="S122">
-        <v>46019.236546000007</v>
+        <v>46023.236546000007</v>
       </c>
       <c r="T122">
-        <v>46570.298055000007</v>
+        <v>46572.898055000005</v>
       </c>
       <c r="U122">
-        <v>46387.688579999995</v>
+        <v>46390.788579999993</v>
       </c>
       <c r="V122">
-        <v>45961.252045000001</v>
+        <v>45963.952044999998</v>
       </c>
       <c r="W122">
-        <v>44835.199999999997</v>
+        <v>44840.2</v>
       </c>
       <c r="X122">
-        <v>42719.02649199999</v>
+        <v>42724.326491999993</v>
       </c>
       <c r="Y122">
-        <v>40752.1</v>
+        <v>40759.9</v>
       </c>
       <c r="Z122">
-        <v>42751.910236000011</v>
+        <v>42760.110236000008</v>
       </c>
       <c r="AA122">
-        <v>44900.388428999999</v>
+        <v>44907.688429000002</v>
       </c>
       <c r="AB122">
-        <v>44591.114667999995</v>
+        <v>44598.914667999998</v>
       </c>
       <c r="AC122">
-        <v>43620.150744999999</v>
+        <v>43629.150744999999</v>
       </c>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.2">
@@ -11240,31 +11240,31 @@
         <v>1</v>
       </c>
       <c r="F123">
-        <v>41811.761200000001</v>
+        <v>41821.761200000001</v>
       </c>
       <c r="G123">
-        <v>39891.360800000002</v>
+        <v>40132.460800000001</v>
       </c>
       <c r="H123">
-        <v>38294.696100000001</v>
+        <v>38764.696100000001</v>
       </c>
       <c r="I123">
-        <v>37226.549500000001</v>
+        <v>37934.6495</v>
       </c>
       <c r="J123">
-        <v>36454.1</v>
+        <v>37177.9</v>
       </c>
       <c r="K123">
-        <v>35468.157600000006</v>
+        <v>36185.857600000003</v>
       </c>
       <c r="L123">
-        <v>34185.673900000002</v>
+        <v>34896.173900000002</v>
       </c>
       <c r="M123">
-        <v>35460.535300000003</v>
+        <v>36122.635300000002</v>
       </c>
       <c r="N123">
-        <v>38296.390799999994</v>
+        <v>38516.190799999997</v>
       </c>
       <c r="O123">
         <v>40808.92</v>
@@ -11273,10 +11273,10 @@
         <v>43012.6</v>
       </c>
       <c r="Q123">
-        <v>44667.153399999996</v>
+        <v>44672.453399999999</v>
       </c>
       <c r="R123">
-        <v>46045.425500000005</v>
+        <v>46048.625500000002</v>
       </c>
       <c r="S123">
         <v>46310.280400000003</v>
@@ -11291,25 +11291,25 @@
         <v>46376.7071</v>
       </c>
       <c r="W123">
-        <v>45122.7039</v>
+        <v>45124.803899999999</v>
       </c>
       <c r="X123">
-        <v>42951.088599999995</v>
+        <v>42955.888599999998</v>
       </c>
       <c r="Y123">
-        <v>41049.9</v>
+        <v>41054.800000000003</v>
       </c>
       <c r="Z123">
-        <v>42930.399999999994</v>
+        <v>42935.199999999997</v>
       </c>
       <c r="AA123">
-        <v>44880.895500000006</v>
+        <v>44885.595500000003</v>
       </c>
       <c r="AB123">
-        <v>44512.390600000006</v>
+        <v>44517.090600000003</v>
       </c>
       <c r="AC123">
-        <v>43616.899999999994</v>
+        <v>43621.7</v>
       </c>
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.2">
@@ -11329,31 +11329,31 @@
         <v>1</v>
       </c>
       <c r="F124">
-        <v>41928.806099999994</v>
+        <v>41951.106099999997</v>
       </c>
       <c r="G124">
-        <v>40037.363099999995</v>
+        <v>40367.263099999996</v>
       </c>
       <c r="H124">
-        <v>38417.768499999998</v>
+        <v>38978.768499999998</v>
       </c>
       <c r="I124">
-        <v>37272.1702</v>
+        <v>38002.470200000003</v>
       </c>
       <c r="J124">
-        <v>36510.253000000004</v>
+        <v>37236.453000000001</v>
       </c>
       <c r="K124">
-        <v>35596.7739</v>
+        <v>36313.973899999997</v>
       </c>
       <c r="L124">
-        <v>34066.803399999997</v>
+        <v>34780.6034</v>
       </c>
       <c r="M124">
-        <v>35067.429199999999</v>
+        <v>35736.729200000002</v>
       </c>
       <c r="N124">
-        <v>37787.444100000001</v>
+        <v>37995.444100000001</v>
       </c>
       <c r="O124">
         <v>40369.622000000003</v>
@@ -11368,37 +11368,37 @@
         <v>45438.3</v>
       </c>
       <c r="S124">
-        <v>45656.548600000002</v>
+        <v>45658.6486</v>
       </c>
       <c r="T124">
-        <v>45777.897199999999</v>
+        <v>45782.197200000002</v>
       </c>
       <c r="U124">
-        <v>45530.577099999995</v>
+        <v>45534.877099999998</v>
       </c>
       <c r="V124">
-        <v>45259.775199999996</v>
+        <v>45264.775199999996</v>
       </c>
       <c r="W124">
-        <v>44212.323100000001</v>
+        <v>44216.723100000003</v>
       </c>
       <c r="X124">
-        <v>42139.838300000003</v>
+        <v>42145.438300000002</v>
       </c>
       <c r="Y124">
-        <v>40357.5</v>
+        <v>40363.5</v>
       </c>
       <c r="Z124">
-        <v>42267.024299999997</v>
+        <v>42269.024299999997</v>
       </c>
       <c r="AA124">
         <v>44044.510900000001</v>
       </c>
       <c r="AB124">
-        <v>43371.9182</v>
+        <v>43373.018199999999</v>
       </c>
       <c r="AC124">
-        <v>42629.2402</v>
+        <v>42635.2402</v>
       </c>
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.2">
@@ -11418,22 +11418,22 @@
         <v>1</v>
       </c>
       <c r="F125">
-        <v>41589.220400000006</v>
+        <v>41818.920400000003</v>
       </c>
       <c r="G125">
-        <v>40045.419200000004</v>
+        <v>40697.119200000001</v>
       </c>
       <c r="H125">
-        <v>38607.906799999997</v>
+        <v>39332.406799999997</v>
       </c>
       <c r="I125">
-        <v>37332.715100000001</v>
+        <v>38049.615100000003</v>
       </c>
       <c r="J125">
-        <v>36388.273999999998</v>
+        <v>37004.673999999999</v>
       </c>
       <c r="K125">
-        <v>35250.5</v>
+        <v>35282.1</v>
       </c>
       <c r="L125">
         <v>33201.661899999999</v>
@@ -11448,16 +11448,16 @@
         <v>35500.971899999997</v>
       </c>
       <c r="P125">
-        <v>37479.853000000003</v>
+        <v>37519.953000000001</v>
       </c>
       <c r="Q125">
-        <v>39264.726299999995</v>
+        <v>39513.026299999998</v>
       </c>
       <c r="R125">
-        <v>40476.522099999995</v>
+        <v>40624.322099999998</v>
       </c>
       <c r="S125">
-        <v>41462.359299999996</v>
+        <v>41650.159299999999</v>
       </c>
       <c r="T125">
         <v>41693.926200000002</v>
@@ -11469,13 +11469,13 @@
         <v>41213.5</v>
       </c>
       <c r="W125">
-        <v>40442.187099999996</v>
+        <v>40444.487099999998</v>
       </c>
       <c r="X125">
-        <v>38992.940999999999</v>
+        <v>39365.940999999999</v>
       </c>
       <c r="Y125">
-        <v>37804.787499999999</v>
+        <v>38049.587500000001</v>
       </c>
       <c r="Z125">
         <v>40027.800000000003</v>
@@ -11510,31 +11510,31 @@
         <v>41057.9764</v>
       </c>
       <c r="G126">
-        <v>39411.486800000006</v>
+        <v>39636.186800000003</v>
       </c>
       <c r="H126">
-        <v>37951.2212</v>
+        <v>38423.821199999998</v>
       </c>
       <c r="I126">
-        <v>36885.200000000004</v>
+        <v>37485.300000000003</v>
       </c>
       <c r="J126">
-        <v>36100.844000000005</v>
+        <v>36826.444000000003</v>
       </c>
       <c r="K126">
-        <v>35210.964500000002</v>
+        <v>35930.864500000003</v>
       </c>
       <c r="L126">
-        <v>34015.343999999997</v>
+        <v>34728.743999999999</v>
       </c>
       <c r="M126">
-        <v>35347.508300000001</v>
+        <v>36053.708299999998</v>
       </c>
       <c r="N126">
-        <v>38159.166700000002</v>
+        <v>38462.166700000002</v>
       </c>
       <c r="O126">
-        <v>40571.238000000005</v>
+        <v>40629.338000000003</v>
       </c>
       <c r="P126">
         <v>42687.571400000001</v>
@@ -11546,19 +11546,19 @@
         <v>45177.6538</v>
       </c>
       <c r="S126">
-        <v>45488.1</v>
+        <v>45489.5</v>
       </c>
       <c r="T126">
-        <v>45881.797300000006</v>
+        <v>45882.997300000003</v>
       </c>
       <c r="U126">
-        <v>45874.089</v>
+        <v>45875.389000000003</v>
       </c>
       <c r="V126">
-        <v>45518.3174</v>
+        <v>45519.8174</v>
       </c>
       <c r="W126">
-        <v>44511.520499999999</v>
+        <v>44514.120499999997</v>
       </c>
       <c r="X126">
         <v>42326.978999999999</v>
@@ -11567,16 +11567,16 @@
         <v>40544.929199999999</v>
       </c>
       <c r="Z126">
-        <v>42548.800000000003</v>
+        <v>42550.400000000001</v>
       </c>
       <c r="AA126">
-        <v>44304.641100000001</v>
+        <v>44307.841099999998</v>
       </c>
       <c r="AB126">
-        <v>43814.372300000003</v>
+        <v>43817.5723</v>
       </c>
       <c r="AC126">
-        <v>42821.515599999999</v>
+        <v>42825.015599999999</v>
       </c>
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.2">
@@ -11596,76 +11596,76 @@
         <v>1</v>
       </c>
       <c r="F127">
-        <v>40964.988499999999</v>
+        <v>40982.188499999997</v>
       </c>
       <c r="G127">
-        <v>38879.410300000003</v>
+        <v>39131.910300000003</v>
       </c>
       <c r="H127">
-        <v>37256.220399999998</v>
+        <v>37707.820399999997</v>
       </c>
       <c r="I127">
-        <v>36193.484300000004</v>
+        <v>36684.684300000001</v>
       </c>
       <c r="J127">
-        <v>35488.740300000005</v>
+        <v>36148.940300000002</v>
       </c>
       <c r="K127">
-        <v>34705.935000000005</v>
+        <v>35427.035000000003</v>
       </c>
       <c r="L127">
-        <v>33370.458099999996</v>
+        <v>34085.758099999999</v>
       </c>
       <c r="M127">
-        <v>34325.1</v>
+        <v>35032.5</v>
       </c>
       <c r="N127">
-        <v>37007.696499999998</v>
+        <v>37571.996500000001</v>
       </c>
       <c r="O127">
-        <v>39479.599999999999</v>
+        <v>39758.1</v>
       </c>
       <c r="P127">
         <v>41346.553200000002</v>
       </c>
       <c r="Q127">
-        <v>43078.897199999999</v>
+        <v>43080.497199999998</v>
       </c>
       <c r="R127">
-        <v>44034.4807</v>
+        <v>44037.4807</v>
       </c>
       <c r="S127">
-        <v>44340.763500000001</v>
+        <v>44346.763500000001</v>
       </c>
       <c r="T127">
-        <v>44931.681199999999</v>
+        <v>44936.781199999998</v>
       </c>
       <c r="U127">
-        <v>44971.921300000002</v>
+        <v>44976.5213</v>
       </c>
       <c r="V127">
-        <v>44617.343500000003</v>
+        <v>44622.443500000001</v>
       </c>
       <c r="W127">
-        <v>43397.239599999994</v>
+        <v>43403.039599999996</v>
       </c>
       <c r="X127">
-        <v>41435.592000000004</v>
+        <v>41442.692000000003</v>
       </c>
       <c r="Y127">
-        <v>39790.199999999997</v>
+        <v>39797.699999999997</v>
       </c>
       <c r="Z127">
-        <v>41894.285799999998</v>
+        <v>41899.585800000001</v>
       </c>
       <c r="AA127">
-        <v>43636.106800000001</v>
+        <v>43638.306799999998</v>
       </c>
       <c r="AB127">
-        <v>43144.2</v>
+        <v>43146.2</v>
       </c>
       <c r="AC127">
-        <v>42101.843499999995</v>
+        <v>42104.743499999997</v>
       </c>
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.2">
@@ -11685,28 +11685,28 @@
         <v>1</v>
       </c>
       <c r="F128">
-        <v>40399.800000000003</v>
+        <v>40427.9</v>
       </c>
       <c r="G128">
-        <v>38435.199999999997</v>
+        <v>38784.5</v>
       </c>
       <c r="H128">
-        <v>36975.2742</v>
+        <v>37460.174200000001</v>
       </c>
       <c r="I128">
-        <v>35910.261500000001</v>
+        <v>36393.861499999999</v>
       </c>
       <c r="J128">
-        <v>35216</v>
+        <v>35890.5</v>
       </c>
       <c r="K128">
-        <v>34421.100000000006</v>
+        <v>35134.300000000003</v>
       </c>
       <c r="L128">
-        <v>33208.1345</v>
+        <v>33914.434500000003</v>
       </c>
       <c r="M128">
-        <v>34592.200000000004</v>
+        <v>35141.300000000003</v>
       </c>
       <c r="N128">
         <v>37336.199999999997</v>
@@ -11718,37 +11718,37 @@
         <v>41776.699999999997</v>
       </c>
       <c r="Q128">
-        <v>43554.1567</v>
+        <v>43555.256699999998</v>
       </c>
       <c r="R128">
-        <v>44618.597500000003</v>
+        <v>44620.197500000002</v>
       </c>
       <c r="S128">
-        <v>44480.1</v>
+        <v>44482.2</v>
       </c>
       <c r="T128">
         <v>44706.506500000003</v>
       </c>
       <c r="U128">
-        <v>44577.014900000002</v>
+        <v>44578.414900000003</v>
       </c>
       <c r="V128">
-        <v>44265.937900000004</v>
+        <v>44270.037900000003</v>
       </c>
       <c r="W128">
-        <v>43111.058800000006</v>
+        <v>43116.758800000003</v>
       </c>
       <c r="X128">
-        <v>41086.876599999996</v>
+        <v>41092.276599999997</v>
       </c>
       <c r="Y128">
-        <v>39997.773999999998</v>
+        <v>40004.773999999998</v>
       </c>
       <c r="Z128">
-        <v>42382.299999999996</v>
+        <v>42388.7</v>
       </c>
       <c r="AA128">
-        <v>43918.521400000005</v>
+        <v>43920.221400000002</v>
       </c>
       <c r="AB128">
         <v>43198.193299999999</v>
@@ -11774,28 +11774,28 @@
         <v>1</v>
       </c>
       <c r="F129">
-        <v>40612.800000000003</v>
+        <v>40616</v>
       </c>
       <c r="G129">
-        <v>38437.911699999997</v>
+        <v>38535.811699999998</v>
       </c>
       <c r="H129">
-        <v>36781.292100000006</v>
+        <v>37263.492100000003</v>
       </c>
       <c r="I129">
-        <v>35837.831100000003</v>
+        <v>36316.931100000002</v>
       </c>
       <c r="J129">
-        <v>35172.207600000002</v>
+        <v>35803.407599999999</v>
       </c>
       <c r="K129">
-        <v>34429.899999999994</v>
+        <v>35141.199999999997</v>
       </c>
       <c r="L129">
-        <v>33248.399999999994</v>
+        <v>33954.699999999997</v>
       </c>
       <c r="M129">
-        <v>34339.286199999995</v>
+        <v>34687.686199999996</v>
       </c>
       <c r="N129">
         <v>36928.457600000002</v>
@@ -11804,16 +11804,16 @@
         <v>39189.300000000003</v>
       </c>
       <c r="P129">
-        <v>41149.919500000004</v>
+        <v>41151.519500000002</v>
       </c>
       <c r="Q129">
-        <v>43025.024300000005</v>
+        <v>43026.124300000003</v>
       </c>
       <c r="R129">
-        <v>44290.104200000002</v>
+        <v>44292.104200000002</v>
       </c>
       <c r="S129">
-        <v>44287</v>
+        <v>44288.1</v>
       </c>
       <c r="T129">
         <v>44681.479099999997</v>
@@ -11822,28 +11822,28 @@
         <v>44655.233500000002</v>
       </c>
       <c r="V129">
-        <v>44330.872199999998</v>
+        <v>44334.372199999998</v>
       </c>
       <c r="W129">
-        <v>43384.1011</v>
+        <v>43389.801099999997</v>
       </c>
       <c r="X129">
-        <v>41450.626499999998</v>
+        <v>41457.5265</v>
       </c>
       <c r="Y129">
-        <v>39891.146699999998</v>
+        <v>39899.046699999999</v>
       </c>
       <c r="Z129">
-        <v>41730.457200000004</v>
+        <v>41732.557200000003</v>
       </c>
       <c r="AA129">
-        <v>43290.532599999999</v>
+        <v>43293.132599999997</v>
       </c>
       <c r="AB129">
-        <v>42626.289600000004</v>
+        <v>42629.489600000001</v>
       </c>
       <c r="AC129">
-        <v>41557.764799999997</v>
+        <v>41561.164799999999</v>
       </c>
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.2">
@@ -11863,67 +11863,67 @@
         <v>1</v>
       </c>
       <c r="F130">
-        <v>39803.637799999997</v>
+        <v>39807.037799999998</v>
       </c>
       <c r="G130">
-        <v>37824.4879</v>
+        <v>38068.887900000002</v>
       </c>
       <c r="H130">
-        <v>36303.319600000003</v>
+        <v>36738.5196</v>
       </c>
       <c r="I130">
-        <v>35288.218699999998</v>
+        <v>35873.218699999998</v>
       </c>
       <c r="J130">
-        <v>34693.512699999999</v>
+        <v>35416.812700000002</v>
       </c>
       <c r="K130">
-        <v>34015.089700000004</v>
+        <v>34734.189700000003</v>
       </c>
       <c r="L130">
-        <v>32816.066700000003</v>
+        <v>33490.566700000003</v>
       </c>
       <c r="M130">
-        <v>33961.269800000002</v>
+        <v>34435.8698</v>
       </c>
       <c r="N130">
-        <v>36679.184800000003</v>
+        <v>37123.184800000003</v>
       </c>
       <c r="O130">
-        <v>38969.149700000002</v>
+        <v>39000.149700000002</v>
       </c>
       <c r="P130">
-        <v>40959.574999999997</v>
+        <v>40960.875</v>
       </c>
       <c r="Q130">
-        <v>42750.200000000004</v>
+        <v>42754.8</v>
       </c>
       <c r="R130">
-        <v>43771.400500000003</v>
+        <v>43775.400500000003</v>
       </c>
       <c r="S130">
-        <v>43958.111700000001</v>
+        <v>43961.7117</v>
       </c>
       <c r="T130">
-        <v>44272.327100000002</v>
+        <v>44276.027099999999</v>
       </c>
       <c r="U130">
-        <v>44168.304899999996</v>
+        <v>44171.604899999998</v>
       </c>
       <c r="V130">
-        <v>43809.357499999998</v>
+        <v>43813.157500000001</v>
       </c>
       <c r="W130">
-        <v>42776.033300000003</v>
+        <v>42779.633300000001</v>
       </c>
       <c r="X130">
-        <v>40442.826200000003</v>
+        <v>40449.926200000002</v>
       </c>
       <c r="Y130">
-        <v>39134.619999999995</v>
+        <v>39144.519999999997</v>
       </c>
       <c r="Z130">
-        <v>41139.749500000005</v>
+        <v>41146.449500000002</v>
       </c>
       <c r="AA130">
         <v>42560.410900000003</v>
@@ -11955,73 +11955,73 @@
         <v>39285.116999999998</v>
       </c>
       <c r="G131">
-        <v>37388.875100000005</v>
+        <v>37625.475100000003</v>
       </c>
       <c r="H131">
-        <v>35893.971600000004</v>
+        <v>36382.171600000001</v>
       </c>
       <c r="I131">
-        <v>35005.7215</v>
+        <v>35490.321499999998</v>
       </c>
       <c r="J131">
-        <v>34416.841399999998</v>
+        <v>34898.6414</v>
       </c>
       <c r="K131">
-        <v>33653.699999999997</v>
+        <v>34132.199999999997</v>
       </c>
       <c r="L131">
-        <v>32402.451400000002</v>
+        <v>32878.651400000002</v>
       </c>
       <c r="M131">
-        <v>33224.6</v>
+        <v>33697.4</v>
       </c>
       <c r="N131">
-        <v>35590.0432</v>
+        <v>36010.943200000002</v>
       </c>
       <c r="O131">
-        <v>38007.200000000004</v>
+        <v>38084.800000000003</v>
       </c>
       <c r="P131">
         <v>40118.400000000001</v>
       </c>
       <c r="Q131">
-        <v>41823.972800000003</v>
+        <v>41828.472800000003</v>
       </c>
       <c r="R131">
-        <v>42467.765299999999</v>
+        <v>42472.665300000001</v>
       </c>
       <c r="S131">
-        <v>42397.399999999994</v>
+        <v>42402.2</v>
       </c>
       <c r="T131">
-        <v>42620.100000000006</v>
+        <v>42624.800000000003</v>
       </c>
       <c r="U131">
-        <v>42209.854599999999</v>
+        <v>42214.354599999999</v>
       </c>
       <c r="V131">
-        <v>41981.1</v>
+        <v>41984.5</v>
       </c>
       <c r="W131">
-        <v>41034.2641</v>
+        <v>41038.664100000002</v>
       </c>
       <c r="X131">
-        <v>39044.769200000002</v>
+        <v>39049.4692</v>
       </c>
       <c r="Y131">
-        <v>37873.886500000001</v>
+        <v>37878.886500000001</v>
       </c>
       <c r="Z131">
-        <v>40100.132899999997</v>
+        <v>40105.032899999998</v>
       </c>
       <c r="AA131">
-        <v>41406.408600000002</v>
+        <v>41411.1086</v>
       </c>
       <c r="AB131">
-        <v>40588.816500000001</v>
+        <v>40593.816500000001</v>
       </c>
       <c r="AC131">
-        <v>39874.300000000003</v>
+        <v>39878.300000000003</v>
       </c>
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.2">
@@ -12350,13 +12350,13 @@
         <v>44275.9</v>
       </c>
       <c r="T135">
-        <v>44699.4</v>
+        <v>44703</v>
       </c>
       <c r="U135">
-        <v>44678.371900000006</v>
+        <v>44683.071900000003</v>
       </c>
       <c r="V135">
-        <v>43851.5</v>
+        <v>43854.9</v>
       </c>
       <c r="W135">
         <v>43466.482900000003</v>
@@ -12412,13 +12412,13 @@
         <v>34714.627500000002</v>
       </c>
       <c r="K136">
-        <v>33915.419000000002</v>
+        <v>34076.819000000003</v>
       </c>
       <c r="L136">
-        <v>32720</v>
+        <v>32954.5</v>
       </c>
       <c r="M136">
-        <v>33664.450099999995</v>
+        <v>33699.250099999997</v>
       </c>
       <c r="N136">
         <v>36492.091399999998</v>
@@ -12427,10 +12427,10 @@
         <v>38738.455699999999</v>
       </c>
       <c r="P136">
-        <v>41018.032400000004</v>
+        <v>41021.732400000001</v>
       </c>
       <c r="Q136">
-        <v>42626</v>
+        <v>42630.9</v>
       </c>
       <c r="R136">
         <v>44043.338799999998</v>
@@ -12492,28 +12492,28 @@
         <v>37744.483099999998</v>
       </c>
       <c r="H137">
-        <v>36431.4</v>
+        <v>36453.800000000003</v>
       </c>
       <c r="I137">
-        <v>35274.990399999995</v>
+        <v>35634.790399999998</v>
       </c>
       <c r="J137">
-        <v>34788.358800000002</v>
+        <v>35442.058799999999</v>
       </c>
       <c r="K137">
-        <v>34068.800000000003</v>
+        <v>34797.9</v>
       </c>
       <c r="L137">
-        <v>32953.660400000001</v>
+        <v>33680.260399999999</v>
       </c>
       <c r="M137">
-        <v>34021.219400000002</v>
+        <v>34737.419399999999</v>
       </c>
       <c r="N137">
-        <v>36562.490700000002</v>
+        <v>37118.690699999999</v>
       </c>
       <c r="O137">
-        <v>38821.399999999994</v>
+        <v>39075.199999999997</v>
       </c>
       <c r="P137">
         <v>40733.4</v>
@@ -12525,25 +12525,25 @@
         <v>43861.981299999999</v>
       </c>
       <c r="S137">
-        <v>44129.280999999995</v>
+        <v>44131.180999999997</v>
       </c>
       <c r="T137">
-        <v>44649.761500000001</v>
+        <v>44653.761500000001</v>
       </c>
       <c r="U137">
-        <v>44707.441399999996</v>
+        <v>44711.741399999999</v>
       </c>
       <c r="V137">
-        <v>44387.0671</v>
+        <v>44391.667099999999</v>
       </c>
       <c r="W137">
-        <v>43078.636299999998</v>
+        <v>43083.0363</v>
       </c>
       <c r="X137">
-        <v>41040.369599999998</v>
+        <v>41044.7696</v>
       </c>
       <c r="Y137">
-        <v>39443.139300000003</v>
+        <v>39445.639300000003</v>
       </c>
       <c r="Z137">
         <v>41792.796699999999</v>
@@ -12578,28 +12578,28 @@
         <v>39792.114099999999</v>
       </c>
       <c r="G138">
-        <v>37862.264999999999</v>
+        <v>38189.364999999998</v>
       </c>
       <c r="H138">
-        <v>36356.154199999997</v>
+        <v>36956.154199999997</v>
       </c>
       <c r="I138">
-        <v>35387.334600000002</v>
+        <v>36118.334600000002</v>
       </c>
       <c r="J138">
-        <v>34709.258600000001</v>
+        <v>35432.158600000002</v>
       </c>
       <c r="K138">
-        <v>34028.990399999995</v>
+        <v>34745.790399999998</v>
       </c>
       <c r="L138">
-        <v>32830.374600000003</v>
+        <v>33540.5746</v>
       </c>
       <c r="M138">
-        <v>33720.5</v>
+        <v>34426.400000000001</v>
       </c>
       <c r="N138">
-        <v>35988.6</v>
+        <v>36197.1</v>
       </c>
       <c r="O138">
         <v>38232.5</v>
@@ -12614,37 +12614,37 @@
         <v>43243.264199999998</v>
       </c>
       <c r="S138">
-        <v>43084.695600000006</v>
+        <v>43088.395600000003</v>
       </c>
       <c r="T138">
-        <v>43324.859900000003</v>
+        <v>43331.859900000003</v>
       </c>
       <c r="U138">
-        <v>43156.2</v>
+        <v>43165.5</v>
       </c>
       <c r="V138">
-        <v>42786.433299999997</v>
+        <v>42793.333299999998</v>
       </c>
       <c r="W138">
-        <v>41634.873899999999</v>
+        <v>41642.2739</v>
       </c>
       <c r="X138">
-        <v>39641.237800000003</v>
+        <v>39649.237800000003</v>
       </c>
       <c r="Y138">
-        <v>38481.870600000002</v>
+        <v>38490.970600000001</v>
       </c>
       <c r="Z138">
-        <v>40958.199999999997</v>
+        <v>40965.699999999997</v>
       </c>
       <c r="AA138">
-        <v>42073.009299999998</v>
+        <v>42080.809300000001</v>
       </c>
       <c r="AB138">
-        <v>41327.455000000002</v>
+        <v>41336.455000000002</v>
       </c>
       <c r="AC138">
-        <v>40401.593800000002</v>
+        <v>40410.693800000001</v>
       </c>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.2">
@@ -12664,31 +12664,31 @@
         <v>1</v>
       </c>
       <c r="F139">
-        <v>39195.300000000003</v>
+        <v>39204.9</v>
       </c>
       <c r="G139">
-        <v>37451.635900000001</v>
+        <v>37609.535900000003</v>
       </c>
       <c r="H139">
-        <v>35885.5239</v>
+        <v>36332.5239</v>
       </c>
       <c r="I139">
-        <v>34874.605199999998</v>
+        <v>35363.905200000001</v>
       </c>
       <c r="J139">
-        <v>34027.280099999996</v>
+        <v>34657.680099999998</v>
       </c>
       <c r="K139">
-        <v>33146.676899999999</v>
+        <v>33871.676899999999</v>
       </c>
       <c r="L139">
-        <v>31399.5033</v>
+        <v>32118.103299999999</v>
       </c>
       <c r="M139">
-        <v>30912.6839</v>
+        <v>31623.883900000001</v>
       </c>
       <c r="N139">
-        <v>31826.666499999999</v>
+        <v>32307.966499999999</v>
       </c>
       <c r="O139">
         <v>33280.255599999997</v>
@@ -12756,31 +12756,31 @@
         <v>38929.280400000003</v>
       </c>
       <c r="G140">
-        <v>37293.9355</v>
+        <v>37322.735500000003</v>
       </c>
       <c r="H140">
-        <v>35745.605499999998</v>
+        <v>35984.905500000001</v>
       </c>
       <c r="I140">
-        <v>34630.979799999994</v>
+        <v>34870.279799999997</v>
       </c>
       <c r="J140">
-        <v>34036.022199999999</v>
+        <v>34273.422200000001</v>
       </c>
       <c r="K140">
-        <v>33400.863100000002</v>
+        <v>33637.863100000002</v>
       </c>
       <c r="L140">
-        <v>32241.258300000001</v>
+        <v>32478.258300000001</v>
       </c>
       <c r="M140">
-        <v>33524.699999999997</v>
+        <v>33761.699999999997</v>
       </c>
       <c r="N140">
-        <v>36557.597300000001</v>
+        <v>36794.597300000001</v>
       </c>
       <c r="O140">
-        <v>39050.578300000001</v>
+        <v>39054.578300000001</v>
       </c>
       <c r="P140">
         <v>41172.762600000002</v>
@@ -12789,40 +12789,40 @@
         <v>43061.7</v>
       </c>
       <c r="R140">
-        <v>44556.144100000005</v>
+        <v>44560.344100000002</v>
       </c>
       <c r="S140">
-        <v>44482.381099999999</v>
+        <v>44488.181100000002</v>
       </c>
       <c r="T140">
-        <v>45578.100000000006</v>
+        <v>45581.8</v>
       </c>
       <c r="U140">
-        <v>45540.900099999999</v>
+        <v>45545.8001</v>
       </c>
       <c r="V140">
-        <v>45263.292800000003</v>
+        <v>45268.392800000001</v>
       </c>
       <c r="W140">
-        <v>44394.3514</v>
+        <v>44399.551399999997</v>
       </c>
       <c r="X140">
-        <v>42039.474499999997</v>
+        <v>42044.7745</v>
       </c>
       <c r="Y140">
-        <v>40154.6</v>
+        <v>40160.1</v>
       </c>
       <c r="Z140">
-        <v>42421.8</v>
+        <v>42427</v>
       </c>
       <c r="AA140">
-        <v>43773.862200000003</v>
+        <v>43779.0622</v>
       </c>
       <c r="AB140">
-        <v>43371.502400000005</v>
+        <v>43376.702400000002</v>
       </c>
       <c r="AC140">
-        <v>42168.622599999995</v>
+        <v>42174.022599999997</v>
       </c>
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.2">
@@ -12842,67 +12842,67 @@
         <v>1</v>
       </c>
       <c r="F141">
-        <v>40492.516000000003</v>
+        <v>40495.116000000002</v>
       </c>
       <c r="G141">
-        <v>38391.681499999999</v>
+        <v>38782.681499999999</v>
       </c>
       <c r="H141">
-        <v>36845.960200000001</v>
+        <v>37337.0602</v>
       </c>
       <c r="I141">
-        <v>35780.501000000004</v>
+        <v>36268.201000000001</v>
       </c>
       <c r="J141">
-        <v>34988.772799999999</v>
+        <v>35617.6728</v>
       </c>
       <c r="K141">
-        <v>34263.899599999997</v>
+        <v>34983.799599999998</v>
       </c>
       <c r="L141">
-        <v>32926.535900000003</v>
+        <v>33641.035900000003</v>
       </c>
       <c r="M141">
-        <v>33974.1</v>
+        <v>34681.9</v>
       </c>
       <c r="N141">
-        <v>36517.5</v>
+        <v>36952.9</v>
       </c>
       <c r="O141">
-        <v>38805.2791</v>
+        <v>38964.879099999998</v>
       </c>
       <c r="P141">
-        <v>41349.896499999995</v>
+        <v>41354.696499999998</v>
       </c>
       <c r="Q141">
-        <v>43264.700000000004</v>
+        <v>43269.3</v>
       </c>
       <c r="R141">
-        <v>44522.293799999999</v>
+        <v>44526.993799999997</v>
       </c>
       <c r="S141">
-        <v>44822.998800000001</v>
+        <v>44827.5988</v>
       </c>
       <c r="T141">
-        <v>45549.713900000002</v>
+        <v>45552.213900000002</v>
       </c>
       <c r="U141">
-        <v>45715.114100000006</v>
+        <v>45719.814100000003</v>
       </c>
       <c r="V141">
-        <v>45390.832200000004</v>
+        <v>45394.932200000003</v>
       </c>
       <c r="W141">
-        <v>44399.8963</v>
+        <v>44403.996299999999</v>
       </c>
       <c r="X141">
-        <v>42089.152300000002</v>
+        <v>42094.052300000003</v>
       </c>
       <c r="Y141">
-        <v>40570.158900000002</v>
+        <v>40580.158900000002</v>
       </c>
       <c r="Z141">
-        <v>42996.935599999997</v>
+        <v>42998.835599999999</v>
       </c>
       <c r="AA141">
         <v>44051.201399999998</v>
@@ -12931,76 +12931,76 @@
         <v>1</v>
       </c>
       <c r="F142">
-        <v>40149.3292</v>
+        <v>40191.529199999997</v>
       </c>
       <c r="G142">
-        <v>38001.509700000002</v>
+        <v>38327.509700000002</v>
       </c>
       <c r="H142">
-        <v>36442.627999999997</v>
+        <v>36933.127999999997</v>
       </c>
       <c r="I142">
-        <v>35520.881399999998</v>
+        <v>36088.681400000001</v>
       </c>
       <c r="J142">
-        <v>34775.838199999998</v>
+        <v>35496.838199999998</v>
       </c>
       <c r="K142">
-        <v>34008.7287</v>
+        <v>34725.028700000003</v>
       </c>
       <c r="L142">
-        <v>32815.069000000003</v>
+        <v>33523.269</v>
       </c>
       <c r="M142">
-        <v>33669.142999999996</v>
+        <v>34239.142999999996</v>
       </c>
       <c r="N142">
-        <v>36280.217100000002</v>
+        <v>36655.917099999999</v>
       </c>
       <c r="O142">
         <v>38508.515599999999</v>
       </c>
       <c r="P142">
-        <v>40752.937999999995</v>
+        <v>40754.737999999998</v>
       </c>
       <c r="Q142">
         <v>42679.1299</v>
       </c>
       <c r="R142">
-        <v>44240.861399999994</v>
+        <v>44243.161399999997</v>
       </c>
       <c r="S142">
-        <v>44844.600000000006</v>
+        <v>44853.8</v>
       </c>
       <c r="T142">
-        <v>45424.7</v>
+        <v>45436.2</v>
       </c>
       <c r="U142">
-        <v>45638.007799999999</v>
+        <v>45649.007799999999</v>
       </c>
       <c r="V142">
-        <v>45078.769899999999</v>
+        <v>45090.569900000002</v>
       </c>
       <c r="W142">
-        <v>43987.214699999997</v>
+        <v>43998.714699999997</v>
       </c>
       <c r="X142">
-        <v>41875.126900000003</v>
+        <v>41887.126900000003</v>
       </c>
       <c r="Y142">
-        <v>39943.008000000002</v>
+        <v>39956.207999999999</v>
       </c>
       <c r="Z142">
-        <v>42421.290700000005</v>
+        <v>42429.990700000002</v>
       </c>
       <c r="AA142">
-        <v>43898.420000000006</v>
+        <v>43907.12</v>
       </c>
       <c r="AB142">
-        <v>43249.653400000003</v>
+        <v>43258.653400000003</v>
       </c>
       <c r="AC142">
-        <v>42096.375899999999</v>
+        <v>42106.375899999999</v>
       </c>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.2">
@@ -13020,76 +13020,76 @@
         <v>1</v>
       </c>
       <c r="F143">
-        <v>40373.700000000004</v>
+        <v>40463.800000000003</v>
       </c>
       <c r="G143">
-        <v>38281.1</v>
+        <v>38528</v>
       </c>
       <c r="H143">
-        <v>36555.539100000002</v>
+        <v>37020.239099999999</v>
       </c>
       <c r="I143">
-        <v>35525.599999999999</v>
+        <v>36251</v>
       </c>
       <c r="J143">
-        <v>34645.240000000005</v>
+        <v>35367.440000000002</v>
       </c>
       <c r="K143">
-        <v>33940.0219</v>
+        <v>34655.0219</v>
       </c>
       <c r="L143">
-        <v>32588.821900000003</v>
+        <v>33300.321900000003</v>
       </c>
       <c r="M143">
-        <v>33533.816100000004</v>
+        <v>34016.416100000002</v>
       </c>
       <c r="N143">
-        <v>36208.399999999994</v>
+        <v>36363.699999999997</v>
       </c>
       <c r="O143">
         <v>38613.884100000003</v>
       </c>
       <c r="P143">
-        <v>40806.072999999997</v>
+        <v>40809.373</v>
       </c>
       <c r="Q143">
-        <v>42819</v>
+        <v>42824</v>
       </c>
       <c r="R143">
-        <v>44157.234000000004</v>
+        <v>44164.334000000003</v>
       </c>
       <c r="S143">
-        <v>45038.3</v>
+        <v>45045</v>
       </c>
       <c r="T143">
-        <v>45611.413199999995</v>
+        <v>45617.213199999998</v>
       </c>
       <c r="U143">
-        <v>45733.100000000006</v>
+        <v>45738.8</v>
       </c>
       <c r="V143">
-        <v>45237.388299999999</v>
+        <v>45243.388299999999</v>
       </c>
       <c r="W143">
-        <v>44210.1515</v>
+        <v>44217.6515</v>
       </c>
       <c r="X143">
-        <v>41857.485000000001</v>
+        <v>41866.885000000002</v>
       </c>
       <c r="Y143">
-        <v>40083.493599999994</v>
+        <v>40093.293599999997</v>
       </c>
       <c r="Z143">
-        <v>42710.104899999998</v>
+        <v>42720.0049</v>
       </c>
       <c r="AA143">
-        <v>44119.9038</v>
+        <v>44129.803800000002</v>
       </c>
       <c r="AB143">
-        <v>43304.268900000003</v>
+        <v>43314.268900000003</v>
       </c>
       <c r="AC143">
-        <v>42341.196099999994</v>
+        <v>42349.996099999997</v>
       </c>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.2">
@@ -13109,31 +13109,31 @@
         <v>1</v>
       </c>
       <c r="F144">
-        <v>40571.291300000004</v>
+        <v>40654.991300000002</v>
       </c>
       <c r="G144">
-        <v>38679.313099999999</v>
+        <v>38987.913099999998</v>
       </c>
       <c r="H144">
-        <v>37039.542999999998</v>
+        <v>37530.042999999998</v>
       </c>
       <c r="I144">
-        <v>35870.555399999997</v>
+        <v>36395.055399999997</v>
       </c>
       <c r="J144">
-        <v>34821.8387</v>
+        <v>35544.8387</v>
       </c>
       <c r="K144">
-        <v>34194.403699999995</v>
+        <v>34910.803699999997</v>
       </c>
       <c r="L144">
-        <v>32847.507100000003</v>
+        <v>33556.7071</v>
       </c>
       <c r="M144">
-        <v>33686.871899999998</v>
+        <v>34237.871899999998</v>
       </c>
       <c r="N144">
-        <v>36391.3534</v>
+        <v>36542.553399999997</v>
       </c>
       <c r="O144">
         <v>38905.959499999997</v>
@@ -13142,16 +13142,16 @@
         <v>41149.133500000004</v>
       </c>
       <c r="Q144">
-        <v>43206.409200000002</v>
+        <v>43208.5092</v>
       </c>
       <c r="R144">
-        <v>44728.6417</v>
+        <v>44734.941700000003</v>
       </c>
       <c r="S144">
-        <v>44776.100000000006</v>
+        <v>44780.800000000003</v>
       </c>
       <c r="T144">
-        <v>45647.374899999995</v>
+        <v>45649.674899999998</v>
       </c>
       <c r="U144">
         <v>45946.830300000001</v>
@@ -13163,13 +13163,13 @@
         <v>44510.344700000001</v>
       </c>
       <c r="X144">
-        <v>42297.808799999999</v>
+        <v>42299.908799999997</v>
       </c>
       <c r="Y144">
-        <v>40489.699999999997</v>
+        <v>40492.5</v>
       </c>
       <c r="Z144">
-        <v>43201.083100000003</v>
+        <v>43204.083100000003</v>
       </c>
       <c r="AA144">
         <v>44187.354800000001</v>
@@ -13178,7 +13178,7 @@
         <v>43485.442300000002</v>
       </c>
       <c r="AC144">
-        <v>42368.644199999995</v>
+        <v>42372.044199999997</v>
       </c>
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.2">
@@ -13201,31 +13201,31 @@
         <v>40536.841699999997</v>
       </c>
       <c r="G145">
-        <v>38303.501700000001</v>
+        <v>38398.801700000004</v>
       </c>
       <c r="H145">
-        <v>36730.299999999996</v>
+        <v>37398.199999999997</v>
       </c>
       <c r="I145">
-        <v>35569.715000000004</v>
+        <v>36306.315000000002</v>
       </c>
       <c r="J145">
-        <v>34829.342899999996</v>
+        <v>35554.242899999997</v>
       </c>
       <c r="K145">
-        <v>34246</v>
+        <v>34804.9</v>
       </c>
       <c r="L145">
-        <v>32795.078699999998</v>
+        <v>33317.178699999997</v>
       </c>
       <c r="M145">
-        <v>33431.958599999998</v>
+        <v>34142.8586</v>
       </c>
       <c r="N145">
-        <v>36084.341899999999</v>
+        <v>36525.741900000001</v>
       </c>
       <c r="O145">
-        <v>38294.712800000001</v>
+        <v>38321.8128</v>
       </c>
       <c r="P145">
         <v>40679.628700000001</v>
@@ -13287,31 +13287,31 @@
         <v>1</v>
       </c>
       <c r="F146">
-        <v>39737.811399999999</v>
+        <v>39751.2114</v>
       </c>
       <c r="G146">
-        <v>38167.2238</v>
+        <v>38415.823799999998</v>
       </c>
       <c r="H146">
-        <v>36684.546399999999</v>
+        <v>37138.446400000001</v>
       </c>
       <c r="I146">
-        <v>35350.545100000003</v>
+        <v>36038.7451</v>
       </c>
       <c r="J146">
-        <v>34560.626799999998</v>
+        <v>35288.0268</v>
       </c>
       <c r="K146">
-        <v>33643.789200000007</v>
+        <v>34366.989200000004</v>
       </c>
       <c r="L146">
-        <v>31922.443800000001</v>
+        <v>32638.443800000001</v>
       </c>
       <c r="M146">
-        <v>31165.8416</v>
+        <v>31778.0416</v>
       </c>
       <c r="N146">
-        <v>32125.249100000001</v>
+        <v>32337.949100000002</v>
       </c>
       <c r="O146">
         <v>33842.845300000001</v>
@@ -13382,37 +13382,37 @@
         <v>37705.385300000002</v>
       </c>
       <c r="H147">
-        <v>36367.496499999994</v>
+        <v>36825.796499999997</v>
       </c>
       <c r="I147">
-        <v>35304.767099999997</v>
+        <v>36034.767099999997</v>
       </c>
       <c r="J147">
-        <v>34587.799999999996</v>
+        <v>35310.1</v>
       </c>
       <c r="K147">
-        <v>33818.136400000003</v>
+        <v>34534.636400000003</v>
       </c>
       <c r="L147">
-        <v>32741.572100000005</v>
+        <v>33453.672100000003</v>
       </c>
       <c r="M147">
-        <v>33775.345499999996</v>
+        <v>34257.745499999997</v>
       </c>
       <c r="N147">
-        <v>36790.047200000001</v>
+        <v>37092.747199999998</v>
       </c>
       <c r="O147">
-        <v>39365.2739</v>
+        <v>39534.973899999997</v>
       </c>
       <c r="P147">
         <v>41362.548499999997</v>
       </c>
       <c r="Q147">
-        <v>43739.775799999996</v>
+        <v>43744.575799999999</v>
       </c>
       <c r="R147">
-        <v>45215.665699999998</v>
+        <v>45219.165699999998</v>
       </c>
       <c r="S147">
         <v>45783.6</v>
@@ -13430,22 +13430,22 @@
         <v>44905.412100000001</v>
       </c>
       <c r="X147">
-        <v>42524.105800000005</v>
+        <v>42525.305800000002</v>
       </c>
       <c r="Y147">
-        <v>41101.899999999994</v>
+        <v>41105.199999999997</v>
       </c>
       <c r="Z147">
-        <v>43857.676299999999</v>
+        <v>43866.976300000002</v>
       </c>
       <c r="AA147">
-        <v>44868.358999999997</v>
+        <v>44877.358999999997</v>
       </c>
       <c r="AB147">
-        <v>43970.447500000002</v>
+        <v>43979.547500000001</v>
       </c>
       <c r="AC147">
-        <v>42858.224699999999</v>
+        <v>42867.6247</v>
       </c>
     </row>
     <row r="148" spans="1:29" x14ac:dyDescent="0.2">
@@ -13465,76 +13465,76 @@
         <v>1</v>
       </c>
       <c r="F148">
-        <v>41149.5</v>
+        <v>41158.800000000003</v>
       </c>
       <c r="G148">
-        <v>39140.835200000001</v>
+        <v>39184.235200000003</v>
       </c>
       <c r="H148">
-        <v>37571.983800000002</v>
+        <v>38009.983800000002</v>
       </c>
       <c r="I148">
-        <v>36433.349900000001</v>
+        <v>37022.849900000001</v>
       </c>
       <c r="J148">
-        <v>35612.233200000002</v>
+        <v>36338.233200000002</v>
       </c>
       <c r="K148">
-        <v>34803.481500000002</v>
+        <v>35522.5815</v>
       </c>
       <c r="L148">
-        <v>33531.084999999999</v>
+        <v>34246.584999999999</v>
       </c>
       <c r="M148">
-        <v>34382.352500000001</v>
+        <v>35089.552499999998</v>
       </c>
       <c r="N148">
-        <v>36939.800000000003</v>
+        <v>37538.300000000003</v>
       </c>
       <c r="O148">
-        <v>39835.123200000002</v>
+        <v>39938.7232</v>
       </c>
       <c r="P148">
         <v>41967.468999999997</v>
       </c>
       <c r="Q148">
-        <v>43927.958599999998</v>
+        <v>43931.8586</v>
       </c>
       <c r="R148">
-        <v>45625.135399999999</v>
+        <v>45629.635399999999</v>
       </c>
       <c r="S148">
-        <v>45956.547000000006</v>
+        <v>45960.247000000003</v>
       </c>
       <c r="T148">
-        <v>46377.909199999995</v>
+        <v>46381.709199999998</v>
       </c>
       <c r="U148">
-        <v>46471.1005</v>
+        <v>46475.500500000002</v>
       </c>
       <c r="V148">
-        <v>45776.229500000001</v>
+        <v>45780.929499999998</v>
       </c>
       <c r="W148">
-        <v>44769.442900000002</v>
+        <v>44774.142899999999</v>
       </c>
       <c r="X148">
-        <v>42547.692900000002</v>
+        <v>42552.892899999999</v>
       </c>
       <c r="Y148">
-        <v>40904.299999999996</v>
+        <v>40909.599999999999</v>
       </c>
       <c r="Z148">
-        <v>43773.036999999997</v>
+        <v>43777.036999999997</v>
       </c>
       <c r="AA148">
-        <v>44688.313399999999</v>
+        <v>44692.113400000002</v>
       </c>
       <c r="AB148">
-        <v>43971.662900000003</v>
+        <v>43978.262900000002</v>
       </c>
       <c r="AC148">
-        <v>42810.4591</v>
+        <v>42818.859100000001</v>
       </c>
     </row>
     <row r="149" spans="1:29" x14ac:dyDescent="0.2">
@@ -13557,28 +13557,28 @@
         <v>41130.492299999998</v>
       </c>
       <c r="G149">
-        <v>39070.319299999996</v>
+        <v>39319.219299999997</v>
       </c>
       <c r="H149">
-        <v>37421.737500000003</v>
+        <v>37771.4375</v>
       </c>
       <c r="I149">
-        <v>36251.419500000004</v>
+        <v>36736.519500000002</v>
       </c>
       <c r="J149">
-        <v>35421.168899999997</v>
+        <v>35909.068899999998</v>
       </c>
       <c r="K149">
-        <v>34612.299999999996</v>
+        <v>35322.699999999997</v>
       </c>
       <c r="L149">
-        <v>33362.9424</v>
+        <v>34078.342400000001</v>
       </c>
       <c r="M149">
-        <v>34122.369299999998</v>
+        <v>34831.169300000001</v>
       </c>
       <c r="N149">
-        <v>36904.584199999998</v>
+        <v>37429.484199999999</v>
       </c>
       <c r="O149">
         <v>39452.300000000003</v>
@@ -13643,76 +13643,76 @@
         <v>1</v>
       </c>
       <c r="F150">
-        <v>40379.726600000002</v>
+        <v>40383.726600000002</v>
       </c>
       <c r="G150">
-        <v>38230.402399999999</v>
+        <v>38425.502399999998</v>
       </c>
       <c r="H150">
-        <v>36756.305500000002</v>
+        <v>37194.905500000001</v>
       </c>
       <c r="I150">
-        <v>35683.0245</v>
+        <v>36170.624499999998</v>
       </c>
       <c r="J150">
-        <v>34922.112800000003</v>
+        <v>35562.212800000001</v>
       </c>
       <c r="K150">
-        <v>34311.790300000001</v>
+        <v>35033.290300000001</v>
       </c>
       <c r="L150">
-        <v>33021.786999999997</v>
+        <v>33738.087</v>
       </c>
       <c r="M150">
-        <v>33828.313199999997</v>
+        <v>34536.813199999997</v>
       </c>
       <c r="N150">
-        <v>36383.216199999995</v>
+        <v>36947.616199999997</v>
       </c>
       <c r="O150">
-        <v>38433.782800000001</v>
+        <v>38712.982799999998</v>
       </c>
       <c r="P150">
-        <v>40461.890800000001</v>
+        <v>40463.790800000002</v>
       </c>
       <c r="Q150">
-        <v>42201.285899999995</v>
+        <v>42209.685899999997</v>
       </c>
       <c r="R150">
-        <v>43054.799999999996</v>
+        <v>43063.199999999997</v>
       </c>
       <c r="S150">
-        <v>43551.280500000001</v>
+        <v>43555.280500000001</v>
       </c>
       <c r="T150">
-        <v>44202.719300000004</v>
+        <v>44205.819300000003</v>
       </c>
       <c r="U150">
-        <v>44231.502500000002</v>
+        <v>44235.602500000001</v>
       </c>
       <c r="V150">
-        <v>43757.457200000004</v>
+        <v>43762.157200000001</v>
       </c>
       <c r="W150">
-        <v>42655.732300000003</v>
+        <v>42662.9323</v>
       </c>
       <c r="X150">
-        <v>40663.617400000003</v>
+        <v>40672.617400000003</v>
       </c>
       <c r="Y150">
-        <v>39735.820700000004</v>
+        <v>39745.520700000001</v>
       </c>
       <c r="Z150">
-        <v>42362.6</v>
+        <v>42372.2</v>
       </c>
       <c r="AA150">
-        <v>43112.5893</v>
+        <v>43121.689299999998</v>
       </c>
       <c r="AB150">
-        <v>42243.795599999998</v>
+        <v>42253.595600000001</v>
       </c>
       <c r="AC150">
-        <v>41092.042099999999</v>
+        <v>41102.342100000002</v>
       </c>
     </row>
     <row r="151" spans="1:29" x14ac:dyDescent="0.2">
@@ -13732,31 +13732,31 @@
         <v>1</v>
       </c>
       <c r="F151">
-        <v>39462.459600000002</v>
+        <v>39468.959600000002</v>
       </c>
       <c r="G151">
-        <v>37567.072099999998</v>
+        <v>37771.572099999998</v>
       </c>
       <c r="H151">
-        <v>36119.631300000001</v>
+        <v>36573.331299999998</v>
       </c>
       <c r="I151">
-        <v>35186.067599999995</v>
+        <v>35671.867599999998</v>
       </c>
       <c r="J151">
-        <v>34359.296299999995</v>
+        <v>34844.096299999997</v>
       </c>
       <c r="K151">
-        <v>33633.309699999998</v>
+        <v>34285.609700000001</v>
       </c>
       <c r="L151">
-        <v>32532.699999999997</v>
+        <v>33246.199999999997</v>
       </c>
       <c r="M151">
-        <v>33271.851900000001</v>
+        <v>33970.251900000003</v>
       </c>
       <c r="N151">
-        <v>35828.454100000003</v>
+        <v>36046.954100000003</v>
       </c>
       <c r="O151">
         <v>37966.667699999998</v>
@@ -13765,43 +13765,43 @@
         <v>40059.967199999999</v>
       </c>
       <c r="Q151">
-        <v>41714.820899999999</v>
+        <v>41717.620900000002</v>
       </c>
       <c r="R151">
-        <v>43086.7</v>
+        <v>43091</v>
       </c>
       <c r="S151">
-        <v>43407.735200000003</v>
+        <v>43410.835200000001</v>
       </c>
       <c r="T151">
-        <v>43936.4447</v>
+        <v>43940.244700000003</v>
       </c>
       <c r="U151">
-        <v>44045</v>
+        <v>44048.5</v>
       </c>
       <c r="V151">
-        <v>43554.251800000005</v>
+        <v>43560.451800000003</v>
       </c>
       <c r="W151">
-        <v>42470.123499999994</v>
+        <v>42477.923499999997</v>
       </c>
       <c r="X151">
-        <v>40302.917999999998</v>
+        <v>40315.218000000001</v>
       </c>
       <c r="Y151">
-        <v>39116.733</v>
+        <v>39131.332999999999</v>
       </c>
       <c r="Z151">
-        <v>41950.728299999995</v>
+        <v>41962.028299999998</v>
       </c>
       <c r="AA151">
-        <v>42604.897099999995</v>
+        <v>42615.197099999998</v>
       </c>
       <c r="AB151">
-        <v>41849.616199999997</v>
+        <v>41859.516199999998</v>
       </c>
       <c r="AC151">
-        <v>40632</v>
+        <v>40634.699999999997</v>
       </c>
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.2">
@@ -13824,28 +13824,28 @@
         <v>39123.306900000003</v>
       </c>
       <c r="G152">
-        <v>37202.455300000001</v>
+        <v>37355.155299999999</v>
       </c>
       <c r="H152">
-        <v>35651.214800000002</v>
+        <v>36105.414799999999</v>
       </c>
       <c r="I152">
-        <v>34514.290300000001</v>
+        <v>34997.690300000002</v>
       </c>
       <c r="J152">
-        <v>33831.368000000002</v>
+        <v>34310.968000000001</v>
       </c>
       <c r="K152">
-        <v>33087.0798</v>
+        <v>33615.279799999997</v>
       </c>
       <c r="L152">
-        <v>31884.199999999997</v>
+        <v>32598.6</v>
       </c>
       <c r="M152">
-        <v>32404.716800000002</v>
+        <v>33089.216800000002</v>
       </c>
       <c r="N152">
-        <v>34540.176300000006</v>
+        <v>34793.876300000004</v>
       </c>
       <c r="O152">
         <v>36712.515599999999</v>
@@ -13860,25 +13860,25 @@
         <v>41810.8678</v>
       </c>
       <c r="S152">
-        <v>42001.061000000002</v>
+        <v>42003.760999999999</v>
       </c>
       <c r="T152">
-        <v>42394.400000000001</v>
+        <v>42398.6</v>
       </c>
       <c r="U152">
-        <v>42302.8</v>
+        <v>42306.5</v>
       </c>
       <c r="V152">
-        <v>41805.599999999999</v>
+        <v>41810.6</v>
       </c>
       <c r="W152">
-        <v>40655.1</v>
+        <v>40664.1</v>
       </c>
       <c r="X152">
-        <v>38524.710199999994</v>
+        <v>38534.010199999997</v>
       </c>
       <c r="Y152">
-        <v>37546.685700000002</v>
+        <v>37551.185700000002</v>
       </c>
       <c r="Z152">
         <v>40337.721899999997</v>
@@ -13910,31 +13910,31 @@
         <v>1</v>
       </c>
       <c r="F153">
-        <v>38096.674899999998</v>
+        <v>38157.174899999998</v>
       </c>
       <c r="G153">
-        <v>36482.015399999997</v>
+        <v>36726.815399999999</v>
       </c>
       <c r="H153">
-        <v>35066.306700000001</v>
+        <v>35545.206700000002</v>
       </c>
       <c r="I153">
-        <v>33755.1129</v>
+        <v>34238.6129</v>
       </c>
       <c r="J153">
-        <v>32880.377199999995</v>
+        <v>33360.177199999998</v>
       </c>
       <c r="K153">
-        <v>32122.7</v>
+        <v>32602.2</v>
       </c>
       <c r="L153">
-        <v>30353.384999999998</v>
+        <v>30828.785</v>
       </c>
       <c r="M153">
-        <v>29496.6302</v>
+        <v>29968.430199999999</v>
       </c>
       <c r="N153">
-        <v>30361.9732</v>
+        <v>30682.873200000002</v>
       </c>
       <c r="O153">
         <v>31767.040499999999</v>
@@ -14041,34 +14041,34 @@
         <v>42477.489000000001</v>
       </c>
       <c r="T154">
-        <v>43107.252099999998</v>
+        <v>43112.552100000001</v>
       </c>
       <c r="U154">
-        <v>43451.974999999999</v>
+        <v>43456.875</v>
       </c>
       <c r="V154">
-        <v>43086.1</v>
+        <v>43092.5</v>
       </c>
       <c r="W154">
-        <v>42015.1</v>
+        <v>42024.1</v>
       </c>
       <c r="X154">
-        <v>39829.467100000002</v>
+        <v>39836.167099999999</v>
       </c>
       <c r="Y154">
-        <v>38768.811099999999</v>
+        <v>38777.911099999998</v>
       </c>
       <c r="Z154">
-        <v>41658.928200000002</v>
+        <v>41668.328200000004</v>
       </c>
       <c r="AA154">
-        <v>42243.8583</v>
+        <v>42253.258300000001</v>
       </c>
       <c r="AB154">
-        <v>41283.736199999999</v>
+        <v>41293.536200000002</v>
       </c>
       <c r="AC154">
-        <v>40014.6109</v>
+        <v>40023.510900000001</v>
       </c>
     </row>
     <row r="155" spans="1:29" x14ac:dyDescent="0.2">
@@ -14088,76 +14088,76 @@
         <v>1</v>
       </c>
       <c r="F155">
-        <v>38386.8056</v>
+        <v>38429.205600000001</v>
       </c>
       <c r="G155">
-        <v>36486.955000000002</v>
+        <v>36901.955000000002</v>
       </c>
       <c r="H155">
-        <v>35012.400000000001</v>
+        <v>35737.1</v>
       </c>
       <c r="I155">
-        <v>33813.703299999994</v>
+        <v>34544.503299999997</v>
       </c>
       <c r="J155">
-        <v>33112.949999999997</v>
+        <v>33830.449999999997</v>
       </c>
       <c r="K155">
-        <v>32516.6</v>
+        <v>33231.599999999999</v>
       </c>
       <c r="L155">
-        <v>31426.535799999998</v>
+        <v>32136.735799999999</v>
       </c>
       <c r="M155">
-        <v>32125.531899999998</v>
+        <v>32555.9319</v>
       </c>
       <c r="N155">
-        <v>34612.340299999996</v>
+        <v>34632.740299999998</v>
       </c>
       <c r="O155">
-        <v>36803.5</v>
+        <v>36808.800000000003</v>
       </c>
       <c r="P155">
-        <v>38897.300000000003</v>
+        <v>38902.800000000003</v>
       </c>
       <c r="Q155">
-        <v>40560.244200000001</v>
+        <v>40565.744200000001</v>
       </c>
       <c r="R155">
-        <v>41895.830399999999</v>
+        <v>41901.430399999997</v>
       </c>
       <c r="S155">
-        <v>42338.391000000003</v>
+        <v>42342.391000000003</v>
       </c>
       <c r="T155">
-        <v>43263.666499999999</v>
+        <v>43266.666499999999</v>
       </c>
       <c r="U155">
-        <v>43297.7745</v>
+        <v>43299.874499999998</v>
       </c>
       <c r="V155">
-        <v>42960.5</v>
+        <v>42963.9</v>
       </c>
       <c r="W155">
-        <v>41497.765299999999</v>
+        <v>41502.765299999999</v>
       </c>
       <c r="X155">
-        <v>39639.353900000002</v>
+        <v>39647.353900000002</v>
       </c>
       <c r="Y155">
-        <v>38539.118700000006</v>
+        <v>38547.818700000003</v>
       </c>
       <c r="Z155">
-        <v>41419.473899999997</v>
+        <v>41426.873899999999</v>
       </c>
       <c r="AA155">
-        <v>42164.18</v>
+        <v>42172.28</v>
       </c>
       <c r="AB155">
-        <v>41192.885800000004</v>
+        <v>41201.485800000002</v>
       </c>
       <c r="AC155">
-        <v>39982.566400000003</v>
+        <v>39987.066400000003</v>
       </c>
     </row>
     <row r="156" spans="1:29" x14ac:dyDescent="0.2">
@@ -14177,31 +14177,31 @@
         <v>1</v>
       </c>
       <c r="F156">
-        <v>38203.961899999995</v>
+        <v>38209.261899999998</v>
       </c>
       <c r="G156">
-        <v>36261.5</v>
+        <v>36621.9</v>
       </c>
       <c r="H156">
-        <v>34741.168799999999</v>
+        <v>35229.768799999998</v>
       </c>
       <c r="I156">
-        <v>33856.998599999999</v>
+        <v>34339.598599999998</v>
       </c>
       <c r="J156">
-        <v>33103.9467</v>
+        <v>33585.846700000002</v>
       </c>
       <c r="K156">
-        <v>32536.536599999999</v>
+        <v>33014.436600000001</v>
       </c>
       <c r="L156">
-        <v>31515.797200000001</v>
+        <v>31991.397199999999</v>
       </c>
       <c r="M156">
-        <v>32078.600000000002</v>
+        <v>32551.200000000001</v>
       </c>
       <c r="N156">
-        <v>34595</v>
+        <v>34917.800000000003</v>
       </c>
       <c r="O156">
         <v>36678.424099999997</v>
@@ -14266,28 +14266,28 @@
         <v>1</v>
       </c>
       <c r="F157">
-        <v>38153.926400000004</v>
+        <v>38156.026400000002</v>
       </c>
       <c r="G157">
-        <v>36145.200000000004</v>
+        <v>36426.800000000003</v>
       </c>
       <c r="H157">
-        <v>34548.451399999998</v>
+        <v>35034.8514</v>
       </c>
       <c r="I157">
-        <v>33658.9</v>
+        <v>34313.300000000003</v>
       </c>
       <c r="J157">
-        <v>32958.699699999997</v>
+        <v>33679.9997</v>
       </c>
       <c r="K157">
-        <v>32509.172600000002</v>
+        <v>33220.972600000001</v>
       </c>
       <c r="L157">
-        <v>31675.382300000001</v>
+        <v>32383.9823</v>
       </c>
       <c r="M157">
-        <v>32269.061000000002</v>
+        <v>32421.061000000002</v>
       </c>
       <c r="N157">
         <v>34780.230300000003</v>
@@ -14299,7 +14299,7 @@
         <v>38954.955600000001</v>
       </c>
       <c r="Q157">
-        <v>40657.405700000003</v>
+        <v>40664.905700000003</v>
       </c>
       <c r="R157">
         <v>41962.718099999998</v>
@@ -14358,73 +14358,73 @@
         <v>38154.340799999998</v>
       </c>
       <c r="G158">
-        <v>36062.837299999999</v>
+        <v>36104.837299999999</v>
       </c>
       <c r="H158">
-        <v>34616.010600000001</v>
+        <v>34988.210599999999</v>
       </c>
       <c r="I158">
-        <v>33562.652499999997</v>
+        <v>34282.052499999998</v>
       </c>
       <c r="J158">
-        <v>32793.229499999994</v>
+        <v>33523.529499999997</v>
       </c>
       <c r="K158">
-        <v>32315.491699999999</v>
+        <v>33037.091699999997</v>
       </c>
       <c r="L158">
-        <v>31287.0988</v>
+        <v>32005.7988</v>
       </c>
       <c r="M158">
-        <v>31941.162500000002</v>
+        <v>32650.462500000001</v>
       </c>
       <c r="N158">
-        <v>34495.700000000004</v>
+        <v>34958.9</v>
       </c>
       <c r="O158">
-        <v>36801.286599999999</v>
+        <v>36902.486599999997</v>
       </c>
       <c r="P158">
         <v>38844.691700000003</v>
       </c>
       <c r="Q158">
-        <v>40514.1</v>
+        <v>40516</v>
       </c>
       <c r="R158">
-        <v>41949.568400000004</v>
+        <v>41955.268400000001</v>
       </c>
       <c r="S158">
-        <v>42324.772499999999</v>
+        <v>42329.572500000002</v>
       </c>
       <c r="T158">
-        <v>42642.175200000005</v>
+        <v>42646.375200000002</v>
       </c>
       <c r="U158">
-        <v>42852.330500000004</v>
+        <v>42856.430500000002</v>
       </c>
       <c r="V158">
-        <v>42450.9</v>
+        <v>42455.1</v>
       </c>
       <c r="W158">
-        <v>41130.578699999998</v>
+        <v>41135.178699999997</v>
       </c>
       <c r="X158">
-        <v>39055.1224</v>
+        <v>39060.222399999999</v>
       </c>
       <c r="Y158">
-        <v>38399.486600000004</v>
+        <v>38405.586600000002</v>
       </c>
       <c r="Z158">
-        <v>41208.299200000001</v>
+        <v>41214.699200000003</v>
       </c>
       <c r="AA158">
-        <v>41272.679599999996</v>
+        <v>41281.579599999997</v>
       </c>
       <c r="AB158">
-        <v>40376.633099999999</v>
+        <v>40386.233099999998</v>
       </c>
       <c r="AC158">
-        <v>39173.698299999996</v>
+        <v>39181.198299999996</v>
       </c>
     </row>
     <row r="159" spans="1:29" x14ac:dyDescent="0.2">
@@ -14444,64 +14444,64 @@
         <v>1</v>
       </c>
       <c r="F159">
-        <v>37599.496299999999</v>
+        <v>37644.796300000002</v>
       </c>
       <c r="G159">
-        <v>35688.586199999998</v>
+        <v>35938.386200000001</v>
       </c>
       <c r="H159">
-        <v>34278.6584</v>
+        <v>34766.958400000003</v>
       </c>
       <c r="I159">
-        <v>33318.248200000002</v>
+        <v>33804.3482</v>
       </c>
       <c r="J159">
-        <v>32623.351400000003</v>
+        <v>33191.651400000002</v>
       </c>
       <c r="K159">
-        <v>32126.710600000002</v>
+        <v>32842.910600000003</v>
       </c>
       <c r="L159">
-        <v>30909.143200000002</v>
+        <v>31623.743200000001</v>
       </c>
       <c r="M159">
-        <v>31331.370799999997</v>
+        <v>32006.770799999998</v>
       </c>
       <c r="N159">
-        <v>33531.313799999996</v>
+        <v>33570.713799999998</v>
       </c>
       <c r="O159">
         <v>35743.183400000002</v>
       </c>
       <c r="P159">
-        <v>37774.5</v>
+        <v>37778.300000000003</v>
       </c>
       <c r="Q159">
-        <v>39533.599999999999</v>
+        <v>39540.199999999997</v>
       </c>
       <c r="R159">
-        <v>40566.126700000001</v>
+        <v>40574.526700000002</v>
       </c>
       <c r="S159">
-        <v>40753.445099999997</v>
+        <v>40761.945099999997</v>
       </c>
       <c r="T159">
-        <v>40977.402500000004</v>
+        <v>40985.102500000001</v>
       </c>
       <c r="U159">
-        <v>40685.557700000005</v>
+        <v>40694.657700000003</v>
       </c>
       <c r="V159">
-        <v>40154.899800000007</v>
+        <v>40164.099800000004</v>
       </c>
       <c r="W159">
-        <v>38994.503199999999</v>
+        <v>39003.903200000001</v>
       </c>
       <c r="X159">
-        <v>37111.5</v>
+        <v>37121.4</v>
       </c>
       <c r="Y159">
-        <v>36975.1901</v>
+        <v>36982.1901</v>
       </c>
       <c r="Z159">
         <v>39623.7549</v>
@@ -14536,28 +14536,28 @@
         <v>36671.991199999997</v>
       </c>
       <c r="G160">
-        <v>35037.363100000002</v>
+        <v>35215.863100000002</v>
       </c>
       <c r="H160">
-        <v>33731.215899999996</v>
+        <v>34082.015899999999</v>
       </c>
       <c r="I160">
-        <v>32803.843700000005</v>
+        <v>33287.043700000002</v>
       </c>
       <c r="J160">
-        <v>31947.863400000002</v>
+        <v>32428.163400000001</v>
       </c>
       <c r="K160">
-        <v>31299.833700000003</v>
+        <v>31777.433700000001</v>
       </c>
       <c r="L160">
-        <v>29812.872800000001</v>
+        <v>30287.9728</v>
       </c>
       <c r="M160">
-        <v>29046.2035</v>
+        <v>29515.9035</v>
       </c>
       <c r="N160">
-        <v>29791.196099999997</v>
+        <v>29842.596099999999</v>
       </c>
       <c r="O160">
         <v>31176.4529</v>
@@ -14652,16 +14652,16 @@
         <v>36526.699999999997</v>
       </c>
       <c r="P161">
-        <v>38808.004700000005</v>
+        <v>38809.604700000004</v>
       </c>
       <c r="Q161">
-        <v>40780.665300000001</v>
+        <v>40782.165300000001</v>
       </c>
       <c r="R161">
-        <v>42031.114999999998</v>
+        <v>42032.714999999997</v>
       </c>
       <c r="S161">
-        <v>42811.916299999997</v>
+        <v>42817.316299999999</v>
       </c>
       <c r="T161">
         <v>43481.1</v>
@@ -14670,28 +14670,28 @@
         <v>43434.9133</v>
       </c>
       <c r="V161">
-        <v>42955.909700000004</v>
+        <v>42957.009700000002</v>
       </c>
       <c r="W161">
-        <v>41746.299399999996</v>
+        <v>41747.699399999998</v>
       </c>
       <c r="X161">
-        <v>39552.3076</v>
+        <v>39559.407599999999</v>
       </c>
       <c r="Y161">
-        <v>39273.591800000002</v>
+        <v>39282.791799999999</v>
       </c>
       <c r="Z161">
-        <v>42147.261500000001</v>
+        <v>42152.261500000001</v>
       </c>
       <c r="AA161">
-        <v>42370.168899999997</v>
+        <v>42375.4689</v>
       </c>
       <c r="AB161">
-        <v>41215.758199999997</v>
+        <v>41221.058199999999</v>
       </c>
       <c r="AC161">
-        <v>39878.679300000003</v>
+        <v>39884.179300000003</v>
       </c>
     </row>
     <row r="162" spans="1:29" x14ac:dyDescent="0.2">
@@ -14711,76 +14711,76 @@
         <v>1</v>
       </c>
       <c r="F162">
-        <v>38141.087099999997</v>
+        <v>38260.087099999997</v>
       </c>
       <c r="G162">
-        <v>36009.044599999994</v>
+        <v>36376.344599999997</v>
       </c>
       <c r="H162">
-        <v>34557.899999999994</v>
+        <v>35047.699999999997</v>
       </c>
       <c r="I162">
-        <v>33635.969900000004</v>
+        <v>34122.069900000002</v>
       </c>
       <c r="J162">
-        <v>32853.631099999999</v>
+        <v>33455.231099999997</v>
       </c>
       <c r="K162">
-        <v>32367.279500000004</v>
+        <v>33087.379500000003</v>
       </c>
       <c r="L162">
-        <v>31087.5082</v>
+        <v>31802.708200000001</v>
       </c>
       <c r="M162">
-        <v>31667.596000000001</v>
+        <v>32376.596000000001</v>
       </c>
       <c r="N162">
-        <v>34341.976799999997</v>
+        <v>34826.476799999997</v>
       </c>
       <c r="O162">
-        <v>36778.296000000002</v>
+        <v>36812.995999999999</v>
       </c>
       <c r="P162">
-        <v>38967.431800000006</v>
+        <v>38968.631800000003</v>
       </c>
       <c r="Q162">
-        <v>40914.765400000004</v>
+        <v>40922.465400000001</v>
       </c>
       <c r="R162">
-        <v>42391.5</v>
+        <v>42397.4</v>
       </c>
       <c r="S162">
-        <v>42850.802600000003</v>
+        <v>42852.302600000003</v>
       </c>
       <c r="T162">
         <v>43542.605100000001</v>
       </c>
       <c r="U162">
-        <v>43567.652099999999</v>
+        <v>43568.952100000002</v>
       </c>
       <c r="V162">
-        <v>43004.773800000003</v>
+        <v>43007.373800000001</v>
       </c>
       <c r="W162">
-        <v>41664.152800000003</v>
+        <v>41668.352800000001</v>
       </c>
       <c r="X162">
-        <v>39588.657400000004</v>
+        <v>39595.857400000001</v>
       </c>
       <c r="Y162">
-        <v>39518.389300000003</v>
+        <v>39528.889300000003</v>
       </c>
       <c r="Z162">
-        <v>41711.553500000002</v>
+        <v>41720.953500000003</v>
       </c>
       <c r="AA162">
-        <v>42203.110099999998</v>
+        <v>42208.110099999998</v>
       </c>
       <c r="AB162">
-        <v>41305.4015</v>
+        <v>41310.801500000001</v>
       </c>
       <c r="AC162">
-        <v>40200.9</v>
+        <v>40205.9</v>
       </c>
     </row>
     <row r="163" spans="1:29" x14ac:dyDescent="0.2">
@@ -14803,73 +14803,73 @@
         <v>38365.308599999997</v>
       </c>
       <c r="G163">
-        <v>36280.448899999996</v>
+        <v>36558.848899999997</v>
       </c>
       <c r="H163">
-        <v>34847.4</v>
+        <v>35378.6</v>
       </c>
       <c r="I163">
-        <v>33927.894999999997</v>
+        <v>34660.695</v>
       </c>
       <c r="J163">
-        <v>33129.597699999998</v>
+        <v>33856.397700000001</v>
       </c>
       <c r="K163">
-        <v>32504.2886</v>
+        <v>33224.688600000001</v>
       </c>
       <c r="L163">
-        <v>31644.5206</v>
+        <v>32359.920600000001</v>
       </c>
       <c r="M163">
-        <v>32221.822399999997</v>
+        <v>32929.322399999997</v>
       </c>
       <c r="N163">
-        <v>34861.823000000004</v>
+        <v>35190.023000000001</v>
       </c>
       <c r="O163">
-        <v>37214.481200000002</v>
+        <v>37216.381200000003</v>
       </c>
       <c r="P163">
-        <v>39323.312599999997</v>
+        <v>39327.712599999999</v>
       </c>
       <c r="Q163">
-        <v>41206.4548</v>
+        <v>41212.9548</v>
       </c>
       <c r="R163">
-        <v>42402.2</v>
+        <v>42562.2</v>
       </c>
       <c r="S163">
-        <v>42541.799999999996</v>
+        <v>42707.7</v>
       </c>
       <c r="T163">
-        <v>43538.287799999998</v>
+        <v>43546.087800000001</v>
       </c>
       <c r="U163">
-        <v>43304.2</v>
+        <v>43491.199999999997</v>
       </c>
       <c r="V163">
-        <v>42934.5213</v>
+        <v>43122.321300000003</v>
       </c>
       <c r="W163">
-        <v>41718.300000000003</v>
+        <v>41898.300000000003</v>
       </c>
       <c r="X163">
-        <v>39634.997600000002</v>
+        <v>39642.6976</v>
       </c>
       <c r="Y163">
-        <v>39755.788399999998</v>
+        <v>39762.288399999998</v>
       </c>
       <c r="Z163">
-        <v>42469.548600000002</v>
+        <v>42473.448600000003</v>
       </c>
       <c r="AA163">
-        <v>42445.871500000001</v>
+        <v>42450.771500000003</v>
       </c>
       <c r="AB163">
-        <v>41489.544399999999</v>
+        <v>41494.4444</v>
       </c>
       <c r="AC163">
-        <v>40392.080999999998</v>
+        <v>40395.580999999998</v>
       </c>
     </row>
     <row r="164" spans="1:29" x14ac:dyDescent="0.2">
@@ -14889,34 +14889,34 @@
         <v>1</v>
       </c>
       <c r="F164">
-        <v>38845.4087</v>
+        <v>38858.608699999997</v>
       </c>
       <c r="G164">
-        <v>36961.218799999995</v>
+        <v>37211.518799999998</v>
       </c>
       <c r="H164">
-        <v>35411.453800000003</v>
+        <v>35904.6538</v>
       </c>
       <c r="I164">
-        <v>34481.600099999996</v>
+        <v>35201.000099999997</v>
       </c>
       <c r="J164">
-        <v>33754.210799999993</v>
+        <v>34481.010799999996</v>
       </c>
       <c r="K164">
-        <v>33251.996599999999</v>
+        <v>33968.8966</v>
       </c>
       <c r="L164">
-        <v>32087.426700000004</v>
+        <v>32804.926700000004</v>
       </c>
       <c r="M164">
-        <v>32695.406800000001</v>
+        <v>33401.606800000001</v>
       </c>
       <c r="N164">
-        <v>35371.016800000005</v>
+        <v>35797.216800000002</v>
       </c>
       <c r="O164">
-        <v>37651.1466</v>
+        <v>37692.946600000003</v>
       </c>
       <c r="P164">
         <v>39791.936800000003</v>
@@ -14981,31 +14981,31 @@
         <v>39057.800000000003</v>
       </c>
       <c r="G165">
-        <v>37087.699100000005</v>
+        <v>37176.399100000002</v>
       </c>
       <c r="H165">
-        <v>35566.9</v>
+        <v>36047.4</v>
       </c>
       <c r="I165">
-        <v>34494.793299999998</v>
+        <v>35126.293299999998</v>
       </c>
       <c r="J165">
-        <v>33749.3992</v>
+        <v>34476.8992</v>
       </c>
       <c r="K165">
-        <v>33259.688999999998</v>
+        <v>33981.288999999997</v>
       </c>
       <c r="L165">
-        <v>32282.8295</v>
+        <v>32998.929499999998</v>
       </c>
       <c r="M165">
-        <v>32758.7166</v>
+        <v>33416.316599999998</v>
       </c>
       <c r="N165">
-        <v>35255.913400000005</v>
+        <v>35703.013400000003</v>
       </c>
       <c r="O165">
-        <v>37584.400000000001</v>
+        <v>37747.599999999999</v>
       </c>
       <c r="P165">
         <v>39771.571000000004</v>
@@ -15014,40 +15014,40 @@
         <v>41687.976799999997</v>
       </c>
       <c r="R165">
-        <v>42892.586000000003</v>
+        <v>42895.686000000002</v>
       </c>
       <c r="S165">
-        <v>43367.105800000005</v>
+        <v>43369.805800000002</v>
       </c>
       <c r="T165">
-        <v>44055.171399999999</v>
+        <v>44059.671399999999</v>
       </c>
       <c r="U165">
-        <v>44101.881699999998</v>
+        <v>44105.7817</v>
       </c>
       <c r="V165">
-        <v>43600.9</v>
+        <v>43604.6</v>
       </c>
       <c r="W165">
-        <v>42198.2</v>
+        <v>42202.5</v>
       </c>
       <c r="X165">
-        <v>40161.739100000006</v>
+        <v>40164.939100000003</v>
       </c>
       <c r="Y165">
-        <v>40195.884299999998</v>
+        <v>40199.984299999996</v>
       </c>
       <c r="Z165">
-        <v>42943.883799999996</v>
+        <v>42949.683799999999</v>
       </c>
       <c r="AA165">
-        <v>42826.6106</v>
+        <v>42831.710599999999</v>
       </c>
       <c r="AB165">
-        <v>41765.9</v>
+        <v>41772.800000000003</v>
       </c>
       <c r="AC165">
-        <v>40560.5245</v>
+        <v>40564.724499999997</v>
       </c>
     </row>
     <row r="166" spans="1:29" x14ac:dyDescent="0.2">
@@ -15067,31 +15067,31 @@
         <v>1</v>
       </c>
       <c r="F166">
-        <v>38894.020500000006</v>
+        <v>38898.720500000003</v>
       </c>
       <c r="G166">
-        <v>37058.199999999997</v>
+        <v>37210.199999999997</v>
       </c>
       <c r="H166">
-        <v>35576.527500000004</v>
+        <v>36231.627500000002</v>
       </c>
       <c r="I166">
-        <v>34538.400000000001</v>
+        <v>35267.300000000003</v>
       </c>
       <c r="J166">
-        <v>33853.477700000003</v>
+        <v>34577.077700000002</v>
       </c>
       <c r="K166">
-        <v>33343.015599999999</v>
+        <v>34058.615599999997</v>
       </c>
       <c r="L166">
-        <v>32288.805699999997</v>
+        <v>32998.305699999997</v>
       </c>
       <c r="M166">
-        <v>32392.9</v>
+        <v>33078.9</v>
       </c>
       <c r="N166">
-        <v>34535</v>
+        <v>34757.5</v>
       </c>
       <c r="O166">
         <v>36890.9</v>
@@ -15159,28 +15159,28 @@
         <v>38162.005899999996</v>
       </c>
       <c r="G167">
-        <v>36444.274099999995</v>
+        <v>36690.174099999997</v>
       </c>
       <c r="H167">
-        <v>35125.7431</v>
+        <v>35595.643100000001</v>
       </c>
       <c r="I167">
-        <v>33943.3217</v>
+        <v>34614.521699999998</v>
       </c>
       <c r="J167">
-        <v>33034.825499999999</v>
+        <v>33759.925499999998</v>
       </c>
       <c r="K167">
-        <v>31846.834699999999</v>
+        <v>32564.5347</v>
       </c>
       <c r="L167">
-        <v>30053.561000000002</v>
+        <v>30768.861000000001</v>
       </c>
       <c r="M167">
-        <v>29012.7081</v>
+        <v>29688.508099999999</v>
       </c>
       <c r="N167">
-        <v>29676</v>
+        <v>29960</v>
       </c>
       <c r="O167">
         <v>30918.07</v>
@@ -15340,25 +15340,25 @@
         <v>35430.086900000002</v>
       </c>
       <c r="H169">
-        <v>34150.861899999996</v>
+        <v>34353.261899999998</v>
       </c>
       <c r="I169">
-        <v>33314.269899999999</v>
+        <v>33718.369899999998</v>
       </c>
       <c r="J169">
-        <v>32602.400000000001</v>
+        <v>33080.400000000001</v>
       </c>
       <c r="K169">
-        <v>32201.792000000001</v>
+        <v>32679.092000000001</v>
       </c>
       <c r="L169">
-        <v>31523.958500000001</v>
+        <v>31997.458500000001</v>
       </c>
       <c r="M169">
-        <v>31963.911899999999</v>
+        <v>32433.811900000001</v>
       </c>
       <c r="N169">
-        <v>34314.090900000003</v>
+        <v>34554.7909</v>
       </c>
       <c r="O169">
         <v>36801.277600000001</v>
@@ -15394,13 +15394,13 @@
         <v>39829.563999999998</v>
       </c>
       <c r="Z169">
-        <v>42312.5</v>
+        <v>42315.9</v>
       </c>
       <c r="AA169">
-        <v>41779.393299999996</v>
+        <v>41784.293299999998</v>
       </c>
       <c r="AB169">
-        <v>40961.5</v>
+        <v>40963.199999999997</v>
       </c>
       <c r="AC169">
         <v>39751.699999999997</v>
@@ -15426,58 +15426,58 @@
         <v>37938.727099999996</v>
       </c>
       <c r="G170">
-        <v>36052.208999999995</v>
+        <v>36230.008999999998</v>
       </c>
       <c r="H170">
-        <v>34705.985400000005</v>
+        <v>35159.185400000002</v>
       </c>
       <c r="I170">
-        <v>33724.7713</v>
+        <v>34212.2713</v>
       </c>
       <c r="J170">
-        <v>32894.409500000002</v>
+        <v>33608.909500000002</v>
       </c>
       <c r="K170">
-        <v>32497.999999999996</v>
+        <v>33216.199999999997</v>
       </c>
       <c r="L170">
-        <v>31681.662799999998</v>
+        <v>32396.662799999998</v>
       </c>
       <c r="M170">
-        <v>32224.499799999998</v>
+        <v>32922.499799999998</v>
       </c>
       <c r="N170">
-        <v>34575.300000000003</v>
+        <v>34822</v>
       </c>
       <c r="O170">
         <v>36559.9</v>
       </c>
       <c r="P170">
-        <v>38879.4</v>
+        <v>38881.800000000003</v>
       </c>
       <c r="Q170">
-        <v>40697.902500000004</v>
+        <v>40704.602500000001</v>
       </c>
       <c r="R170">
-        <v>41967.843200000003</v>
+        <v>41973.943200000002</v>
       </c>
       <c r="S170">
-        <v>42008.399999999994</v>
+        <v>42016.2</v>
       </c>
       <c r="T170">
-        <v>42156.091899999999</v>
+        <v>42162.991900000001</v>
       </c>
       <c r="U170">
-        <v>42336.36</v>
+        <v>42342.86</v>
       </c>
       <c r="V170">
-        <v>41876.699999999997</v>
+        <v>41884.199999999997</v>
       </c>
       <c r="W170">
-        <v>40726.201800000003</v>
+        <v>40733.9018</v>
       </c>
       <c r="X170">
-        <v>39024.445899999999</v>
+        <v>39026.745900000002</v>
       </c>
       <c r="Y170">
         <v>39433.771000000001</v>
@@ -15515,67 +15515,67 @@
         <v>37110.633399999999</v>
       </c>
       <c r="G171">
-        <v>35146.645899999996</v>
+        <v>35348.545899999997</v>
       </c>
       <c r="H171">
-        <v>33769.577300000004</v>
+        <v>34176.677300000003</v>
       </c>
       <c r="I171">
-        <v>32824.254300000001</v>
+        <v>33310.954299999998</v>
       </c>
       <c r="J171">
-        <v>32187</v>
+        <v>32804</v>
       </c>
       <c r="K171">
-        <v>31730.532500000001</v>
+        <v>32450.032500000001</v>
       </c>
       <c r="L171">
-        <v>30968.6921</v>
+        <v>31682.092100000002</v>
       </c>
       <c r="M171">
-        <v>31388.2</v>
+        <v>32094.7</v>
       </c>
       <c r="N171">
-        <v>33911.078500000003</v>
+        <v>34461.7785</v>
       </c>
       <c r="O171">
-        <v>36142</v>
+        <v>36270.800000000003</v>
       </c>
       <c r="P171">
-        <v>38115.599999999999</v>
+        <v>38118.6</v>
       </c>
       <c r="Q171">
-        <v>39916.199999999997</v>
+        <v>39920.1</v>
       </c>
       <c r="R171">
-        <v>41176.236499999999</v>
+        <v>41180.636500000001</v>
       </c>
       <c r="S171">
-        <v>41621.103999999999</v>
+        <v>41624.803999999996</v>
       </c>
       <c r="T171">
-        <v>42073.495300000002</v>
+        <v>42076.495300000002</v>
       </c>
       <c r="U171">
-        <v>42185.599999999999</v>
+        <v>42189.4</v>
       </c>
       <c r="V171">
-        <v>41594.841</v>
+        <v>41599.540999999997</v>
       </c>
       <c r="W171">
-        <v>40456.2114</v>
+        <v>40460.311399999999</v>
       </c>
       <c r="X171">
-        <v>38625.107900000003</v>
+        <v>38629.607900000003</v>
       </c>
       <c r="Y171">
-        <v>39211.870800000004</v>
+        <v>39216.570800000001</v>
       </c>
       <c r="Z171">
-        <v>41417.676699999996</v>
+        <v>41422.476699999999</v>
       </c>
       <c r="AA171">
-        <v>41020.565900000001</v>
+        <v>41023.965900000003</v>
       </c>
       <c r="AB171">
         <v>40027.443500000001</v>
@@ -15604,67 +15604,67 @@
         <v>36820</v>
       </c>
       <c r="G172">
-        <v>34927.061199999996</v>
+        <v>35027.361199999999</v>
       </c>
       <c r="H172">
-        <v>33531.254800000002</v>
+        <v>34021.4548</v>
       </c>
       <c r="I172">
-        <v>32609.000000000004</v>
+        <v>33096.300000000003</v>
       </c>
       <c r="J172">
-        <v>31976.0988</v>
+        <v>32521.7988</v>
       </c>
       <c r="K172">
-        <v>31533.746600000002</v>
+        <v>32256.346600000001</v>
       </c>
       <c r="L172">
-        <v>30758.837199999998</v>
+        <v>31474.537199999999</v>
       </c>
       <c r="M172">
-        <v>31042.534499999998</v>
+        <v>31748.934499999999</v>
       </c>
       <c r="N172">
-        <v>33323.735200000003</v>
+        <v>33890.9352</v>
       </c>
       <c r="O172">
-        <v>35359.335800000001</v>
+        <v>35398.435799999999</v>
       </c>
       <c r="P172">
-        <v>37167.627100000005</v>
+        <v>37172.327100000002</v>
       </c>
       <c r="Q172">
-        <v>38726.244400000003</v>
+        <v>38735.844400000002</v>
       </c>
       <c r="R172">
-        <v>39929.518500000006</v>
+        <v>39938.718500000003</v>
       </c>
       <c r="S172">
-        <v>39930.9</v>
+        <v>39940.9</v>
       </c>
       <c r="T172">
-        <v>40337.658000000003</v>
+        <v>40347.158000000003</v>
       </c>
       <c r="U172">
-        <v>40096.369300000006</v>
+        <v>40105.569300000003</v>
       </c>
       <c r="V172">
-        <v>39456.773500000003</v>
+        <v>39466.373500000002</v>
       </c>
       <c r="W172">
-        <v>38368.983199999995</v>
+        <v>38378.783199999998</v>
       </c>
       <c r="X172">
-        <v>36721.255400000002</v>
+        <v>36731.455399999999</v>
       </c>
       <c r="Y172">
-        <v>37666.100000000006</v>
+        <v>37673.800000000003</v>
       </c>
       <c r="Z172">
-        <v>39523.439599999998</v>
+        <v>39529.039599999996</v>
       </c>
       <c r="AA172">
-        <v>39042.673000000003</v>
+        <v>39045.173000000003</v>
       </c>
       <c r="AB172">
         <v>37949.725400000003</v>
@@ -15868,28 +15868,28 @@
         <v>1</v>
       </c>
       <c r="F175">
-        <v>32976.850099999996</v>
+        <v>33002.150099999999</v>
       </c>
       <c r="G175">
-        <v>31415.0854</v>
+        <v>31859.985400000001</v>
       </c>
       <c r="H175">
-        <v>30206.555700000001</v>
+        <v>30688.655699999999</v>
       </c>
       <c r="I175">
-        <v>29476.550599999999</v>
+        <v>29954.550599999999</v>
       </c>
       <c r="J175">
-        <v>28922.5</v>
+        <v>29399.1</v>
       </c>
       <c r="K175">
-        <v>28697.3164</v>
+        <v>29170.8164</v>
       </c>
       <c r="L175">
-        <v>28210.910499999998</v>
+        <v>28682.8105</v>
       </c>
       <c r="M175">
-        <v>28904.705300000001</v>
+        <v>29060.505300000001</v>
       </c>
       <c r="N175">
         <v>31481.923200000001</v>
@@ -15957,31 +15957,31 @@
         <v>1</v>
       </c>
       <c r="F176">
-        <v>34469.799999999996</v>
+        <v>34507.199999999997</v>
       </c>
       <c r="G176">
-        <v>32676.651100000003</v>
+        <v>32920.751100000001</v>
       </c>
       <c r="H176">
-        <v>31468.53</v>
+        <v>31925.43</v>
       </c>
       <c r="I176">
-        <v>30657.0615</v>
+        <v>31137.961500000001</v>
       </c>
       <c r="J176">
-        <v>30068.745199999998</v>
+        <v>30546.445199999998</v>
       </c>
       <c r="K176">
-        <v>29755.447499999998</v>
+        <v>30229.647499999999</v>
       </c>
       <c r="L176">
-        <v>29136.764599999999</v>
+        <v>29610.1646</v>
       </c>
       <c r="M176">
-        <v>29529.782299999999</v>
+        <v>29998.282299999999</v>
       </c>
       <c r="N176">
-        <v>31779.3619</v>
+        <v>31985.8619</v>
       </c>
       <c r="O176">
         <v>33903.730300000003</v>
@@ -16049,37 +16049,37 @@
         <v>34874.574099999998</v>
       </c>
       <c r="G177">
-        <v>33069.846900000004</v>
+        <v>33122.446900000003</v>
       </c>
       <c r="H177">
-        <v>31720.4935</v>
+        <v>32088.593499999999</v>
       </c>
       <c r="I177">
-        <v>30659.3429</v>
+        <v>31389.5429</v>
       </c>
       <c r="J177">
-        <v>29962</v>
+        <v>30687.1</v>
       </c>
       <c r="K177">
-        <v>29387.427200000002</v>
+        <v>30108.0272</v>
       </c>
       <c r="L177">
-        <v>28287.9352</v>
+        <v>29002.135200000001</v>
       </c>
       <c r="M177">
-        <v>27100.063299999998</v>
+        <v>27808.463299999999</v>
       </c>
       <c r="N177">
-        <v>27710.533899999999</v>
+        <v>28034.233899999999</v>
       </c>
       <c r="O177">
-        <v>28920.5</v>
+        <v>28922.5</v>
       </c>
       <c r="P177">
-        <v>30442.539500000003</v>
+        <v>30447.639500000001</v>
       </c>
       <c r="Q177">
-        <v>31936.205300000001</v>
+        <v>31938.005300000001</v>
       </c>
       <c r="R177">
         <v>33097.048300000002</v>
@@ -16236,19 +16236,19 @@
         <v>30074.514599999999</v>
       </c>
       <c r="J179">
-        <v>29581.062300000001</v>
+        <v>29817.362300000001</v>
       </c>
       <c r="K179">
-        <v>29120.784800000001</v>
+        <v>29501.784800000001</v>
       </c>
       <c r="L179">
-        <v>28510.7736</v>
+        <v>28984.873599999999</v>
       </c>
       <c r="M179">
-        <v>28812.2</v>
+        <v>29280.5</v>
       </c>
       <c r="N179">
-        <v>31190.0301</v>
+        <v>31292.0301</v>
       </c>
       <c r="O179">
         <v>33244.2094</v>
@@ -16316,31 +16316,31 @@
         <v>34130.3923</v>
       </c>
       <c r="G180">
-        <v>32350.7222</v>
+        <v>32537.7222</v>
       </c>
       <c r="H180">
-        <v>31147.126400000001</v>
+        <v>31594.2264</v>
       </c>
       <c r="I180">
-        <v>30266.912100000001</v>
+        <v>30757.212100000001</v>
       </c>
       <c r="J180">
-        <v>29684.9</v>
+        <v>30171.200000000001</v>
       </c>
       <c r="K180">
-        <v>29363.5</v>
+        <v>29847.599999999999</v>
       </c>
       <c r="L180">
-        <v>28613.394800000002</v>
+        <v>29327.4948</v>
       </c>
       <c r="M180">
-        <v>28912.908599999999</v>
+        <v>29625.1086</v>
       </c>
       <c r="N180">
-        <v>30906.296599999998</v>
+        <v>31532.996599999999</v>
       </c>
       <c r="O180">
-        <v>32767.767400000001</v>
+        <v>32927.967400000001</v>
       </c>
       <c r="P180">
         <v>34724.300000000003</v>
@@ -16373,10 +16373,10 @@
         <v>36433.462800000001</v>
       </c>
       <c r="Z180">
-        <v>38042.852599999998</v>
+        <v>38047.2526</v>
       </c>
       <c r="AA180">
-        <v>37221.576699999998</v>
+        <v>37226.876700000001</v>
       </c>
       <c r="AB180">
         <v>36341.748899999999</v>
@@ -16405,31 +16405,31 @@
         <v>33799.1</v>
       </c>
       <c r="G181">
-        <v>32275.370999999999</v>
+        <v>32371.170999999998</v>
       </c>
       <c r="H181">
-        <v>30992.5216</v>
+        <v>31241.5216</v>
       </c>
       <c r="I181">
-        <v>30005.978999999999</v>
+        <v>30468.179</v>
       </c>
       <c r="J181">
-        <v>29316</v>
+        <v>29805</v>
       </c>
       <c r="K181">
-        <v>28780.1</v>
+        <v>29468.3</v>
       </c>
       <c r="L181">
-        <v>27685</v>
+        <v>28406.9</v>
       </c>
       <c r="M181">
-        <v>26531.399999999998</v>
+        <v>27247.1</v>
       </c>
       <c r="N181">
-        <v>27224.899999999998</v>
+        <v>27933.3</v>
       </c>
       <c r="O181">
-        <v>28497.8946</v>
+        <v>28803.294600000001</v>
       </c>
       <c r="P181">
         <v>30008.412199999999</v>
@@ -16586,28 +16586,28 @@
         <v>32501.599999999999</v>
       </c>
       <c r="H183">
-        <v>31165.5</v>
+        <v>31340.7</v>
       </c>
       <c r="I183">
-        <v>30361.220100000002</v>
+        <v>30604.020100000002</v>
       </c>
       <c r="J183">
-        <v>29733.716499999999</v>
+        <v>29976.916499999999</v>
       </c>
       <c r="K183">
-        <v>29422.081999999999</v>
+        <v>29664.581999999999</v>
       </c>
       <c r="L183">
-        <v>28821.426600000003</v>
+        <v>29063.526600000001</v>
       </c>
       <c r="M183">
-        <v>29130.916100000002</v>
+        <v>29371.516100000001</v>
       </c>
       <c r="N183">
-        <v>31250</v>
+        <v>31488.9</v>
       </c>
       <c r="O183">
-        <v>33380.6</v>
+        <v>33584.699999999997</v>
       </c>
       <c r="P183">
         <v>34997.944100000001</v>
@@ -16880,7 +16880,7 @@
         <v>34161.895100000002</v>
       </c>
       <c r="Q186">
-        <v>35670.800000000003</v>
+        <v>35672.5</v>
       </c>
       <c r="R186">
         <v>36281.825199999999</v>
@@ -16948,19 +16948,19 @@
         <v>28024.414799999999</v>
       </c>
       <c r="J187">
-        <v>27617.523599999997</v>
+        <v>27618.923599999998</v>
       </c>
       <c r="K187">
-        <v>26822.024099999999</v>
+        <v>26827.724099999999</v>
       </c>
       <c r="L187">
-        <v>26124.189399999999</v>
+        <v>26129.689399999999</v>
       </c>
       <c r="M187">
-        <v>27719.4</v>
+        <v>27726.2</v>
       </c>
       <c r="N187">
-        <v>30304.571</v>
+        <v>30307.771000000001</v>
       </c>
       <c r="O187">
         <v>32410.7183</v>
@@ -17203,34 +17203,34 @@
         <v>1</v>
       </c>
       <c r="F190">
-        <v>30904.309699999998</v>
+        <v>30905.709699999999</v>
       </c>
       <c r="G190">
-        <v>29370.217200000003</v>
+        <v>29574.817200000001</v>
       </c>
       <c r="H190">
-        <v>28279.499400000001</v>
+        <v>28747.199400000001</v>
       </c>
       <c r="I190">
-        <v>27615.030699999999</v>
+        <v>28325.930700000001</v>
       </c>
       <c r="J190">
-        <v>27204.911499999998</v>
+        <v>27933.8115</v>
       </c>
       <c r="K190">
-        <v>26572.456999999999</v>
+        <v>27296.656999999999</v>
       </c>
       <c r="L190">
-        <v>25960.566299999999</v>
+        <v>26674.4663</v>
       </c>
       <c r="M190">
-        <v>27535</v>
+        <v>28115.3</v>
       </c>
       <c r="N190">
-        <v>30104.013800000001</v>
+        <v>30342.8138</v>
       </c>
       <c r="O190">
-        <v>31680.738399999998</v>
+        <v>31821.438399999999</v>
       </c>
       <c r="P190">
         <v>33255.943899999998</v>
@@ -17381,34 +17381,34 @@
         <v>1</v>
       </c>
       <c r="F192">
-        <v>30008.135399999999</v>
+        <v>30025.135399999999</v>
       </c>
       <c r="G192">
-        <v>28587.332699999999</v>
+        <v>28835.332699999999</v>
       </c>
       <c r="H192">
-        <v>27730.615000000002</v>
+        <v>28187.615000000002</v>
       </c>
       <c r="I192">
-        <v>27167.957399999999</v>
+        <v>27659.957399999999</v>
       </c>
       <c r="J192">
-        <v>26814.690600000002</v>
+        <v>27304.690600000002</v>
       </c>
       <c r="K192">
-        <v>26191.001700000001</v>
+        <v>26809.001700000001</v>
       </c>
       <c r="L192">
-        <v>25647.5</v>
+        <v>26367.5</v>
       </c>
       <c r="M192">
-        <v>27278.2</v>
+        <v>27985.200000000001</v>
       </c>
       <c r="N192">
-        <v>30079.123100000001</v>
+        <v>30436.9231</v>
       </c>
       <c r="O192">
-        <v>31906.799999999999</v>
+        <v>31957.8</v>
       </c>
       <c r="P192">
         <v>33374.206400000003</v>
@@ -17470,31 +17470,31 @@
         <v>1</v>
       </c>
       <c r="F193">
-        <v>30477.278999999999</v>
+        <v>30619.278999999999</v>
       </c>
       <c r="G193">
-        <v>29029.053800000002</v>
+        <v>29401.053800000002</v>
       </c>
       <c r="H193">
-        <v>28136.625400000001</v>
+        <v>28737.625400000001</v>
       </c>
       <c r="I193">
-        <v>27520.267199999998</v>
+        <v>28255.267199999998</v>
       </c>
       <c r="J193">
-        <v>27139.5049</v>
+        <v>27866.5049</v>
       </c>
       <c r="K193">
-        <v>26462.8917</v>
+        <v>27183.8917</v>
       </c>
       <c r="L193">
-        <v>25813.387599999998</v>
+        <v>26525.387599999998</v>
       </c>
       <c r="M193">
-        <v>27475.8</v>
+        <v>28082.799999999999</v>
       </c>
       <c r="N193">
-        <v>30134.53</v>
+        <v>30165.53</v>
       </c>
       <c r="O193">
         <v>32065.005799999999</v>
@@ -17562,25 +17562,25 @@
         <v>30546.059300000001</v>
       </c>
       <c r="G194">
-        <v>29044.3397</v>
+        <v>29239.3397</v>
       </c>
       <c r="H194">
-        <v>28071.153600000001</v>
+        <v>28441.153600000001</v>
       </c>
       <c r="I194">
-        <v>27252.6119</v>
+        <v>27860.6119</v>
       </c>
       <c r="J194">
-        <v>26776.2219</v>
+        <v>27502.2219</v>
       </c>
       <c r="K194">
-        <v>26105.7</v>
+        <v>26823.7</v>
       </c>
       <c r="L194">
-        <v>25210.7</v>
+        <v>25833.7</v>
       </c>
       <c r="M194">
-        <v>26678.3</v>
+        <v>26998.3</v>
       </c>
       <c r="N194">
         <v>29003.945599999999</v>
@@ -17660,19 +17660,19 @@
         <v>25467.948199999999</v>
       </c>
       <c r="J195">
-        <v>24972.3</v>
+        <v>24992.3</v>
       </c>
       <c r="K195">
-        <v>24250.084599999998</v>
+        <v>24407.084599999998</v>
       </c>
       <c r="L195">
-        <v>22882.895700000001</v>
+        <v>23128.895700000001</v>
       </c>
       <c r="M195">
-        <v>23161.3</v>
+        <v>23406.3</v>
       </c>
       <c r="N195">
-        <v>24150.4604</v>
+        <v>24370.4604</v>
       </c>
       <c r="O195">
         <v>25255.3</v>
@@ -17767,7 +17767,7 @@
         <v>28512.813600000001</v>
       </c>
       <c r="P196">
-        <v>29542.880500000003</v>
+        <v>29544.480500000001</v>
       </c>
       <c r="Q196">
         <v>30501.778900000001</v>
@@ -17826,31 +17826,31 @@
         <v>1</v>
       </c>
       <c r="F197">
-        <v>27016.789799999999</v>
+        <v>27143.6898</v>
       </c>
       <c r="G197">
-        <v>25743.324900000003</v>
+        <v>25994.424900000002</v>
       </c>
       <c r="H197">
-        <v>24920.0249</v>
+        <v>25332.0249</v>
       </c>
       <c r="I197">
-        <v>24399.5</v>
+        <v>24892.400000000001</v>
       </c>
       <c r="J197">
-        <v>24112.3076</v>
+        <v>24602.007600000001</v>
       </c>
       <c r="K197">
-        <v>23662.6829</v>
+        <v>24356.482899999999</v>
       </c>
       <c r="L197">
-        <v>23545.548299999999</v>
+        <v>24265.748299999999</v>
       </c>
       <c r="M197">
-        <v>25152.018799999998</v>
+        <v>25867.918799999999</v>
       </c>
       <c r="N197">
-        <v>27068.755400000002</v>
+        <v>27547.555400000001</v>
       </c>
       <c r="O197">
         <v>28526.334200000001</v>
@@ -17868,7 +17868,7 @@
         <v>30193.2006</v>
       </c>
       <c r="T197">
-        <v>30242.1201</v>
+        <v>30244.720099999999</v>
       </c>
       <c r="U197">
         <v>29689.523300000001</v>
@@ -17924,22 +17924,22 @@
         <v>24939.212</v>
       </c>
       <c r="I198">
-        <v>24416.1</v>
+        <v>24560.6</v>
       </c>
       <c r="J198">
-        <v>24266.337100000001</v>
+        <v>24710.037100000001</v>
       </c>
       <c r="K198">
-        <v>23788.541500000003</v>
+        <v>24377.641500000002</v>
       </c>
       <c r="L198">
-        <v>23359.0965</v>
+        <v>24077.896499999999</v>
       </c>
       <c r="M198">
-        <v>24801.0664</v>
+        <v>25513.5664</v>
       </c>
       <c r="N198">
-        <v>26946.7</v>
+        <v>27257</v>
       </c>
       <c r="O198">
         <v>28349.7228</v>
@@ -18010,25 +18010,25 @@
         <v>26014.260699999999</v>
       </c>
       <c r="H199">
-        <v>25170.934000000001</v>
+        <v>25376.934000000001</v>
       </c>
       <c r="I199">
-        <v>24601.0337</v>
+        <v>24978.5337</v>
       </c>
       <c r="J199">
-        <v>24265.882399999999</v>
+        <v>24749.082399999999</v>
       </c>
       <c r="K199">
-        <v>23819.8969</v>
+        <v>24302.696899999999</v>
       </c>
       <c r="L199">
-        <v>23345.7222</v>
+        <v>23823.322199999999</v>
       </c>
       <c r="M199">
-        <v>24902.100399999999</v>
+        <v>25377.600399999999</v>
       </c>
       <c r="N199">
-        <v>27010.8629</v>
+        <v>27207.762900000002</v>
       </c>
       <c r="O199">
         <v>28165.730800000001</v>
@@ -18096,28 +18096,28 @@
         <v>27456.634999999998</v>
       </c>
       <c r="G200">
-        <v>26100.9</v>
+        <v>26281</v>
       </c>
       <c r="H200">
-        <v>25315.048599999998</v>
+        <v>25718.048599999998</v>
       </c>
       <c r="I200">
-        <v>24728.6</v>
+        <v>25249.5</v>
       </c>
       <c r="J200">
-        <v>24403.7994</v>
+        <v>25134.899399999998</v>
       </c>
       <c r="K200">
-        <v>24066.058300000001</v>
+        <v>24793.558300000001</v>
       </c>
       <c r="L200">
-        <v>23482.177399999997</v>
+        <v>24200.577399999998</v>
       </c>
       <c r="M200">
-        <v>24801.7</v>
+        <v>25513.7</v>
       </c>
       <c r="N200">
-        <v>27122.1</v>
+        <v>27611.599999999999</v>
       </c>
       <c r="O200">
         <v>28626.201799999999</v>
@@ -18185,31 +18185,31 @@
         <v>27802.469799999999</v>
       </c>
       <c r="G201">
-        <v>26330.492300000002</v>
+        <v>26536.792300000001</v>
       </c>
       <c r="H201">
-        <v>25423.393599999999</v>
+        <v>25902.793600000001</v>
       </c>
       <c r="I201">
-        <v>24809.100000000002</v>
+        <v>25305.200000000001</v>
       </c>
       <c r="J201">
-        <v>24528.097100000003</v>
+        <v>25020.197100000001</v>
       </c>
       <c r="K201">
-        <v>24023.5753</v>
+        <v>24706.675299999999</v>
       </c>
       <c r="L201">
-        <v>23291.7</v>
+        <v>24013.200000000001</v>
       </c>
       <c r="M201">
-        <v>24690.147499999999</v>
+        <v>25401.947499999998</v>
       </c>
       <c r="N201">
-        <v>26777.359700000001</v>
+        <v>27324.559700000002</v>
       </c>
       <c r="O201">
-        <v>28454.8069</v>
+        <v>28615.5069</v>
       </c>
       <c r="P201">
         <v>29696.788100000002</v>
@@ -18283,25 +18283,25 @@
         <v>24620.455600000001</v>
       </c>
       <c r="J202">
-        <v>24222.079600000001</v>
+        <v>24223.8796</v>
       </c>
       <c r="K202">
-        <v>23555.926299999999</v>
+        <v>23560.926299999999</v>
       </c>
       <c r="L202">
-        <v>22294.2</v>
+        <v>22303</v>
       </c>
       <c r="M202">
-        <v>22552.868300000002</v>
+        <v>22563.4683</v>
       </c>
       <c r="N202">
-        <v>23568.8122</v>
+        <v>23574.012200000001</v>
       </c>
       <c r="O202">
-        <v>24652.799999999999</v>
+        <v>24657.599999999999</v>
       </c>
       <c r="P202">
-        <v>25852.094300000001</v>
+        <v>25855.794300000001</v>
       </c>
       <c r="Q202">
         <v>26868.262599999998</v>
@@ -18313,7 +18313,7 @@
         <v>27744.7209</v>
       </c>
       <c r="T202">
-        <v>27574.666000000001</v>
+        <v>27577.466</v>
       </c>
       <c r="U202">
         <v>27072.904200000001</v>
@@ -18363,28 +18363,28 @@
         <v>26696.669699999999</v>
       </c>
       <c r="G203">
-        <v>25410.720600000001</v>
+        <v>25641.5206</v>
       </c>
       <c r="H203">
-        <v>24760.9</v>
+        <v>24939.9</v>
       </c>
       <c r="I203">
-        <v>24138.4722</v>
+        <v>24546.4722</v>
       </c>
       <c r="J203">
-        <v>23761.769700000001</v>
+        <v>24252.769700000001</v>
       </c>
       <c r="K203">
-        <v>23388.389299999999</v>
+        <v>23877.389299999999</v>
       </c>
       <c r="L203">
-        <v>23172.087299999999</v>
+        <v>23660.087299999999</v>
       </c>
       <c r="M203">
-        <v>24882.4604</v>
+        <v>25331.4604</v>
       </c>
       <c r="N203">
-        <v>27353.4532</v>
+        <v>27574.053199999998</v>
       </c>
       <c r="O203">
         <v>28966.256600000001</v>
@@ -18452,28 +18452,28 @@
         <v>27904.9179</v>
       </c>
       <c r="G204">
-        <v>26586.329399999999</v>
+        <v>26708.529399999999</v>
       </c>
       <c r="H204">
-        <v>25696.822</v>
+        <v>26111.322</v>
       </c>
       <c r="I204">
-        <v>25096.0461</v>
+        <v>25579.5461</v>
       </c>
       <c r="J204">
-        <v>24734.034299999999</v>
+        <v>25215.434300000001</v>
       </c>
       <c r="K204">
-        <v>24280.7006</v>
+        <v>24760.900600000001</v>
       </c>
       <c r="L204">
-        <v>23651.067999999999</v>
+        <v>24126.567999999999</v>
       </c>
       <c r="M204">
-        <v>25076.899999999998</v>
+        <v>25443.8</v>
       </c>
       <c r="N204">
-        <v>27394.1</v>
+        <v>27421.5</v>
       </c>
       <c r="O204">
         <v>28978.2431</v>
@@ -18541,28 +18541,28 @@
         <v>27720.400000000001</v>
       </c>
       <c r="G205">
-        <v>26367.926199999998</v>
+        <v>26529.126199999999</v>
       </c>
       <c r="H205">
-        <v>25490.859099999998</v>
+        <v>25931.059099999999</v>
       </c>
       <c r="I205">
-        <v>24703.159299999999</v>
+        <v>25187.3593</v>
       </c>
       <c r="J205">
-        <v>24424.926100000001</v>
+        <v>24903.526099999999</v>
       </c>
       <c r="K205">
-        <v>23865.1</v>
+        <v>24342.6</v>
       </c>
       <c r="L205">
-        <v>23347.671900000001</v>
+        <v>23821.2719</v>
       </c>
       <c r="M205">
-        <v>24681.100000000002</v>
+        <v>25152.2</v>
       </c>
       <c r="N205">
-        <v>26969.567999999999</v>
+        <v>27196.768</v>
       </c>
       <c r="O205">
         <v>28323.1</v>
@@ -18645,22 +18645,22 @@
         <v>22053.5975</v>
       </c>
       <c r="L206">
-        <v>20520.448</v>
+        <v>20521.948</v>
       </c>
       <c r="M206">
-        <v>20293.045400000003</v>
+        <v>20319.145400000001</v>
       </c>
       <c r="N206">
-        <v>20769.8632</v>
+        <v>20928.763200000001</v>
       </c>
       <c r="O206">
-        <v>21598.476500000001</v>
+        <v>21603.976500000001</v>
       </c>
       <c r="P206">
-        <v>22078.399999999998</v>
+        <v>22084.3</v>
       </c>
       <c r="Q206">
-        <v>22381.490400000002</v>
+        <v>22387.790400000002</v>
       </c>
       <c r="R206">
         <v>22676.383099999999</v>
@@ -18716,46 +18716,46 @@
         <v>5</v>
       </c>
       <c r="F207">
-        <v>23054.5</v>
+        <v>23059.7</v>
       </c>
       <c r="G207">
-        <v>22074.6</v>
+        <v>22079.8</v>
       </c>
       <c r="H207">
-        <v>21243.5026</v>
+        <v>21248.702600000001</v>
       </c>
       <c r="I207">
-        <v>20683.7582</v>
+        <v>20688.858199999999</v>
       </c>
       <c r="J207">
-        <v>20305.600000000002</v>
+        <v>20323.7</v>
       </c>
       <c r="K207">
-        <v>19609.399999999998</v>
+        <v>19862.3</v>
       </c>
       <c r="L207">
-        <v>18344.042300000001</v>
+        <v>18597.742300000002</v>
       </c>
       <c r="M207">
-        <v>17893.132299999997</v>
+        <v>18145.532299999999</v>
       </c>
       <c r="N207">
-        <v>18202.5314</v>
+        <v>18454.831399999999</v>
       </c>
       <c r="O207">
-        <v>18490.819800000001</v>
+        <v>18743.1198</v>
       </c>
       <c r="P207">
-        <v>18610</v>
+        <v>18860.900000000001</v>
       </c>
       <c r="Q207">
-        <v>18772.872899999998</v>
+        <v>19023.372899999998</v>
       </c>
       <c r="R207">
-        <v>19322.900000000001</v>
+        <v>19572.7</v>
       </c>
       <c r="S207">
-        <v>20366.023699999998</v>
+        <v>20446.423699999999</v>
       </c>
       <c r="T207">
         <v>21096.391</v>
@@ -18903,25 +18903,25 @@
         <v>23401.1</v>
       </c>
       <c r="I209">
-        <v>22846.810799999999</v>
+        <v>23008.5108</v>
       </c>
       <c r="J209">
-        <v>22494.400000000001</v>
+        <v>22860.2</v>
       </c>
       <c r="K209">
-        <v>21924.752100000002</v>
+        <v>22403.752100000002</v>
       </c>
       <c r="L209">
-        <v>20942.454300000001</v>
+        <v>21418.254300000001</v>
       </c>
       <c r="M209">
-        <v>21053.374500000002</v>
+        <v>21526.174500000001</v>
       </c>
       <c r="N209">
-        <v>22116.6</v>
+        <v>22519.599999999999</v>
       </c>
       <c r="O209">
-        <v>23377.917100000002</v>
+        <v>23452.217100000002</v>
       </c>
       <c r="P209">
         <v>24566.629799999999</v>
@@ -19164,31 +19164,31 @@
         <v>25628</v>
       </c>
       <c r="G212">
-        <v>24363.469200000003</v>
+        <v>24457.569200000002</v>
       </c>
       <c r="H212">
-        <v>23531.300000000003</v>
+        <v>23932.400000000001</v>
       </c>
       <c r="I212">
-        <v>23075.621900000002</v>
+        <v>23566.7219</v>
       </c>
       <c r="J212">
-        <v>22808.309400000002</v>
+        <v>23298.109400000001</v>
       </c>
       <c r="K212">
-        <v>22505.6217</v>
+        <v>22992.6217</v>
       </c>
       <c r="L212">
-        <v>22087.2107</v>
+        <v>22572.4107</v>
       </c>
       <c r="M212">
-        <v>23558.9666</v>
+        <v>24039.1666</v>
       </c>
       <c r="N212">
-        <v>25861.978200000001</v>
+        <v>26334.5782</v>
       </c>
       <c r="O212">
-        <v>27344.5</v>
+        <v>27744.6</v>
       </c>
       <c r="P212">
         <v>28380.8557</v>
@@ -19256,28 +19256,28 @@
         <v>24408</v>
       </c>
       <c r="H213">
-        <v>23585.412199999999</v>
+        <v>23586.412199999999</v>
       </c>
       <c r="I213">
-        <v>23006.101000000002</v>
+        <v>23391.201000000001</v>
       </c>
       <c r="J213">
-        <v>22719.0128</v>
+        <v>23211.8128</v>
       </c>
       <c r="K213">
-        <v>22492.011599999998</v>
+        <v>22982.411599999999</v>
       </c>
       <c r="L213">
-        <v>22293.430400000001</v>
+        <v>22778.430400000001</v>
       </c>
       <c r="M213">
-        <v>23470.036100000001</v>
+        <v>23955.036100000001</v>
       </c>
       <c r="N213">
-        <v>25758.552199999998</v>
+        <v>26243.552199999998</v>
       </c>
       <c r="O213">
-        <v>27179.1204</v>
+        <v>27630.1204</v>
       </c>
       <c r="P213">
         <v>28223.1</v>
@@ -19339,31 +19339,31 @@
         <v>1</v>
       </c>
       <c r="F214">
-        <v>25669.432499999999</v>
+        <v>25797.432499999999</v>
       </c>
       <c r="G214">
-        <v>24535.200000000001</v>
+        <v>24931.200000000001</v>
       </c>
       <c r="H214">
-        <v>23831.579099999999</v>
+        <v>24331.579099999999</v>
       </c>
       <c r="I214">
-        <v>23256.070899999999</v>
+        <v>23756.070899999999</v>
       </c>
       <c r="J214">
-        <v>22935.6826</v>
+        <v>23435.6826</v>
       </c>
       <c r="K214">
-        <v>22665.484799999998</v>
+        <v>23165.484799999998</v>
       </c>
       <c r="L214">
-        <v>22283.287700000001</v>
+        <v>22783.287700000001</v>
       </c>
       <c r="M214">
-        <v>23589.3364</v>
+        <v>24089.3364</v>
       </c>
       <c r="N214">
-        <v>25805.726900000001</v>
+        <v>26065.726900000001</v>
       </c>
       <c r="O214">
         <v>27422.1</v>
@@ -19428,40 +19428,40 @@
         <v>1</v>
       </c>
       <c r="F215">
-        <v>25902.3</v>
+        <v>25911.3</v>
       </c>
       <c r="G215">
-        <v>24640.384999999998</v>
+        <v>24665.384999999998</v>
       </c>
       <c r="H215">
-        <v>23859.884399999999</v>
+        <v>23888.884399999999</v>
       </c>
       <c r="I215">
-        <v>23090.9</v>
+        <v>23507.9</v>
       </c>
       <c r="J215">
-        <v>22873.8472</v>
+        <v>23373.8472</v>
       </c>
       <c r="K215">
-        <v>22578.7</v>
+        <v>23078.7</v>
       </c>
       <c r="L215">
-        <v>21987.217100000002</v>
+        <v>22487.217100000002</v>
       </c>
       <c r="M215">
-        <v>23144.216499999999</v>
+        <v>23644.216499999999</v>
       </c>
       <c r="N215">
-        <v>25163.997500000001</v>
+        <v>25455.997500000001</v>
       </c>
       <c r="O215">
-        <v>26596.312999999998</v>
+        <v>26846.312999999998</v>
       </c>
       <c r="P215">
-        <v>27733.593400000002</v>
+        <v>27983.593400000002</v>
       </c>
       <c r="Q215">
-        <v>28336.177599999999</v>
+        <v>28586.177599999999</v>
       </c>
       <c r="R215">
         <v>28488.730200000002</v>
@@ -19517,61 +19517,61 @@
         <v>1</v>
       </c>
       <c r="F216">
-        <v>24915.752</v>
+        <v>25165.752</v>
       </c>
       <c r="G216">
-        <v>23623.397199999999</v>
+        <v>23873.397199999999</v>
       </c>
       <c r="H216">
-        <v>22791.887299999999</v>
+        <v>23041.887299999999</v>
       </c>
       <c r="I216">
-        <v>22011.4</v>
+        <v>22261.4</v>
       </c>
       <c r="J216">
-        <v>21667.7058</v>
+        <v>21917.7058</v>
       </c>
       <c r="K216">
-        <v>21301.050800000001</v>
+        <v>21551.050800000001</v>
       </c>
       <c r="L216">
-        <v>20470.000199999999</v>
+        <v>20475.000199999999</v>
       </c>
       <c r="M216">
-        <v>20458.400000000001</v>
+        <v>20463.400000000001</v>
       </c>
       <c r="N216">
-        <v>21507.1757</v>
+        <v>21513.475699999999</v>
       </c>
       <c r="O216">
-        <v>22680.699999999997</v>
+        <v>22686.6</v>
       </c>
       <c r="P216">
-        <v>23790.959300000002</v>
+        <v>23796.559300000001</v>
       </c>
       <c r="Q216">
-        <v>24594.9565</v>
+        <v>24600.4565</v>
       </c>
       <c r="R216">
-        <v>24843.740100000003</v>
+        <v>24848.840100000001</v>
       </c>
       <c r="S216">
-        <v>24782.907799999997</v>
+        <v>24787.807799999999</v>
       </c>
       <c r="T216">
-        <v>24579.875800000002</v>
+        <v>24584.9758</v>
       </c>
       <c r="U216">
-        <v>24129.789800000002</v>
+        <v>24134.889800000001</v>
       </c>
       <c r="V216">
-        <v>24036.077400000002</v>
+        <v>24041.1774</v>
       </c>
       <c r="W216">
-        <v>26124.992699999999</v>
+        <v>26129.992699999999</v>
       </c>
       <c r="X216">
-        <v>28319.908499999998</v>
+        <v>28324.108499999998</v>
       </c>
       <c r="Y216">
         <v>28371.811300000001</v>
@@ -19695,31 +19695,31 @@
         <v>1</v>
       </c>
       <c r="F218">
-        <v>25042.661900000003</v>
+        <v>25263.261900000001</v>
       </c>
       <c r="G218">
-        <v>23827.100000000002</v>
+        <v>24317.4</v>
       </c>
       <c r="H218">
-        <v>23130.899999999998</v>
+        <v>23618.799999999999</v>
       </c>
       <c r="I218">
-        <v>22659.200000000001</v>
+        <v>23144.400000000001</v>
       </c>
       <c r="J218">
-        <v>22420.6</v>
+        <v>22902.799999999999</v>
       </c>
       <c r="K218">
-        <v>22308.7</v>
+        <v>22788.3</v>
       </c>
       <c r="L218">
-        <v>22036.876700000001</v>
+        <v>22514.476699999999</v>
       </c>
       <c r="M218">
-        <v>23293.125800000002</v>
+        <v>23765.925800000001</v>
       </c>
       <c r="N218">
-        <v>25428.636599999998</v>
+        <v>25706.336599999999</v>
       </c>
       <c r="O218">
         <v>26838.032299999999</v>
@@ -19787,31 +19787,31 @@
         <v>24827.48</v>
       </c>
       <c r="G219">
-        <v>23672.873100000001</v>
+        <v>23831.473099999999</v>
       </c>
       <c r="H219">
-        <v>22907.812999999998</v>
+        <v>23397.012999999999</v>
       </c>
       <c r="I219">
-        <v>22456.8586</v>
+        <v>22945.5586</v>
       </c>
       <c r="J219">
-        <v>22300.8289</v>
+        <v>22784.1289</v>
       </c>
       <c r="K219">
-        <v>22123.1548</v>
+        <v>22606.1548</v>
       </c>
       <c r="L219">
-        <v>22024.874</v>
+        <v>22504.274000000001</v>
       </c>
       <c r="M219">
-        <v>23307.387400000003</v>
+        <v>23784.987400000002</v>
       </c>
       <c r="N219">
-        <v>25334.293599999997</v>
+        <v>25712.693599999999</v>
       </c>
       <c r="O219">
-        <v>26641.5393</v>
+        <v>26791.0393</v>
       </c>
       <c r="P219">
         <v>27489.917399999998</v>
@@ -19965,37 +19965,37 @@
         <v>25163.8501</v>
       </c>
       <c r="G221">
-        <v>23599.490899999997</v>
+        <v>23719.890899999999</v>
       </c>
       <c r="H221">
-        <v>22907.073500000002</v>
+        <v>23401.673500000001</v>
       </c>
       <c r="I221">
-        <v>22452.2</v>
+        <v>22944.5</v>
       </c>
       <c r="J221">
-        <v>22222.2</v>
+        <v>22711.3</v>
       </c>
       <c r="K221">
-        <v>22070.036900000003</v>
+        <v>22557.136900000001</v>
       </c>
       <c r="L221">
-        <v>21913.577799999999</v>
+        <v>22397.2778</v>
       </c>
       <c r="M221">
-        <v>23142.904399999999</v>
+        <v>23584.904399999999</v>
       </c>
       <c r="N221">
-        <v>25392.296699999999</v>
+        <v>25632.296699999999</v>
       </c>
       <c r="O221">
-        <v>26628.641</v>
+        <v>26865.641</v>
       </c>
       <c r="P221">
-        <v>27708.0687</v>
+        <v>27943.0687</v>
       </c>
       <c r="Q221">
-        <v>28471.4738</v>
+        <v>28589.4738</v>
       </c>
       <c r="R221">
         <v>28150.886699999999</v>
@@ -22365,76 +22365,76 @@
         <v>1</v>
       </c>
       <c r="F248">
-        <v>21761.324000000001</v>
+        <v>21637.0406</v>
       </c>
       <c r="G248">
-        <v>20976.799999999999</v>
+        <v>20873.099999999999</v>
       </c>
       <c r="H248">
-        <v>20311.834599999998</v>
+        <v>20201.4208</v>
       </c>
       <c r="I248">
-        <v>20128</v>
+        <v>20014.599999999999</v>
       </c>
       <c r="J248">
-        <v>20032.142599999999</v>
+        <v>19915.803100000001</v>
       </c>
       <c r="K248">
-        <v>20355.807499999999</v>
+        <v>20243.392100000001</v>
       </c>
       <c r="L248">
-        <v>3</v>
+        <v>20873.1999</v>
       </c>
       <c r="M248">
-        <v>3</v>
+        <v>22002.400000000001</v>
       </c>
       <c r="N248">
-        <v>3</v>
+        <v>23855.2333</v>
       </c>
       <c r="O248">
-        <v>3</v>
+        <v>25131.523399999998</v>
       </c>
       <c r="P248">
-        <v>3</v>
+        <v>26010.2</v>
       </c>
       <c r="Q248">
-        <v>3</v>
+        <v>26553.599999999999</v>
       </c>
       <c r="R248">
-        <v>3</v>
+        <v>26100.293799999999</v>
       </c>
       <c r="S248">
-        <v>3</v>
+        <v>25399</v>
       </c>
       <c r="T248">
-        <v>3</v>
+        <v>25356.517199999998</v>
       </c>
       <c r="U248">
-        <v>3</v>
+        <v>25192.488499999999</v>
       </c>
       <c r="V248">
-        <v>3</v>
+        <v>26071.908800000001</v>
       </c>
       <c r="W248">
-        <v>3</v>
+        <v>28946.286199999999</v>
       </c>
       <c r="X248">
-        <v>3</v>
+        <v>29060.993600000002</v>
       </c>
       <c r="Y248">
-        <v>3</v>
+        <v>28356.6</v>
       </c>
       <c r="Z248">
-        <v>3</v>
+        <v>27518.036499999998</v>
       </c>
       <c r="AA248">
-        <v>3</v>
+        <v>26427.743600000002</v>
       </c>
       <c r="AB248">
-        <v>3</v>
+        <v>25177.599999999999</v>
       </c>
       <c r="AC248">
-        <v>3</v>
+        <v>23323.805899999999</v>
       </c>
     </row>
     <row r="249" spans="1:29" x14ac:dyDescent="0.2">
@@ -22453,6 +22453,78 @@
       <c r="E249">
         <v>1</v>
       </c>
+      <c r="F249">
+        <v>21424.3</v>
+      </c>
+      <c r="G249">
+        <v>20357.212299999999</v>
+      </c>
+      <c r="H249">
+        <v>19934.069100000001</v>
+      </c>
+      <c r="I249">
+        <v>19704.251199999999</v>
+      </c>
+      <c r="J249">
+        <v>19659.310799999999</v>
+      </c>
+      <c r="K249">
+        <v>20014.391100000001</v>
+      </c>
+      <c r="L249">
+        <v>20645.4715</v>
+      </c>
+      <c r="M249">
+        <v>21803.4159</v>
+      </c>
+      <c r="N249">
+        <v>23501.437399999999</v>
+      </c>
+      <c r="O249">
+        <v>24526.3308</v>
+      </c>
+      <c r="P249">
+        <v>25392.7</v>
+      </c>
+      <c r="Q249">
+        <v>25994.213599999999</v>
+      </c>
+      <c r="R249">
+        <v>25722.776099999999</v>
+      </c>
+      <c r="S249">
+        <v>25120.4961</v>
+      </c>
+      <c r="T249">
+        <v>25058.070800000001</v>
+      </c>
+      <c r="U249">
+        <v>24943.559399999998</v>
+      </c>
+      <c r="V249">
+        <v>25687.0592</v>
+      </c>
+      <c r="W249">
+        <v>28507.536199999999</v>
+      </c>
+      <c r="X249">
+        <v>28598.625</v>
+      </c>
+      <c r="Y249">
+        <v>27855.932700000001</v>
+      </c>
+      <c r="Z249">
+        <v>27125.036100000001</v>
+      </c>
+      <c r="AA249">
+        <v>25988.3982</v>
+      </c>
+      <c r="AB249">
+        <v>24824.764500000001</v>
+      </c>
+      <c r="AC249">
+        <v>23247.924500000001</v>
+      </c>
     </row>
     <row r="250" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A250">
@@ -22470,6 +22542,78 @@
       <c r="E250">
         <v>1</v>
       </c>
+      <c r="F250">
+        <v>21384.1865</v>
+      </c>
+      <c r="G250">
+        <v>20076.631000000001</v>
+      </c>
+      <c r="H250">
+        <v>19303.099999999999</v>
+      </c>
+      <c r="I250">
+        <v>18959.513800000001</v>
+      </c>
+      <c r="J250">
+        <v>18941.299900000002</v>
+      </c>
+      <c r="K250">
+        <v>19151.495699999999</v>
+      </c>
+      <c r="L250">
+        <v>19479.9876</v>
+      </c>
+      <c r="M250">
+        <v>20297.151999999998</v>
+      </c>
+      <c r="N250">
+        <v>22185.9</v>
+      </c>
+      <c r="O250">
+        <v>23863.237000000001</v>
+      </c>
+      <c r="P250">
+        <v>24982.373</v>
+      </c>
+      <c r="Q250">
+        <v>25585.282200000001</v>
+      </c>
+      <c r="R250">
+        <v>25171.8953</v>
+      </c>
+      <c r="S250">
+        <v>24411.952399999998</v>
+      </c>
+      <c r="T250">
+        <v>23996.400000000001</v>
+      </c>
+      <c r="U250">
+        <v>23742.9</v>
+      </c>
+      <c r="V250">
+        <v>24537.9935</v>
+      </c>
+      <c r="W250">
+        <v>27207.377899999999</v>
+      </c>
+      <c r="X250">
+        <v>27515.9</v>
+      </c>
+      <c r="Y250">
+        <v>26898.178599999999</v>
+      </c>
+      <c r="Z250">
+        <v>26251.782899999998</v>
+      </c>
+      <c r="AA250">
+        <v>25380</v>
+      </c>
+      <c r="AB250">
+        <v>24234.6</v>
+      </c>
+      <c r="AC250">
+        <v>22762.941200000001</v>
+      </c>
     </row>
     <row r="251" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A251">
@@ -22487,6 +22631,78 @@
       <c r="E251">
         <v>1</v>
       </c>
+      <c r="F251">
+        <v>20904.919699999999</v>
+      </c>
+      <c r="G251">
+        <v>19963.607599999999</v>
+      </c>
+      <c r="H251">
+        <v>19146.964</v>
+      </c>
+      <c r="I251">
+        <v>18775.099999999999</v>
+      </c>
+      <c r="J251">
+        <v>18693.6741</v>
+      </c>
+      <c r="K251">
+        <v>18757.599999999999</v>
+      </c>
+      <c r="L251">
+        <v>18604.226999999999</v>
+      </c>
+      <c r="M251">
+        <v>18331.629400000002</v>
+      </c>
+      <c r="N251">
+        <v>18968</v>
+      </c>
+      <c r="O251">
+        <v>20117.1554</v>
+      </c>
+      <c r="P251">
+        <v>21242</v>
+      </c>
+      <c r="Q251">
+        <v>22053.200000000001</v>
+      </c>
+      <c r="R251">
+        <v>21980.561699999998</v>
+      </c>
+      <c r="S251">
+        <v>21627.8995</v>
+      </c>
+      <c r="T251">
+        <v>21314.521100000002</v>
+      </c>
+      <c r="U251">
+        <v>21255.518800000002</v>
+      </c>
+      <c r="V251">
+        <v>22274.9</v>
+      </c>
+      <c r="W251">
+        <v>25387.328099999999</v>
+      </c>
+      <c r="X251">
+        <v>26177.617200000001</v>
+      </c>
+      <c r="Y251">
+        <v>25948.6</v>
+      </c>
+      <c r="Z251">
+        <v>25585.505499999999</v>
+      </c>
+      <c r="AA251">
+        <v>24931.970600000001</v>
+      </c>
+      <c r="AB251">
+        <v>23863.7199</v>
+      </c>
+      <c r="AC251">
+        <v>22245.097699999998</v>
+      </c>
     </row>
     <row r="252" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A252">
@@ -22504,6 +22720,78 @@
       <c r="E252">
         <v>1</v>
       </c>
+      <c r="F252">
+        <v>20470.315299999998</v>
+      </c>
+      <c r="G252">
+        <v>19377.5242</v>
+      </c>
+      <c r="H252">
+        <v>18992.499800000001</v>
+      </c>
+      <c r="I252">
+        <v>18846.099999999999</v>
+      </c>
+      <c r="J252">
+        <v>18845.2048</v>
+      </c>
+      <c r="K252">
+        <v>19275.105100000001</v>
+      </c>
+      <c r="L252">
+        <v>20241.9984</v>
+      </c>
+      <c r="M252">
+        <v>21426.5</v>
+      </c>
+      <c r="N252">
+        <v>23307.2778</v>
+      </c>
+      <c r="O252">
+        <v>24567.844799999999</v>
+      </c>
+      <c r="P252">
+        <v>25588.6</v>
+      </c>
+      <c r="Q252">
+        <v>26169.184300000001</v>
+      </c>
+      <c r="R252">
+        <v>25768.790799999999</v>
+      </c>
+      <c r="S252">
+        <v>25182.502400000001</v>
+      </c>
+      <c r="T252">
+        <v>25077.798500000001</v>
+      </c>
+      <c r="U252">
+        <v>24981.2536</v>
+      </c>
+      <c r="V252">
+        <v>25921.8302</v>
+      </c>
+      <c r="W252">
+        <v>28839.107499999998</v>
+      </c>
+      <c r="X252">
+        <v>29136.440299999998</v>
+      </c>
+      <c r="Y252">
+        <v>28444.5</v>
+      </c>
+      <c r="Z252">
+        <v>27641.539100000002</v>
+      </c>
+      <c r="AA252">
+        <v>26583.393599999999</v>
+      </c>
+      <c r="AB252">
+        <v>25338.3</v>
+      </c>
+      <c r="AC252">
+        <v>23505.767500000002</v>
+      </c>
     </row>
     <row r="253" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A253">
@@ -22521,6 +22809,78 @@
       <c r="E253">
         <v>1</v>
       </c>
+      <c r="F253">
+        <v>21745.982100000001</v>
+      </c>
+      <c r="G253">
+        <v>20775.8717</v>
+      </c>
+      <c r="H253">
+        <v>20111.821800000002</v>
+      </c>
+      <c r="I253">
+        <v>19804.322199999999</v>
+      </c>
+      <c r="J253">
+        <v>19711.627100000002</v>
+      </c>
+      <c r="K253">
+        <v>20094.552800000001</v>
+      </c>
+      <c r="L253">
+        <v>20893.276399999999</v>
+      </c>
+      <c r="M253">
+        <v>22034.799999999999</v>
+      </c>
+      <c r="N253">
+        <v>23827.3334</v>
+      </c>
+      <c r="O253">
+        <v>24944.554199999999</v>
+      </c>
+      <c r="P253">
+        <v>25660.297500000001</v>
+      </c>
+      <c r="Q253">
+        <v>25993.187600000001</v>
+      </c>
+      <c r="R253">
+        <v>25468.1</v>
+      </c>
+      <c r="S253">
+        <v>24844.117399999999</v>
+      </c>
+      <c r="T253">
+        <v>24748.679100000001</v>
+      </c>
+      <c r="U253">
+        <v>24594.664100000002</v>
+      </c>
+      <c r="V253">
+        <v>25404.4071</v>
+      </c>
+      <c r="W253">
+        <v>28122.5579</v>
+      </c>
+      <c r="X253">
+        <v>28393.567800000001</v>
+      </c>
+      <c r="Y253">
+        <v>27637.3164</v>
+      </c>
+      <c r="Z253">
+        <v>26819.530200000001</v>
+      </c>
+      <c r="AA253">
+        <v>25926</v>
+      </c>
+      <c r="AB253">
+        <v>24690</v>
+      </c>
+      <c r="AC253">
+        <v>23167.473600000001</v>
+      </c>
     </row>
     <row r="254" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A254">
@@ -22538,6 +22898,78 @@
       <c r="E254">
         <v>5</v>
       </c>
+      <c r="F254">
+        <v>21935.4352</v>
+      </c>
+      <c r="G254">
+        <v>20769.5</v>
+      </c>
+      <c r="H254">
+        <v>20017.3</v>
+      </c>
+      <c r="I254">
+        <v>19610.648399999998</v>
+      </c>
+      <c r="J254">
+        <v>19486.5396</v>
+      </c>
+      <c r="K254">
+        <v>19580.989600000001</v>
+      </c>
+      <c r="L254">
+        <v>19318.189699999999</v>
+      </c>
+      <c r="M254">
+        <v>18885.4058</v>
+      </c>
+      <c r="N254">
+        <v>19228.905999999999</v>
+      </c>
+      <c r="O254">
+        <v>20215.400000000001</v>
+      </c>
+      <c r="P254">
+        <v>21038.4804</v>
+      </c>
+      <c r="Q254">
+        <v>21389.116699999999</v>
+      </c>
+      <c r="R254">
+        <v>21101.3</v>
+      </c>
+      <c r="S254">
+        <v>20885.3</v>
+      </c>
+      <c r="T254">
+        <v>20779.5</v>
+      </c>
+      <c r="U254">
+        <v>20903.599999999999</v>
+      </c>
+      <c r="V254">
+        <v>22172.2</v>
+      </c>
+      <c r="W254">
+        <v>25050.1</v>
+      </c>
+      <c r="X254">
+        <v>25857.741300000002</v>
+      </c>
+      <c r="Y254">
+        <v>25608.7598</v>
+      </c>
+      <c r="Z254">
+        <v>25166.9166</v>
+      </c>
+      <c r="AA254">
+        <v>24624.232100000001</v>
+      </c>
+      <c r="AB254">
+        <v>23656.895799999998</v>
+      </c>
+      <c r="AC254">
+        <v>22182.0386</v>
+      </c>
     </row>
     <row r="255" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A255">
@@ -22555,6 +22987,78 @@
       <c r="E255">
         <v>6</v>
       </c>
+      <c r="F255">
+        <v>20941.890800000001</v>
+      </c>
+      <c r="G255">
+        <v>19819.163400000001</v>
+      </c>
+      <c r="H255">
+        <v>19171.599999999999</v>
+      </c>
+      <c r="I255">
+        <v>18921.511900000001</v>
+      </c>
+      <c r="J255">
+        <v>18897.492999999999</v>
+      </c>
+      <c r="K255">
+        <v>19321.903399999999</v>
+      </c>
+      <c r="L255">
+        <v>20118</v>
+      </c>
+      <c r="M255">
+        <v>21291.389899999998</v>
+      </c>
+      <c r="N255">
+        <v>23022.725999999999</v>
+      </c>
+      <c r="O255">
+        <v>24258</v>
+      </c>
+      <c r="P255">
+        <v>25150.898099999999</v>
+      </c>
+      <c r="Q255">
+        <v>25412.394100000001</v>
+      </c>
+      <c r="R255">
+        <v>24847.278900000001</v>
+      </c>
+      <c r="S255">
+        <v>24160.1492</v>
+      </c>
+      <c r="T255">
+        <v>24090.813300000002</v>
+      </c>
+      <c r="U255">
+        <v>23865.0664</v>
+      </c>
+      <c r="V255">
+        <v>24764.422399999999</v>
+      </c>
+      <c r="W255">
+        <v>27699.900399999999</v>
+      </c>
+      <c r="X255">
+        <v>27998.165799999999</v>
+      </c>
+      <c r="Y255">
+        <v>27327.771100000002</v>
+      </c>
+      <c r="Z255">
+        <v>26571.282800000001</v>
+      </c>
+      <c r="AA255">
+        <v>25525.551899999999</v>
+      </c>
+      <c r="AB255">
+        <v>24432.8246</v>
+      </c>
+      <c r="AC255">
+        <v>23011.8</v>
+      </c>
     </row>
     <row r="256" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A256">
@@ -22572,8 +23076,80 @@
       <c r="E256">
         <v>5</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F256">
+        <v>21694.524799999999</v>
+      </c>
+      <c r="G256">
+        <v>20654.494200000001</v>
+      </c>
+      <c r="H256">
+        <v>19925.258300000001</v>
+      </c>
+      <c r="I256">
+        <v>19471.6299</v>
+      </c>
+      <c r="J256">
+        <v>19324.522400000002</v>
+      </c>
+      <c r="K256">
+        <v>19438.3</v>
+      </c>
+      <c r="L256">
+        <v>19390.928400000001</v>
+      </c>
+      <c r="M256">
+        <v>19351.704000000002</v>
+      </c>
+      <c r="N256">
+        <v>20352.841400000001</v>
+      </c>
+      <c r="O256">
+        <v>21306.3</v>
+      </c>
+      <c r="P256">
+        <v>22163.4041</v>
+      </c>
+      <c r="Q256">
+        <v>22534</v>
+      </c>
+      <c r="R256">
+        <v>22382.1</v>
+      </c>
+      <c r="S256">
+        <v>21800.661899999999</v>
+      </c>
+      <c r="T256">
+        <v>21640.8374</v>
+      </c>
+      <c r="U256">
+        <v>21644.033500000001</v>
+      </c>
+      <c r="V256">
+        <v>22561.599999999999</v>
+      </c>
+      <c r="W256">
+        <v>25651.366999999998</v>
+      </c>
+      <c r="X256">
+        <v>26212.047299999998</v>
+      </c>
+      <c r="Y256">
+        <v>25915.3</v>
+      </c>
+      <c r="Z256">
+        <v>25392.863399999998</v>
+      </c>
+      <c r="AA256">
+        <v>24863.3</v>
+      </c>
+      <c r="AB256">
+        <v>23914.056400000001</v>
+      </c>
+      <c r="AC256">
+        <v>22545.017</v>
+      </c>
+    </row>
+    <row r="257" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>95</v>
       </c>
@@ -22589,8 +23165,80 @@
       <c r="E257">
         <v>6</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F257">
+        <v>21339.330600000001</v>
+      </c>
+      <c r="G257">
+        <v>20129.602599999998</v>
+      </c>
+      <c r="H257">
+        <v>19449.216700000001</v>
+      </c>
+      <c r="I257">
+        <v>19148.2156</v>
+      </c>
+      <c r="J257">
+        <v>19087.559099999999</v>
+      </c>
+      <c r="K257">
+        <v>19317.529600000002</v>
+      </c>
+      <c r="L257">
+        <v>19605.441900000002</v>
+      </c>
+      <c r="M257">
+        <v>20265.1198</v>
+      </c>
+      <c r="N257">
+        <v>21722.6</v>
+      </c>
+      <c r="O257">
+        <v>23326.142899999999</v>
+      </c>
+      <c r="P257">
+        <v>24608.820199999998</v>
+      </c>
+      <c r="Q257">
+        <v>25148.581200000001</v>
+      </c>
+      <c r="R257">
+        <v>24705.3</v>
+      </c>
+      <c r="S257">
+        <v>23865.3868</v>
+      </c>
+      <c r="T257">
+        <v>23541.3</v>
+      </c>
+      <c r="U257">
+        <v>23337.0337</v>
+      </c>
+      <c r="V257">
+        <v>24423.4231</v>
+      </c>
+      <c r="W257">
+        <v>26833.5687</v>
+      </c>
+      <c r="X257">
+        <v>27036.3</v>
+      </c>
+      <c r="Y257">
+        <v>26324.479599999999</v>
+      </c>
+      <c r="Z257">
+        <v>25653.007099999999</v>
+      </c>
+      <c r="AA257">
+        <v>24921.9247</v>
+      </c>
+      <c r="AB257">
+        <v>23846.311399999999</v>
+      </c>
+      <c r="AC257">
+        <v>22638.946599999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>95</v>
       </c>
@@ -22606,8 +23254,80 @@
       <c r="E258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F258">
+        <v>21316.2</v>
+      </c>
+      <c r="G258">
+        <v>20312.2</v>
+      </c>
+      <c r="H258">
+        <v>19580.293799999999</v>
+      </c>
+      <c r="I258">
+        <v>19155.644899999999</v>
+      </c>
+      <c r="J258">
+        <v>18930.2</v>
+      </c>
+      <c r="K258">
+        <v>19122.309799999999</v>
+      </c>
+      <c r="L258">
+        <v>18929.415199999999</v>
+      </c>
+      <c r="M258">
+        <v>18750.713400000001</v>
+      </c>
+      <c r="N258">
+        <v>19516.106599999999</v>
+      </c>
+      <c r="O258">
+        <v>20241.599999999999</v>
+      </c>
+      <c r="P258">
+        <v>21391.882600000001</v>
+      </c>
+      <c r="Q258">
+        <v>22156.379400000002</v>
+      </c>
+      <c r="R258">
+        <v>22075.7</v>
+      </c>
+      <c r="S258">
+        <v>21770.267800000001</v>
+      </c>
+      <c r="T258">
+        <v>21491.4944</v>
+      </c>
+      <c r="U258">
+        <v>21384.153200000001</v>
+      </c>
+      <c r="V258">
+        <v>22271.2824</v>
+      </c>
+      <c r="W258">
+        <v>25059.755399999998</v>
+      </c>
+      <c r="X258">
+        <v>25685.018199999999</v>
+      </c>
+      <c r="Y258">
+        <v>25413.1106</v>
+      </c>
+      <c r="Z258">
+        <v>25049.769199999999</v>
+      </c>
+      <c r="AA258">
+        <v>24573.0622</v>
+      </c>
+      <c r="AB258">
+        <v>23550.696499999998</v>
+      </c>
+      <c r="AC258">
+        <v>22040.252799999998</v>
+      </c>
+    </row>
+    <row r="259" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>95</v>
       </c>
@@ -22623,8 +23343,80 @@
       <c r="E259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F259">
+        <v>20339.7</v>
+      </c>
+      <c r="G259">
+        <v>18951.235700000001</v>
+      </c>
+      <c r="H259">
+        <v>18331.478599999999</v>
+      </c>
+      <c r="I259">
+        <v>18075.739099999999</v>
+      </c>
+      <c r="J259">
+        <v>18017</v>
+      </c>
+      <c r="K259">
+        <v>18474.1649</v>
+      </c>
+      <c r="L259">
+        <v>19459.8302</v>
+      </c>
+      <c r="M259">
+        <v>20927.217799999999</v>
+      </c>
+      <c r="N259">
+        <v>22843.312300000001</v>
+      </c>
+      <c r="O259">
+        <v>24210.0798</v>
+      </c>
+      <c r="P259">
+        <v>25019.1682</v>
+      </c>
+      <c r="Q259">
+        <v>25452.661100000001</v>
+      </c>
+      <c r="R259">
+        <v>25081.575799999999</v>
+      </c>
+      <c r="S259">
+        <v>24536.799999999999</v>
+      </c>
+      <c r="T259">
+        <v>24418.232800000002</v>
+      </c>
+      <c r="U259">
+        <v>24235.1</v>
+      </c>
+      <c r="V259">
+        <v>25005.9</v>
+      </c>
+      <c r="W259">
+        <v>28122.350699999999</v>
+      </c>
+      <c r="X259">
+        <v>28605.9908</v>
+      </c>
+      <c r="Y259">
+        <v>28054.9</v>
+      </c>
+      <c r="Z259">
+        <v>27368.052100000001</v>
+      </c>
+      <c r="AA259">
+        <v>26461.026099999999</v>
+      </c>
+      <c r="AB259">
+        <v>25236.2912</v>
+      </c>
+      <c r="AC259">
+        <v>23449.3891</v>
+      </c>
+    </row>
+    <row r="260" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>95</v>
       </c>
@@ -22640,8 +23432,80 @@
       <c r="E260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F260">
+        <v>21597.8</v>
+      </c>
+      <c r="G260">
+        <v>20465.684499999999</v>
+      </c>
+      <c r="H260">
+        <v>20002.099999999999</v>
+      </c>
+      <c r="I260">
+        <v>19724.3</v>
+      </c>
+      <c r="J260">
+        <v>19662.599999999999</v>
+      </c>
+      <c r="K260">
+        <v>20061.797999999999</v>
+      </c>
+      <c r="L260">
+        <v>20908.7052</v>
+      </c>
+      <c r="M260">
+        <v>22078.799999999999</v>
+      </c>
+      <c r="N260">
+        <v>23770.6</v>
+      </c>
+      <c r="O260">
+        <v>24564.8658</v>
+      </c>
+      <c r="P260">
+        <v>25247.897199999999</v>
+      </c>
+      <c r="Q260">
+        <v>25733.140200000002</v>
+      </c>
+      <c r="R260">
+        <v>25292.775900000001</v>
+      </c>
+      <c r="S260">
+        <v>24725.2304</v>
+      </c>
+      <c r="T260">
+        <v>24660.4162</v>
+      </c>
+      <c r="U260">
+        <v>24500.452099999999</v>
+      </c>
+      <c r="V260">
+        <v>25349.85</v>
+      </c>
+      <c r="W260">
+        <v>28382.556100000002</v>
+      </c>
+      <c r="X260">
+        <v>28894.5</v>
+      </c>
+      <c r="Y260">
+        <v>28324.766299999999</v>
+      </c>
+      <c r="Z260">
+        <v>27692.711899999998</v>
+      </c>
+      <c r="AA260">
+        <v>26708.799999999999</v>
+      </c>
+      <c r="AB260">
+        <v>25516.400000000001</v>
+      </c>
+      <c r="AC260">
+        <v>23739.8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>95</v>
       </c>
@@ -22657,8 +23521,80 @@
       <c r="E261">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F261">
+        <v>21904.7585</v>
+      </c>
+      <c r="G261">
+        <v>21030.6</v>
+      </c>
+      <c r="H261">
+        <v>20377.599999999999</v>
+      </c>
+      <c r="I261">
+        <v>20039.900000000001</v>
+      </c>
+      <c r="J261">
+        <v>19976.272400000002</v>
+      </c>
+      <c r="K261">
+        <v>20211.2</v>
+      </c>
+      <c r="L261">
+        <v>21139.1</v>
+      </c>
+      <c r="M261">
+        <v>22359.459800000001</v>
+      </c>
+      <c r="N261">
+        <v>23894.759300000002</v>
+      </c>
+      <c r="O261">
+        <v>25070.6</v>
+      </c>
+      <c r="P261">
+        <v>25738.3</v>
+      </c>
+      <c r="Q261">
+        <v>26259.9499</v>
+      </c>
+      <c r="R261">
+        <v>0</v>
+      </c>
+      <c r="S261">
+        <v>0</v>
+      </c>
+      <c r="T261">
+        <v>0</v>
+      </c>
+      <c r="U261">
+        <v>0</v>
+      </c>
+      <c r="V261">
+        <v>0</v>
+      </c>
+      <c r="W261">
+        <v>0</v>
+      </c>
+      <c r="X261">
+        <v>0</v>
+      </c>
+      <c r="Y261">
+        <v>0</v>
+      </c>
+      <c r="Z261">
+        <v>0</v>
+      </c>
+      <c r="AA261">
+        <v>0</v>
+      </c>
+      <c r="AB261">
+        <v>0</v>
+      </c>
+      <c r="AC261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>95</v>
       </c>
@@ -22675,7 +23611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>95</v>
       </c>
@@ -22692,7 +23628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>95</v>
       </c>
@@ -22709,7 +23645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>95</v>
       </c>
@@ -22726,7 +23662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>95</v>
       </c>
@@ -22743,7 +23679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>95</v>
       </c>
@@ -22760,7 +23696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>95</v>
       </c>
@@ -22777,7 +23713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>95</v>
       </c>
@@ -22794,7 +23730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>95</v>
       </c>
@@ -22811,7 +23747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>95</v>
       </c>
@@ -22828,7 +23764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>95</v>
       </c>

--- a/NRI_STLF_Data/LoadData/L_Manategh95.xlsx
+++ b/NRI_STLF_Data/LoadData/L_Manategh95.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hkarami\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\karami\temporary\New Folder\Works2\LoadData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="15480" windowHeight="11640"/>
+    <workbookView xWindow="120" yWindow="96" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -357,15 +357,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC366"/>
+  <dimension ref="A1:AE366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="F261" sqref="F261:AC261"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="F217" sqref="F217:AE217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>95</v>
       </c>
@@ -453,8 +453,14 @@
       <c r="AC1">
         <v>19728.939383999998</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD1">
+        <v>21668.899999999998</v>
+      </c>
+      <c r="AE1">
+        <v>18737.899999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>95</v>
       </c>
@@ -542,8 +548,14 @@
       <c r="AC2">
         <v>21173.645991999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD2">
+        <v>22590.999999999996</v>
+      </c>
+      <c r="AE2">
+        <v>18576.400000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>95</v>
       </c>
@@ -631,8 +643,14 @@
       <c r="AC3">
         <v>20595.971347999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD3">
+        <v>22169.600000000002</v>
+      </c>
+      <c r="AE3">
+        <v>18666.300000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>95</v>
       </c>
@@ -720,8 +738,14 @@
       <c r="AC4">
         <v>20653.145140000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD4">
+        <v>22400.3</v>
+      </c>
+      <c r="AE4">
+        <v>18727.799999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>95</v>
       </c>
@@ -809,8 +833,14 @@
       <c r="AC5">
         <v>21201.587244999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD5">
+        <v>23007.999999999996</v>
+      </c>
+      <c r="AE5">
+        <v>19377.600000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>95</v>
       </c>
@@ -898,8 +928,14 @@
       <c r="AC6">
         <v>21321.831246999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD6">
+        <v>22811.600000000006</v>
+      </c>
+      <c r="AE6">
+        <v>19099.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>95</v>
       </c>
@@ -987,8 +1023,14 @@
       <c r="AC7">
         <v>22128.565424</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7">
+        <v>24624.900000000005</v>
+      </c>
+      <c r="AE7">
+        <v>21219.200000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>95</v>
       </c>
@@ -1076,8 +1118,14 @@
       <c r="AC8">
         <v>22070.218820999995</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8">
+        <v>24204.899999999998</v>
+      </c>
+      <c r="AE8">
+        <v>22137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>95</v>
       </c>
@@ -1165,8 +1213,14 @@
       <c r="AC9">
         <v>22305.813705999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9">
+        <v>24455.9</v>
+      </c>
+      <c r="AE9">
+        <v>21759.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>95</v>
       </c>
@@ -1254,8 +1308,14 @@
       <c r="AC10">
         <v>22413.000000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10">
+        <v>24512.3</v>
+      </c>
+      <c r="AE10">
+        <v>21573.599999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>95</v>
       </c>
@@ -1343,8 +1403,14 @@
       <c r="AC11">
         <v>22304.911587999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11">
+        <v>24188.299999999996</v>
+      </c>
+      <c r="AE11">
+        <v>21702.800000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>95</v>
       </c>
@@ -1432,8 +1498,14 @@
       <c r="AC12">
         <v>21835.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12">
+        <v>23493.200000000001</v>
+      </c>
+      <c r="AE12">
+        <v>20365.399999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>95</v>
       </c>
@@ -1521,8 +1593,14 @@
       <c r="AC13">
         <v>20465.25793</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13">
+        <v>22092.400000000005</v>
+      </c>
+      <c r="AE13">
+        <v>17077.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>95</v>
       </c>
@@ -1610,8 +1688,14 @@
       <c r="AC14">
         <v>23179.237527999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14">
+        <v>26254.6</v>
+      </c>
+      <c r="AE14">
+        <v>23397.100000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>95</v>
       </c>
@@ -1699,8 +1783,14 @@
       <c r="AC15">
         <v>23562.690834999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15">
+        <v>26892.6</v>
+      </c>
+      <c r="AE15">
+        <v>23976.899999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>95</v>
       </c>
@@ -1788,8 +1878,14 @@
       <c r="AC16">
         <v>24001.699999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD16">
+        <v>27069.599999999999</v>
+      </c>
+      <c r="AE16">
+        <v>24915.200000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>95</v>
       </c>
@@ -1877,8 +1973,14 @@
       <c r="AC17">
         <v>24524.384669999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD17">
+        <v>27449.69999999999</v>
+      </c>
+      <c r="AE17">
+        <v>24943.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>95</v>
       </c>
@@ -1966,8 +2068,14 @@
       <c r="AC18">
         <v>24730.559643999994</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD18">
+        <v>27606.7</v>
+      </c>
+      <c r="AE18">
+        <v>25375.599999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>95</v>
       </c>
@@ -2055,8 +2163,14 @@
       <c r="AC19">
         <v>24626.887962000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD19">
+        <v>26928.7</v>
+      </c>
+      <c r="AE19">
+        <v>25100.799999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>95</v>
       </c>
@@ -2144,8 +2258,14 @@
       <c r="AC20">
         <v>24363.761657999996</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD20">
+        <v>26294.6</v>
+      </c>
+      <c r="AE20">
+        <v>22241.599999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>95</v>
       </c>
@@ -2233,8 +2353,14 @@
       <c r="AC21">
         <v>25849.431959999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD21">
+        <v>28507.9</v>
+      </c>
+      <c r="AE21">
+        <v>26234.000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>95</v>
       </c>
@@ -2322,8 +2448,14 @@
       <c r="AC22">
         <v>26218.158439000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD22">
+        <v>28916.9</v>
+      </c>
+      <c r="AE22">
+        <v>26858.899999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>95</v>
       </c>
@@ -2411,8 +2543,14 @@
       <c r="AC23">
         <v>26152.685648000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD23">
+        <v>28618.300000000003</v>
+      </c>
+      <c r="AE23">
+        <v>26599.899999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>95</v>
       </c>
@@ -2500,8 +2638,14 @@
       <c r="AC24">
         <v>25354.412716000006</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD24">
+        <v>28409</v>
+      </c>
+      <c r="AE24">
+        <v>26776.300000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>95</v>
       </c>
@@ -2589,8 +2733,14 @@
       <c r="AC25">
         <v>25391.985513999996</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD25">
+        <v>28033.300000000007</v>
+      </c>
+      <c r="AE25">
+        <v>26307.100000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>95</v>
       </c>
@@ -2678,8 +2828,14 @@
       <c r="AC26">
         <v>24466.269798000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD26">
+        <v>26697.1</v>
+      </c>
+      <c r="AE26">
+        <v>25681.399999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>95</v>
       </c>
@@ -2767,8 +2923,14 @@
       <c r="AC27">
         <v>23662.701847000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD27">
+        <v>25383.199999999997</v>
+      </c>
+      <c r="AE27">
+        <v>21720.499999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>95</v>
       </c>
@@ -2856,8 +3018,14 @@
       <c r="AC28">
         <v>25121.261025000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD28">
+        <v>27398.2</v>
+      </c>
+      <c r="AE28">
+        <v>25223.799999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>95</v>
       </c>
@@ -2945,8 +3113,14 @@
       <c r="AC29">
         <v>25487.479691999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD29">
+        <v>27993.7</v>
+      </c>
+      <c r="AE29">
+        <v>26043.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>95</v>
       </c>
@@ -3034,8 +3208,14 @@
       <c r="AC30">
         <v>26139.487607999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD30">
+        <v>28479.100000000002</v>
+      </c>
+      <c r="AE30">
+        <v>26142.000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>95</v>
       </c>
@@ -3123,8 +3303,14 @@
       <c r="AC31">
         <v>26008.168427999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD31">
+        <v>28520.6</v>
+      </c>
+      <c r="AE31">
+        <v>26239.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>95</v>
       </c>
@@ -3212,8 +3398,14 @@
       <c r="AC32">
         <v>26445.231646</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD32">
+        <v>28322.499999999996</v>
+      </c>
+      <c r="AE32">
+        <v>26547.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>95</v>
       </c>
@@ -3301,8 +3493,14 @@
       <c r="AC33">
         <v>25472.985553000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD33">
+        <v>26869.100000000002</v>
+      </c>
+      <c r="AE33">
+        <v>24511.800000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>95</v>
       </c>
@@ -3390,8 +3588,14 @@
       <c r="AC34">
         <v>26010.036407000003</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD34">
+        <v>27168.100000000002</v>
+      </c>
+      <c r="AE34">
+        <v>23212.499999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>95</v>
       </c>
@@ -3479,8 +3683,14 @@
       <c r="AC35">
         <v>27908.052193999993</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD35">
+        <v>30012.400000000001</v>
+      </c>
+      <c r="AE35">
+        <v>27985.500000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>95</v>
       </c>
@@ -3568,8 +3778,14 @@
       <c r="AC36">
         <v>28342.686490000004</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD36">
+        <v>30230.499999999996</v>
+      </c>
+      <c r="AE36">
+        <v>28603.099999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>95</v>
       </c>
@@ -3657,8 +3873,14 @@
       <c r="AC37">
         <v>28808.382213999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD37">
+        <v>31045.4</v>
+      </c>
+      <c r="AE37">
+        <v>29235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>95</v>
       </c>
@@ -3746,8 +3968,14 @@
       <c r="AC38">
         <v>29608.347815999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD38">
+        <v>31964.400000000005</v>
+      </c>
+      <c r="AE38">
+        <v>30325.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>95</v>
       </c>
@@ -3835,8 +4063,14 @@
       <c r="AC39">
         <v>30014.554076000004</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD39">
+        <v>32477.300000000003</v>
+      </c>
+      <c r="AE39">
+        <v>31305.600000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>95</v>
       </c>
@@ -3924,8 +4158,14 @@
       <c r="AC40">
         <v>29842.035822000005</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD40">
+        <v>31797.5</v>
+      </c>
+      <c r="AE40">
+        <v>31118.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>95</v>
       </c>
@@ -4013,8 +4253,14 @@
       <c r="AC41">
         <v>28616.440525000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD41">
+        <v>30158.7</v>
+      </c>
+      <c r="AE41">
+        <v>28174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>95</v>
       </c>
@@ -4102,8 +4348,14 @@
       <c r="AC42">
         <v>29193.052613</v>
       </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD42">
+        <v>31396.500000000004</v>
+      </c>
+      <c r="AE42">
+        <v>30516.499999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>95</v>
       </c>
@@ -4191,8 +4443,14 @@
       <c r="AC43">
         <v>29394.896386999993</v>
       </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD43">
+        <v>31122.800000000007</v>
+      </c>
+      <c r="AE43">
+        <v>29961.399999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>95</v>
       </c>
@@ -4280,8 +4538,14 @@
       <c r="AC44">
         <v>30245.888059000004</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD44">
+        <v>31857.699999999993</v>
+      </c>
+      <c r="AE44">
+        <v>30925.299999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>95</v>
       </c>
@@ -4369,8 +4633,14 @@
       <c r="AC45">
         <v>29989.008231999996</v>
       </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD45">
+        <v>32262.699999999993</v>
+      </c>
+      <c r="AE45">
+        <v>31594.499999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>95</v>
       </c>
@@ -4458,8 +4728,14 @@
       <c r="AC46">
         <v>30843.261235000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD46">
+        <v>32772.1</v>
+      </c>
+      <c r="AE46">
+        <v>31975.299999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>95</v>
       </c>
@@ -4547,8 +4823,14 @@
       <c r="AC47">
         <v>29644.651732000006</v>
       </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD47">
+        <v>30866.499999999989</v>
+      </c>
+      <c r="AE47">
+        <v>30002.500000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>95</v>
       </c>
@@ -4636,8 +4918,14 @@
       <c r="AC48">
         <v>28907.386269999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD48">
+        <v>30641.800000000003</v>
+      </c>
+      <c r="AE48">
+        <v>28233.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>95</v>
       </c>
@@ -4725,8 +5013,14 @@
       <c r="AC49">
         <v>31601.425827999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD49">
+        <v>33869.000000000007</v>
+      </c>
+      <c r="AE49">
+        <v>33038.100000000006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>95</v>
       </c>
@@ -4814,8 +5108,14 @@
       <c r="AC50">
         <v>31683.739249999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD50">
+        <v>34075.4</v>
+      </c>
+      <c r="AE50">
+        <v>33545.199999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>95</v>
       </c>
@@ -4903,8 +5203,14 @@
       <c r="AC51">
         <v>31382.637557000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD51">
+        <v>33582.899999999994</v>
+      </c>
+      <c r="AE51">
+        <v>33125.700000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>95</v>
       </c>
@@ -4992,8 +5298,14 @@
       <c r="AC52">
         <v>31084.894444000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD52">
+        <v>33073.699999999997</v>
+      </c>
+      <c r="AE52">
+        <v>33229.599999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>95</v>
       </c>
@@ -5081,8 +5393,14 @@
       <c r="AC53">
         <v>30458.818015999994</v>
       </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD53">
+        <v>32579.200000000001</v>
+      </c>
+      <c r="AE53">
+        <v>32094.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>95</v>
       </c>
@@ -5170,8 +5488,14 @@
       <c r="AC54">
         <v>30130.413668000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD54">
+        <v>31808.2</v>
+      </c>
+      <c r="AE54">
+        <v>31577.599999999991</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>95</v>
       </c>
@@ -5259,8 +5583,14 @@
       <c r="AC55">
         <v>28689.453251999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD55">
+        <v>31286.6</v>
+      </c>
+      <c r="AE55">
+        <v>28920.700000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>95</v>
       </c>
@@ -5348,8 +5678,14 @@
       <c r="AC56">
         <v>32344.099056000003</v>
       </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD56">
+        <v>34283.000000000007</v>
+      </c>
+      <c r="AE56">
+        <v>33904.200000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>95</v>
       </c>
@@ -5437,8 +5773,14 @@
       <c r="AC57">
         <v>32998.98272</v>
       </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD57">
+        <v>35414.299999999996</v>
+      </c>
+      <c r="AE57">
+        <v>34924</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>95</v>
       </c>
@@ -5526,8 +5868,14 @@
       <c r="AC58">
         <v>34293.686749999993</v>
       </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD58">
+        <v>36500.9</v>
+      </c>
+      <c r="AE58">
+        <v>36451.999999999993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>95</v>
       </c>
@@ -5615,8 +5963,14 @@
       <c r="AC59">
         <v>34826.001804</v>
       </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD59">
+        <v>37140.900000000009</v>
+      </c>
+      <c r="AE59">
+        <v>37878</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>95</v>
       </c>
@@ -5704,8 +6058,14 @@
       <c r="AC60">
         <v>35083.843520000009</v>
       </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD60">
+        <v>36896.700000000004</v>
+      </c>
+      <c r="AE60">
+        <v>38046.799999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>95</v>
       </c>
@@ -5793,8 +6153,14 @@
       <c r="AC61">
         <v>33662.567508</v>
       </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD61">
+        <v>35634.800000000003</v>
+      </c>
+      <c r="AE61">
+        <v>37074.400000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>95</v>
       </c>
@@ -5882,8 +6248,14 @@
       <c r="AC62">
         <v>32018.292931</v>
       </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD62">
+        <v>33329.600000000006</v>
+      </c>
+      <c r="AE62">
+        <v>32880.100000000006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>95</v>
       </c>
@@ -5971,8 +6343,14 @@
       <c r="AC63">
         <v>32183.944786999997</v>
       </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD63">
+        <v>34296.700000000004</v>
+      </c>
+      <c r="AE63">
+        <v>35349.699999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>95</v>
       </c>
@@ -6060,8 +6438,14 @@
       <c r="AC64">
         <v>31969.129717</v>
       </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD64">
+        <v>32961.800000000003</v>
+      </c>
+      <c r="AE64">
+        <v>31638.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>95</v>
       </c>
@@ -6149,8 +6533,14 @@
       <c r="AC65">
         <v>34074.653172000006</v>
       </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD65">
+        <v>35776.400000000001</v>
+      </c>
+      <c r="AE65">
+        <v>36014.600000000006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>95</v>
       </c>
@@ -6238,8 +6628,14 @@
       <c r="AC66">
         <v>34401.160221999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD66">
+        <v>36341.199999999997</v>
+      </c>
+      <c r="AE66">
+        <v>36643.699999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>95</v>
       </c>
@@ -6327,8 +6723,14 @@
       <c r="AC67">
         <v>33097.1</v>
       </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD67">
+        <v>34774.600000000006</v>
+      </c>
+      <c r="AE67">
+        <v>35599</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>95</v>
       </c>
@@ -6416,8 +6818,14 @@
       <c r="AC68">
         <v>32403.217527000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD68">
+        <v>33844.800000000003</v>
+      </c>
+      <c r="AE68">
+        <v>34066.700000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>95</v>
       </c>
@@ -6505,8 +6913,14 @@
       <c r="AC69">
         <v>32402.597731999998</v>
       </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD69">
+        <v>33261.700000000004</v>
+      </c>
+      <c r="AE69">
+        <v>31153.000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>95</v>
       </c>
@@ -6594,8 +7008,14 @@
       <c r="AC70">
         <v>35506.700000000012</v>
       </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD70">
+        <v>37193.799999999996</v>
+      </c>
+      <c r="AE70">
+        <v>37153.599999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>95</v>
       </c>
@@ -6683,8 +7103,14 @@
       <c r="AC71">
         <v>35897.885109000003</v>
       </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD71">
+        <v>37895.000000000007</v>
+      </c>
+      <c r="AE71">
+        <v>38683.000000000007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>95</v>
       </c>
@@ -6772,8 +7198,14 @@
       <c r="AC72">
         <v>35330.032776</v>
       </c>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD72">
+        <v>37036.399999999994</v>
+      </c>
+      <c r="AE72">
+        <v>38426.700000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>95</v>
       </c>
@@ -6861,8 +7293,14 @@
       <c r="AC73">
         <v>34530.53976</v>
       </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD73">
+        <v>36458.699999999997</v>
+      </c>
+      <c r="AE73">
+        <v>37720.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>95</v>
       </c>
@@ -6950,8 +7388,14 @@
       <c r="AC74">
         <v>33704.446604000004</v>
       </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD74">
+        <v>35496.700000000012</v>
+      </c>
+      <c r="AE74">
+        <v>36475</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>95</v>
       </c>
@@ -7039,8 +7483,14 @@
       <c r="AC75">
         <v>32609.084878000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD75">
+        <v>33841.599999999999</v>
+      </c>
+      <c r="AE75">
+        <v>35058.399999999994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>95</v>
       </c>
@@ -7128,8 +7578,14 @@
       <c r="AC76">
         <v>32117.753489999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD76">
+        <v>32910.100000000006</v>
+      </c>
+      <c r="AE76">
+        <v>31029.299999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>95</v>
       </c>
@@ -7217,8 +7673,14 @@
       <c r="AC77">
         <v>34747.700000000004</v>
       </c>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD77">
+        <v>35314.800000000003</v>
+      </c>
+      <c r="AE77">
+        <v>33515.000000000007</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>95</v>
       </c>
@@ -7306,8 +7768,14 @@
       <c r="AC78">
         <v>36644.513955999995</v>
       </c>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD78">
+        <v>38372.9</v>
+      </c>
+      <c r="AE78">
+        <v>39098.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>95</v>
       </c>
@@ -7395,8 +7863,14 @@
       <c r="AC79">
         <v>38093.4</v>
       </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD79">
+        <v>39664.999999999993</v>
+      </c>
+      <c r="AE79">
+        <v>40497.800000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>95</v>
       </c>
@@ -7484,8 +7958,14 @@
       <c r="AC80">
         <v>38470.667029000004</v>
       </c>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD80">
+        <v>40119</v>
+      </c>
+      <c r="AE80">
+        <v>39980.899999999994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>95</v>
       </c>
@@ -7573,8 +8053,14 @@
       <c r="AC81">
         <v>37294.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD81">
+        <v>39240.400000000001</v>
+      </c>
+      <c r="AE81">
+        <v>39586.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>95</v>
       </c>
@@ -7662,8 +8148,14 @@
       <c r="AC82">
         <v>36788.800000000003</v>
       </c>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD82">
+        <v>38407.700000000004</v>
+      </c>
+      <c r="AE82">
+        <v>38190.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>95</v>
       </c>
@@ -7751,8 +8243,14 @@
       <c r="AC83">
         <v>36446.825364999997</v>
       </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD83">
+        <v>37166.1</v>
+      </c>
+      <c r="AE83">
+        <v>35952.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>95</v>
       </c>
@@ -7840,8 +8338,14 @@
       <c r="AC84">
         <v>37512.341302000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD84">
+        <v>39435.80000000001</v>
+      </c>
+      <c r="AE84">
+        <v>40198.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>95</v>
       </c>
@@ -7929,8 +8433,14 @@
       <c r="AC85">
         <v>36429.918487999996</v>
       </c>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD85">
+        <v>38499.999999999993</v>
+      </c>
+      <c r="AE85">
+        <v>38912.300000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>95</v>
       </c>
@@ -8018,8 +8528,14 @@
       <c r="AC86">
         <v>35257.735570000004</v>
       </c>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD86">
+        <v>37321.799999999996</v>
+      </c>
+      <c r="AE86">
+        <v>37186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>95</v>
       </c>
@@ -8107,8 +8623,14 @@
       <c r="AC87">
         <v>36016.794624000002</v>
       </c>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD87">
+        <v>37779.199999999997</v>
+      </c>
+      <c r="AE87">
+        <v>37328.9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>95</v>
       </c>
@@ -8196,8 +8718,14 @@
       <c r="AC88">
         <v>36913.558548000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD88">
+        <v>38654.799999999996</v>
+      </c>
+      <c r="AE88">
+        <v>38217.800000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>95</v>
       </c>
@@ -8285,8 +8813,14 @@
       <c r="AC89">
         <v>36474.665505999998</v>
       </c>
-    </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD89">
+        <v>37894.600000000006</v>
+      </c>
+      <c r="AE89">
+        <v>37836.300000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>95</v>
       </c>
@@ -8374,8 +8908,14 @@
       <c r="AC90">
         <v>35731.304180000006</v>
       </c>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD90">
+        <v>36594.399999999994</v>
+      </c>
+      <c r="AE90">
+        <v>34659.399999999994</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>95</v>
       </c>
@@ -8463,8 +9003,14 @@
       <c r="AC91">
         <v>37733.716003000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD91">
+        <v>39577.80000000001</v>
+      </c>
+      <c r="AE91">
+        <v>39972.999999999993</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>95</v>
       </c>
@@ -8552,8 +9098,14 @@
       <c r="AC92">
         <v>38375.156176000011</v>
       </c>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD92">
+        <v>40192.600000000006</v>
+      </c>
+      <c r="AE92">
+        <v>40504.099999999991</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>95</v>
       </c>
@@ -8641,8 +9193,14 @@
       <c r="AC93">
         <v>38661.711744000007</v>
       </c>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD93">
+        <v>40343.5</v>
+      </c>
+      <c r="AE93">
+        <v>41029.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>95</v>
       </c>
@@ -8730,8 +9288,14 @@
       <c r="AC94">
         <v>38817.919791</v>
       </c>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD94">
+        <v>40351.5</v>
+      </c>
+      <c r="AE94">
+        <v>41334.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>95</v>
       </c>
@@ -8819,8 +9383,14 @@
       <c r="AC95">
         <v>39339.260812</v>
       </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD95">
+        <v>40938.800000000003</v>
+      </c>
+      <c r="AE95">
+        <v>41391.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8908,8 +9478,14 @@
       <c r="AC96">
         <v>38279.908803999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD96">
+        <v>39761.400000000009</v>
+      </c>
+      <c r="AE96">
+        <v>40518.200000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -8997,8 +9573,14 @@
       <c r="AC97">
         <v>37570.064809999996</v>
       </c>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD97">
+        <v>38622.6</v>
+      </c>
+      <c r="AE97">
+        <v>37217.699999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>95</v>
       </c>
@@ -9086,8 +9668,14 @@
       <c r="AC98">
         <v>39662.959092000005</v>
       </c>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD98">
+        <v>41525.399999999994</v>
+      </c>
+      <c r="AE98">
+        <v>41676</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>95</v>
       </c>
@@ -9175,8 +9763,14 @@
       <c r="AC99">
         <v>37715.352689999992</v>
       </c>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD99">
+        <v>40035.300000000003</v>
+      </c>
+      <c r="AE99">
+        <v>41728.599999999991</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>95</v>
       </c>
@@ -9264,8 +9858,14 @@
       <c r="AC100">
         <v>38452.039725000002</v>
       </c>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD100">
+        <v>39117</v>
+      </c>
+      <c r="AE100">
+        <v>36598.199999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>95</v>
       </c>
@@ -9353,8 +9953,14 @@
       <c r="AC101">
         <v>40169.265715999994</v>
       </c>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD101">
+        <v>42205.700000000004</v>
+      </c>
+      <c r="AE101">
+        <v>43575.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>95</v>
       </c>
@@ -9442,8 +10048,14 @@
       <c r="AC102">
         <v>41809.500000000007</v>
       </c>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD102">
+        <v>43152.80000000001</v>
+      </c>
+      <c r="AE102">
+        <v>44233.8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>95</v>
       </c>
@@ -9531,8 +10143,14 @@
       <c r="AC103">
         <v>41275.712585000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD103">
+        <v>42700.5</v>
+      </c>
+      <c r="AE103">
+        <v>43701.9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>95</v>
       </c>
@@ -9620,8 +10238,14 @@
       <c r="AC104">
         <v>40830.189611999995</v>
       </c>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD104">
+        <v>41662.5</v>
+      </c>
+      <c r="AE104">
+        <v>40926.799999999996</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>95</v>
       </c>
@@ -9709,8 +10333,14 @@
       <c r="AC105">
         <v>42366.9</v>
       </c>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD105">
+        <v>43829.30000000001</v>
+      </c>
+      <c r="AE105">
+        <v>45876</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>95</v>
       </c>
@@ -9798,8 +10428,14 @@
       <c r="AC106">
         <v>41330.257121999995</v>
       </c>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD106">
+        <v>42868.6</v>
+      </c>
+      <c r="AE106">
+        <v>43723.200000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>95</v>
       </c>
@@ -9887,8 +10523,14 @@
       <c r="AC107">
         <v>40630.535055000008</v>
       </c>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD107">
+        <v>42066.7</v>
+      </c>
+      <c r="AE107">
+        <v>42635.399999999994</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>95</v>
       </c>
@@ -9976,8 +10618,14 @@
       <c r="AC108">
         <v>39954.346633000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD108">
+        <v>42226.6</v>
+      </c>
+      <c r="AE108">
+        <v>42774.400000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>95</v>
       </c>
@@ -10065,8 +10713,14 @@
       <c r="AC109">
         <v>36632.300000000003</v>
       </c>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD109">
+        <v>37453.4</v>
+      </c>
+      <c r="AE109">
+        <v>36110.199999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>95</v>
       </c>
@@ -10154,8 +10808,14 @@
       <c r="AC110">
         <v>36969.411140000004</v>
       </c>
-    </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD110">
+        <v>37651.1</v>
+      </c>
+      <c r="AE110">
+        <v>37123.799999999996</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>95</v>
       </c>
@@ -10243,8 +10903,14 @@
       <c r="AC111">
         <v>38912.400000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD111">
+        <v>39428.199999999997</v>
+      </c>
+      <c r="AE111">
+        <v>37548.200000000004</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>95</v>
       </c>
@@ -10332,8 +10998,14 @@
       <c r="AC112">
         <v>41178.217936000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD112">
+        <v>42482.30000000001</v>
+      </c>
+      <c r="AE112">
+        <v>43968.100000000006</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>95</v>
       </c>
@@ -10421,8 +11093,14 @@
       <c r="AC113">
         <v>41334.434856999993</v>
       </c>
-    </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD113">
+        <v>42372</v>
+      </c>
+      <c r="AE113">
+        <v>43583.80000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>95</v>
       </c>
@@ -10510,8 +11188,14 @@
       <c r="AC114">
         <v>40781.9</v>
       </c>
-    </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD114">
+        <v>42304.2</v>
+      </c>
+      <c r="AE114">
+        <v>43610.600000000006</v>
+      </c>
+    </row>
+    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>95</v>
       </c>
@@ -10599,8 +11283,14 @@
       <c r="AC115">
         <v>39932.726800999997</v>
       </c>
-    </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD115">
+        <v>41892.600000000006</v>
+      </c>
+      <c r="AE115">
+        <v>43071.800000000017</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>95</v>
       </c>
@@ -10688,8 +11378,14 @@
       <c r="AC116">
         <v>39803.599999999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD116">
+        <v>41674.500000000007</v>
+      </c>
+      <c r="AE116">
+        <v>42657.099999999991</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>95</v>
       </c>
@@ -10777,8 +11473,14 @@
       <c r="AC117">
         <v>39582.302631999992</v>
       </c>
-    </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD117">
+        <v>41056.400000000001</v>
+      </c>
+      <c r="AE117">
+        <v>41796.800000000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>95</v>
       </c>
@@ -10866,8 +11568,14 @@
       <c r="AC118">
         <v>39366.954878000004</v>
       </c>
-    </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD118">
+        <v>39951.9</v>
+      </c>
+      <c r="AE118">
+        <v>38839.699999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>95</v>
       </c>
@@ -10955,8 +11663,14 @@
       <c r="AC119">
         <v>42149.618511000008</v>
       </c>
-    </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD119">
+        <v>43954.200000000004</v>
+      </c>
+      <c r="AE119">
+        <v>45021.499999999993</v>
+      </c>
+    </row>
+    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>95</v>
       </c>
@@ -11044,8 +11758,14 @@
       <c r="AC120">
         <v>42773.298610000005</v>
       </c>
-    </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD120">
+        <v>44232.7</v>
+      </c>
+      <c r="AE120">
+        <v>45777.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>95</v>
       </c>
@@ -11133,8 +11853,14 @@
       <c r="AC121">
         <v>42810.499999999993</v>
       </c>
-    </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD121">
+        <v>44439.200000000004</v>
+      </c>
+      <c r="AE121">
+        <v>46104.599999999991</v>
+      </c>
+    </row>
+    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>95</v>
       </c>
@@ -11222,8 +11948,14 @@
       <c r="AC122">
         <v>43629.150744999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD122">
+        <v>45217.200000000004</v>
+      </c>
+      <c r="AE122">
+        <v>46984.599999999991</v>
+      </c>
+    </row>
+    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>95</v>
       </c>
@@ -11311,8 +12043,14 @@
       <c r="AC123">
         <v>43621.7</v>
       </c>
-    </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD123">
+        <v>45132.1</v>
+      </c>
+      <c r="AE123">
+        <v>47228.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>95</v>
       </c>
@@ -11400,8 +12138,14 @@
       <c r="AC124">
         <v>42635.2402</v>
       </c>
-    </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD124">
+        <v>43876</v>
+      </c>
+      <c r="AE124">
+        <v>45909.599999999991</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>95</v>
       </c>
@@ -11489,8 +12233,14 @@
       <c r="AC125">
         <v>42148.7</v>
       </c>
-    </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD125">
+        <v>42244.9</v>
+      </c>
+      <c r="AE125">
+        <v>41688.6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>95</v>
       </c>
@@ -11578,8 +12328,14 @@
       <c r="AC126">
         <v>42825.015599999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD126">
+        <v>44387.799999999996</v>
+      </c>
+      <c r="AE126">
+        <v>46165.700000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>95</v>
       </c>
@@ -11667,8 +12423,14 @@
       <c r="AC127">
         <v>42104.743499999997</v>
       </c>
-    </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD127">
+        <v>43453.499999999985</v>
+      </c>
+      <c r="AE127">
+        <v>45283.9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>95</v>
       </c>
@@ -11756,8 +12518,14 @@
       <c r="AC128">
         <v>42265.5</v>
       </c>
-    </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD128">
+        <v>44012.9</v>
+      </c>
+      <c r="AE128">
+        <v>45066.1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>95</v>
       </c>
@@ -11845,8 +12613,14 @@
       <c r="AC129">
         <v>41561.164799999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD129">
+        <v>43581.8</v>
+      </c>
+      <c r="AE129">
+        <v>44922</v>
+      </c>
+    </row>
+    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>95</v>
       </c>
@@ -11934,8 +12708,14 @@
       <c r="AC130">
         <v>41000.397799999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD130">
+        <v>42646.100000000013</v>
+      </c>
+      <c r="AE130">
+        <v>44598.7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>95</v>
       </c>
@@ -12023,8 +12803,14 @@
       <c r="AC131">
         <v>39878.300000000003</v>
       </c>
-    </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD131">
+        <v>41579.400000000009</v>
+      </c>
+      <c r="AE131">
+        <v>42947.600000000013</v>
+      </c>
+    </row>
+    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>95</v>
       </c>
@@ -12112,8 +12898,14 @@
       <c r="AC132">
         <v>37281.0383</v>
       </c>
-    </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD132">
+        <v>38423.799999999996</v>
+      </c>
+      <c r="AE132">
+        <v>37768</v>
+      </c>
+    </row>
+    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>95</v>
       </c>
@@ -12201,8 +12993,14 @@
       <c r="AC133">
         <v>39660.782399999996</v>
       </c>
-    </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD133">
+        <v>40482.400000000001</v>
+      </c>
+      <c r="AE133">
+        <v>38893.199999999997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>95</v>
       </c>
@@ -12290,8 +13088,14 @@
       <c r="AC134">
         <v>41045.2382</v>
       </c>
-    </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD134">
+        <v>43184.4</v>
+      </c>
+      <c r="AE134">
+        <v>44120.3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>95</v>
       </c>
@@ -12379,8 +13183,14 @@
       <c r="AC135">
         <v>42155.722800000003</v>
       </c>
-    </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD135">
+        <v>44079.1</v>
+      </c>
+      <c r="AE135">
+        <v>44514.299999999988</v>
+      </c>
+    </row>
+    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>95</v>
       </c>
@@ -12468,8 +13278,14 @@
       <c r="AC136">
         <v>41551.9</v>
       </c>
-    </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD136">
+        <v>43458.599999999991</v>
+      </c>
+      <c r="AE136">
+        <v>44897.9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>95</v>
       </c>
@@ -12557,8 +13373,14 @@
       <c r="AC137">
         <v>41409.0164</v>
       </c>
-    </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD137">
+        <v>43368.69999999999</v>
+      </c>
+      <c r="AE137">
+        <v>44689.500000000007</v>
+      </c>
+    </row>
+    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>95</v>
       </c>
@@ -12646,8 +13468,14 @@
       <c r="AC138">
         <v>40410.693800000001</v>
       </c>
-    </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD138">
+        <v>42034.700000000004</v>
+      </c>
+      <c r="AE138">
+        <v>43076</v>
+      </c>
+    </row>
+    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>95</v>
       </c>
@@ -12735,8 +13563,14 @@
       <c r="AC139">
         <v>40024.548900000002</v>
       </c>
-    </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD139">
+        <v>41072.800000000003</v>
+      </c>
+      <c r="AE139">
+        <v>39526.499999999993</v>
+      </c>
+    </row>
+    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>95</v>
       </c>
@@ -12824,8 +13658,14 @@
       <c r="AC140">
         <v>42174.022599999997</v>
       </c>
-    </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD140">
+        <v>44166.000000000007</v>
+      </c>
+      <c r="AE140">
+        <v>45568.800000000003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>95</v>
       </c>
@@ -12913,8 +13753,14 @@
       <c r="AC141">
         <v>42080</v>
       </c>
-    </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD141">
+        <v>44303.8</v>
+      </c>
+      <c r="AE141">
+        <v>45621.899999999994</v>
+      </c>
+    </row>
+    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>95</v>
       </c>
@@ -13002,8 +13848,14 @@
       <c r="AC142">
         <v>42106.375899999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD142">
+        <v>44390.900000000009</v>
+      </c>
+      <c r="AE142">
+        <v>45580.100000000006</v>
+      </c>
+    </row>
+    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>95</v>
       </c>
@@ -13091,8 +13943,14 @@
       <c r="AC143">
         <v>42349.996099999997</v>
       </c>
-    </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD143">
+        <v>44407.199999999997</v>
+      </c>
+      <c r="AE143">
+        <v>45762.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>95</v>
       </c>
@@ -13180,8 +14038,14 @@
       <c r="AC144">
         <v>42372.044199999997</v>
       </c>
-    </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD144">
+        <v>44385.999999999985</v>
+      </c>
+      <c r="AE144">
+        <v>45867.8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>95</v>
       </c>
@@ -13269,8 +14133,14 @@
       <c r="AC145">
         <v>40966.876900000003</v>
       </c>
-    </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD145">
+        <v>43076.000000000007</v>
+      </c>
+      <c r="AE145">
+        <v>44391.8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>95</v>
       </c>
@@ -13358,8 +14228,14 @@
       <c r="AC146">
         <v>40588.800000000003</v>
       </c>
-    </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD146">
+        <v>41588.000000000007</v>
+      </c>
+      <c r="AE146">
+        <v>40893.799999999996</v>
+      </c>
+    </row>
+    <row r="147" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>95</v>
       </c>
@@ -13447,8 +14323,14 @@
       <c r="AC147">
         <v>42867.6247</v>
       </c>
-    </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD147">
+        <v>44919.4</v>
+      </c>
+      <c r="AE147">
+        <v>46308.9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>95</v>
       </c>
@@ -13536,8 +14418,14 @@
       <c r="AC148">
         <v>42818.859100000001</v>
       </c>
-    </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD148">
+        <v>44649.400000000009</v>
+      </c>
+      <c r="AE148">
+        <v>46362.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>95</v>
       </c>
@@ -13625,8 +14513,14 @@
       <c r="AC149">
         <v>42152.9</v>
       </c>
-    </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD149">
+        <v>44227.899999999994</v>
+      </c>
+      <c r="AE149">
+        <v>45944.400000000009</v>
+      </c>
+    </row>
+    <row r="150" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>95</v>
       </c>
@@ -13714,8 +14608,14 @@
       <c r="AC150">
         <v>41102.342100000002</v>
       </c>
-    </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD150">
+        <v>43248.900000000009</v>
+      </c>
+      <c r="AE150">
+        <v>44250.200000000012</v>
+      </c>
+    </row>
+    <row r="151" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>95</v>
       </c>
@@ -13803,8 +14703,14 @@
       <c r="AC151">
         <v>40634.699999999997</v>
       </c>
-    </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD151">
+        <v>42860.499999999993</v>
+      </c>
+      <c r="AE151">
+        <v>44041.900000000009</v>
+      </c>
+    </row>
+    <row r="152" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>95</v>
       </c>
@@ -13892,8 +14798,14 @@
       <c r="AC152">
         <v>39000.976799999997</v>
       </c>
-    </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD152">
+        <v>41366</v>
+      </c>
+      <c r="AE152">
+        <v>42344.899999999994</v>
+      </c>
+    </row>
+    <row r="153" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>95</v>
       </c>
@@ -13981,8 +14893,14 @@
       <c r="AC153">
         <v>38075.86</v>
       </c>
-    </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD153">
+        <v>39252.1</v>
+      </c>
+      <c r="AE153">
+        <v>38011.700000000004</v>
+      </c>
+    </row>
+    <row r="154" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>95</v>
       </c>
@@ -14070,8 +14988,14 @@
       <c r="AC154">
         <v>40023.510900000001</v>
       </c>
-    </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD154">
+        <v>42382.30000000001</v>
+      </c>
+      <c r="AE154">
+        <v>43679.399999999994</v>
+      </c>
+    </row>
+    <row r="155" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>95</v>
       </c>
@@ -14159,8 +15083,14 @@
       <c r="AC155">
         <v>39987.066400000003</v>
       </c>
-    </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD155">
+        <v>42234.5</v>
+      </c>
+      <c r="AE155">
+        <v>43392.499999999985</v>
+      </c>
+    </row>
+    <row r="156" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>95</v>
       </c>
@@ -14248,8 +15178,14 @@
       <c r="AC156">
         <v>39989.962599999999</v>
       </c>
-    </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD156">
+        <v>42313.9</v>
+      </c>
+      <c r="AE156">
+        <v>43262.099999999991</v>
+      </c>
+    </row>
+    <row r="157" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>95</v>
       </c>
@@ -14337,8 +15273,14 @@
       <c r="AC157">
         <v>39816.8603</v>
       </c>
-    </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD157">
+        <v>42065.000000000007</v>
+      </c>
+      <c r="AE157">
+        <v>43231.199999999997</v>
+      </c>
+    </row>
+    <row r="158" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>95</v>
       </c>
@@ -14426,8 +15368,14 @@
       <c r="AC158">
         <v>39181.198299999996</v>
       </c>
-    </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD158">
+        <v>41731.5</v>
+      </c>
+      <c r="AE158">
+        <v>42996.099999999991</v>
+      </c>
+    </row>
+    <row r="159" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>95</v>
       </c>
@@ -14515,8 +15463,14 @@
       <c r="AC159">
         <v>37753.188900000001</v>
       </c>
-    </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD159">
+        <v>40058.399999999994</v>
+      </c>
+      <c r="AE159">
+        <v>40865.199999999997</v>
+      </c>
+    </row>
+    <row r="160" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>95</v>
       </c>
@@ -14604,8 +15558,14 @@
       <c r="AC160">
         <v>37753.031000000003</v>
       </c>
-    </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD160">
+        <v>38541.200000000004</v>
+      </c>
+      <c r="AE160">
+        <v>37178.100000000006</v>
+      </c>
+    </row>
+    <row r="161" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>95</v>
       </c>
@@ -14693,8 +15653,14 @@
       <c r="AC161">
         <v>39884.179300000003</v>
       </c>
-    </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD161">
+        <v>42588.800000000003</v>
+      </c>
+      <c r="AE161">
+        <v>43601.099999999991</v>
+      </c>
+    </row>
+    <row r="162" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>95</v>
       </c>
@@ -14782,8 +15748,14 @@
       <c r="AC162">
         <v>40205.9</v>
       </c>
-    </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD162">
+        <v>42654</v>
+      </c>
+      <c r="AE162">
+        <v>44249.599999999991</v>
+      </c>
+    </row>
+    <row r="163" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>95</v>
       </c>
@@ -14871,8 +15843,14 @@
       <c r="AC163">
         <v>40395.580999999998</v>
       </c>
-    </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD163">
+        <v>43046.299999999996</v>
+      </c>
+      <c r="AE163">
+        <v>43684.599999999991</v>
+      </c>
+    </row>
+    <row r="164" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>95</v>
       </c>
@@ -14960,8 +15938,14 @@
       <c r="AC164">
         <v>40672.9</v>
       </c>
-    </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD164">
+        <v>43191.9</v>
+      </c>
+      <c r="AE164">
+        <v>43998.399999999994</v>
+      </c>
+    </row>
+    <row r="165" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>95</v>
       </c>
@@ -15049,8 +16033,14 @@
       <c r="AC165">
         <v>40564.724499999997</v>
       </c>
-    </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD165">
+        <v>43018.9</v>
+      </c>
+      <c r="AE165">
+        <v>44144.499999999993</v>
+      </c>
+    </row>
+    <row r="166" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>95</v>
       </c>
@@ -15138,8 +16128,14 @@
       <c r="AC166">
         <v>39682.9931</v>
       </c>
-    </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD166">
+        <v>41892.700000000004</v>
+      </c>
+      <c r="AE166">
+        <v>42205.599999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>95</v>
       </c>
@@ -15227,8 +16223,14 @@
       <c r="AC167">
         <v>37096.8554</v>
       </c>
-    </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD167">
+        <v>38208.499999999993</v>
+      </c>
+      <c r="AE167">
+        <v>36931.1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>95</v>
       </c>
@@ -15316,8 +16318,14 @@
       <c r="AC168">
         <v>39264.701399999998</v>
       </c>
-    </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD168">
+        <v>41962.000000000007</v>
+      </c>
+      <c r="AE168">
+        <v>42776.2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>95</v>
       </c>
@@ -15405,8 +16413,14 @@
       <c r="AC169">
         <v>39751.699999999997</v>
       </c>
-    </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD169">
+        <v>42496.799999999996</v>
+      </c>
+      <c r="AE169">
+        <v>42786.1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>95</v>
       </c>
@@ -15494,8 +16508,14 @@
       <c r="AC170">
         <v>39077.967700000001</v>
       </c>
-    </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD170">
+        <v>41918.799999999996</v>
+      </c>
+      <c r="AE170">
+        <v>42770.200000000012</v>
+      </c>
+    </row>
+    <row r="171" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>95</v>
       </c>
@@ -15583,8 +16603,14 @@
       <c r="AC171">
         <v>38777.858899999999</v>
       </c>
-    </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD171">
+        <v>41348.499999999993</v>
+      </c>
+      <c r="AE171">
+        <v>42350.100000000006</v>
+      </c>
+    </row>
+    <row r="172" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>95</v>
       </c>
@@ -15672,8 +16698,14 @@
       <c r="AC172">
         <v>36592.440799999997</v>
       </c>
-    </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD172">
+        <v>39462</v>
+      </c>
+      <c r="AE172">
+        <v>40433.699999999997</v>
+      </c>
+    </row>
+    <row r="173" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>95</v>
       </c>
@@ -15761,8 +16793,14 @@
       <c r="AC173">
         <v>34870.9</v>
       </c>
-    </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD173">
+        <v>37496.400000000001</v>
+      </c>
+      <c r="AE173">
+        <v>37241.69999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>95</v>
       </c>
@@ -15850,8 +16888,14 @@
       <c r="AC174">
         <v>34422.699999999997</v>
       </c>
-    </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD174">
+        <v>35823.599999999999</v>
+      </c>
+      <c r="AE174">
+        <v>33494</v>
+      </c>
+    </row>
+    <row r="175" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>95</v>
       </c>
@@ -15939,8 +16983,14 @@
       <c r="AC175">
         <v>36314.749400000001</v>
       </c>
-    </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD175">
+        <v>38850.800000000003</v>
+      </c>
+      <c r="AE175">
+        <v>39230.9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>95</v>
       </c>
@@ -16028,8 +17078,14 @@
       <c r="AC176">
         <v>36203.1852</v>
       </c>
-    </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD176">
+        <v>39002.5</v>
+      </c>
+      <c r="AE176">
+        <v>39326.899999999994</v>
+      </c>
+    </row>
+    <row r="177" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>95</v>
       </c>
@@ -16117,8 +17173,14 @@
       <c r="AC177">
         <v>34726.699999999997</v>
       </c>
-    </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD177">
+        <v>35999.9</v>
+      </c>
+      <c r="AE177">
+        <v>33874.400000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>95</v>
       </c>
@@ -16206,8 +17268,14 @@
       <c r="AC178">
         <v>35662.412700000001</v>
       </c>
-    </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD178">
+        <v>38152.9</v>
+      </c>
+      <c r="AE178">
+        <v>38081.69999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>95</v>
       </c>
@@ -16295,8 +17363,14 @@
       <c r="AC179">
         <v>35461.514199999998</v>
       </c>
-    </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD179">
+        <v>38436.300000000003</v>
+      </c>
+      <c r="AE179">
+        <v>38470.799999999996</v>
+      </c>
+    </row>
+    <row r="180" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>95</v>
       </c>
@@ -16384,8 +17458,14 @@
       <c r="AC180">
         <v>35241.566099999996</v>
       </c>
-    </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD180">
+        <v>37805.300000000003</v>
+      </c>
+      <c r="AE180">
+        <v>37340.900000000009</v>
+      </c>
+    </row>
+    <row r="181" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>95</v>
       </c>
@@ -16473,8 +17553,14 @@
       <c r="AC181">
         <v>34496.240299999998</v>
       </c>
-    </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD181">
+        <v>36082.699999999997</v>
+      </c>
+      <c r="AE181">
+        <v>34112.499999999993</v>
+      </c>
+    </row>
+    <row r="182" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>95</v>
       </c>
@@ -16562,8 +17648,14 @@
       <c r="AC182">
         <v>36082.204700000002</v>
       </c>
-    </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD182">
+        <v>38970.300000000003</v>
+      </c>
+      <c r="AE182">
+        <v>39062.1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>95</v>
       </c>
@@ -16651,8 +17743,14 @@
       <c r="AC183">
         <v>35226</v>
       </c>
-    </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD183">
+        <v>38130.400000000001</v>
+      </c>
+      <c r="AE183">
+        <v>38304.600000000006</v>
+      </c>
+    </row>
+    <row r="184" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>95</v>
       </c>
@@ -16740,8 +17838,14 @@
       <c r="AC184">
         <v>33586</v>
       </c>
-    </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD184">
+        <v>36944.700000000004</v>
+      </c>
+      <c r="AE184">
+        <v>37299.000000000007</v>
+      </c>
+    </row>
+    <row r="185" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>95</v>
       </c>
@@ -16829,8 +17933,14 @@
       <c r="AC185">
         <v>32851.955499999996</v>
       </c>
-    </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD185">
+        <v>34831.1</v>
+      </c>
+      <c r="AE185">
+        <v>32859.300000000003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>95</v>
       </c>
@@ -16918,8 +18028,14 @@
       <c r="AC186">
         <v>33012.006999999998</v>
       </c>
-    </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD186">
+        <v>37205.600000000006</v>
+      </c>
+      <c r="AE186">
+        <v>37049.600000000006</v>
+      </c>
+    </row>
+    <row r="187" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>95</v>
       </c>
@@ -17007,8 +18123,14 @@
       <c r="AC187">
         <v>32500.455900000001</v>
       </c>
-    </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD187">
+        <v>36254.5</v>
+      </c>
+      <c r="AE187">
+        <v>35938.400000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>95</v>
       </c>
@@ -17096,8 +18218,14 @@
       <c r="AC188">
         <v>31735.338199999998</v>
       </c>
-    </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD188">
+        <v>34706.300000000003</v>
+      </c>
+      <c r="AE188">
+        <v>32639.300000000003</v>
+      </c>
+    </row>
+    <row r="189" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>95</v>
       </c>
@@ -17185,8 +18313,14 @@
       <c r="AC189">
         <v>32760.2716</v>
       </c>
-    </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD189">
+        <v>37278</v>
+      </c>
+      <c r="AE189">
+        <v>37188.9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>95</v>
       </c>
@@ -17274,8 +18408,14 @@
       <c r="AC190">
         <v>31569.503499999999</v>
       </c>
-    </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD190">
+        <v>36242.799999999996</v>
+      </c>
+      <c r="AE190">
+        <v>35906.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>95</v>
       </c>
@@ -17363,8 +18503,14 @@
       <c r="AC191">
         <v>32284.125100000001</v>
       </c>
-    </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD191">
+        <v>36556.6</v>
+      </c>
+      <c r="AE191">
+        <v>35677.4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>95</v>
       </c>
@@ -17452,8 +18598,14 @@
       <c r="AC192">
         <v>32330.4211</v>
       </c>
-    </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD192">
+        <v>36766.6</v>
+      </c>
+      <c r="AE192">
+        <v>35938</v>
+      </c>
+    </row>
+    <row r="193" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>95</v>
       </c>
@@ -17541,8 +18693,14 @@
       <c r="AC193">
         <v>32349.2932</v>
       </c>
-    </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD193">
+        <v>36742.6</v>
+      </c>
+      <c r="AE193">
+        <v>36044.6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>95</v>
       </c>
@@ -17630,8 +18788,14 @@
       <c r="AC194">
         <v>29889.208999999999</v>
       </c>
-    </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD194">
+        <v>33442.299999999996</v>
+      </c>
+      <c r="AE194">
+        <v>33672.299999999996</v>
+      </c>
+    </row>
+    <row r="195" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>95</v>
       </c>
@@ -17719,8 +18883,14 @@
       <c r="AC195">
         <v>28247.7065</v>
       </c>
-    </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD195">
+        <v>30747</v>
+      </c>
+      <c r="AE195">
+        <v>28015.200000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>95</v>
       </c>
@@ -17808,8 +18978,14 @@
       <c r="AC196">
         <v>28678.219499999999</v>
       </c>
-    </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD196">
+        <v>32981.900000000009</v>
+      </c>
+      <c r="AE196">
+        <v>30893.200000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>95</v>
       </c>
@@ -17897,8 +19073,14 @@
       <c r="AC197">
         <v>28701.6247</v>
       </c>
-    </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD197">
+        <v>32523.799999999996</v>
+      </c>
+      <c r="AE197">
+        <v>29998.600000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>95</v>
       </c>
@@ -17986,8 +19168,14 @@
       <c r="AC198">
         <v>28791.179</v>
       </c>
-    </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD198">
+        <v>32994.9</v>
+      </c>
+      <c r="AE198">
+        <v>30300.500000000004</v>
+      </c>
+    </row>
+    <row r="199" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>95</v>
       </c>
@@ -18075,8 +19263,14 @@
       <c r="AC199">
         <v>29036.813300000002</v>
       </c>
-    </row>
-    <row r="200" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD199">
+        <v>33195.000000000007</v>
+      </c>
+      <c r="AE199">
+        <v>30941.699999999993</v>
+      </c>
+    </row>
+    <row r="200" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>95</v>
       </c>
@@ -18164,8 +19358,14 @@
       <c r="AC200">
         <v>29243.831200000001</v>
       </c>
-    </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD200">
+        <v>33219.4</v>
+      </c>
+      <c r="AE200">
+        <v>31014.600000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>95</v>
       </c>
@@ -18253,8 +19453,14 @@
       <c r="AC201">
         <v>28803.798599999998</v>
       </c>
-    </row>
-    <row r="202" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD201">
+        <v>32392.2</v>
+      </c>
+      <c r="AE201">
+        <v>30777.499999999993</v>
+      </c>
+    </row>
+    <row r="202" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>95</v>
       </c>
@@ -18342,8 +19548,14 @@
       <c r="AC202">
         <v>28310.8783</v>
       </c>
-    </row>
-    <row r="203" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD202">
+        <v>30726.599999999995</v>
+      </c>
+      <c r="AE202">
+        <v>27862</v>
+      </c>
+    </row>
+    <row r="203" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>95</v>
       </c>
@@ -18431,8 +19643,14 @@
       <c r="AC203">
         <v>29499.5</v>
       </c>
-    </row>
-    <row r="204" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD203">
+        <v>33564.199999999997</v>
+      </c>
+      <c r="AE203">
+        <v>31714.599999999995</v>
+      </c>
+    </row>
+    <row r="204" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>95</v>
       </c>
@@ -18520,8 +19738,14 @@
       <c r="AC204">
         <v>29072.5314</v>
       </c>
-    </row>
-    <row r="205" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD204">
+        <v>33279.599999999999</v>
+      </c>
+      <c r="AE204">
+        <v>31835.200000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>95</v>
       </c>
@@ -18609,8 +19833,14 @@
       <c r="AC205">
         <v>27238.691699999999</v>
       </c>
-    </row>
-    <row r="206" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD205">
+        <v>31264.3</v>
+      </c>
+      <c r="AE205">
+        <v>30486.700000000004</v>
+      </c>
+    </row>
+    <row r="206" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>95</v>
       </c>
@@ -18698,8 +19928,14 @@
       <c r="AC206">
         <v>23768.3518</v>
       </c>
-    </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD206">
+        <v>26020.800000000003</v>
+      </c>
+      <c r="AE206">
+        <v>23114.900000000005</v>
+      </c>
+    </row>
+    <row r="207" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>95</v>
       </c>
@@ -18787,8 +20023,14 @@
       <c r="AC207">
         <v>24317.125800000002</v>
       </c>
-    </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD207">
+        <v>25252.7</v>
+      </c>
+      <c r="AE207">
+        <v>21045.299999999996</v>
+      </c>
+    </row>
+    <row r="208" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>95</v>
       </c>
@@ -18876,8 +20118,14 @@
       <c r="AC208">
         <v>26727.600399999999</v>
       </c>
-    </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD208">
+        <v>30311.300000000003</v>
+      </c>
+      <c r="AE208">
+        <v>27122.799999999996</v>
+      </c>
+    </row>
+    <row r="209" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>95</v>
       </c>
@@ -18965,8 +20213,14 @@
       <c r="AC209">
         <v>26976.880000000001</v>
       </c>
-    </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD209">
+        <v>29813.299999999992</v>
+      </c>
+      <c r="AE209">
+        <v>25670.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>95</v>
       </c>
@@ -19054,8 +20308,14 @@
       <c r="AC210">
         <v>27290.116600000001</v>
       </c>
-    </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD210">
+        <v>32648.100000000002</v>
+      </c>
+      <c r="AE210">
+        <v>29410.600000000002</v>
+      </c>
+    </row>
+    <row r="211" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>95</v>
       </c>
@@ -19143,8 +20403,14 @@
       <c r="AC211">
         <v>27533.643700000001</v>
       </c>
-    </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD211">
+        <v>31657.199999999997</v>
+      </c>
+      <c r="AE211">
+        <v>29372.400000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>95</v>
       </c>
@@ -19232,8 +20498,14 @@
       <c r="AC212">
         <v>27547.636999999999</v>
       </c>
-    </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD212">
+        <v>31626.3</v>
+      </c>
+      <c r="AE212">
+        <v>29158.300000000003</v>
+      </c>
+    </row>
+    <row r="213" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>95</v>
       </c>
@@ -19321,8 +20593,14 @@
       <c r="AC213">
         <v>27475.076400000002</v>
       </c>
-    </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD213">
+        <v>31646.100000000002</v>
+      </c>
+      <c r="AE213">
+        <v>28993.599999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>95</v>
       </c>
@@ -19410,8 +20688,14 @@
       <c r="AC214">
         <v>27506.6</v>
       </c>
-    </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD214">
+        <v>31459.5</v>
+      </c>
+      <c r="AE214">
+        <v>28878.6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>95</v>
       </c>
@@ -19499,8 +20783,14 @@
       <c r="AC215">
         <v>26517.9257</v>
       </c>
-    </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD215">
+        <v>30447.000000000007</v>
+      </c>
+      <c r="AE215">
+        <v>28628.1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>95</v>
       </c>
@@ -19588,8 +20878,14 @@
       <c r="AC216">
         <v>25548.008999999998</v>
       </c>
-    </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD216">
+        <v>28351.999999999996</v>
+      </c>
+      <c r="AE216">
+        <v>24779.100000000002</v>
+      </c>
+    </row>
+    <row r="217" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>95</v>
       </c>
@@ -19606,10 +20902,10 @@
         <v>1</v>
       </c>
       <c r="F217">
-        <v>23768.411100000001</v>
+        <v>23768.411101999998</v>
       </c>
       <c r="G217">
-        <v>22610.047299999998</v>
+        <v>22610.047314000003</v>
       </c>
       <c r="H217">
         <v>21893</v>
@@ -19618,67 +20914,73 @@
         <v>21458.2</v>
       </c>
       <c r="J217">
-        <v>21248.509699999999</v>
+        <v>21248.509743000002</v>
       </c>
       <c r="K217">
-        <v>21143.3858</v>
+        <v>21143.385783999998</v>
       </c>
       <c r="L217">
-        <v>21267.4329</v>
+        <v>21267.432872000009</v>
       </c>
       <c r="M217">
-        <v>22703.200000000001</v>
+        <v>22703.199999999997</v>
       </c>
       <c r="N217">
-        <v>24986.4925</v>
+        <v>24986.492484000002</v>
       </c>
       <c r="O217">
-        <v>26421.7837</v>
+        <v>26421.783727999999</v>
       </c>
       <c r="P217">
-        <v>27510.291799999999</v>
+        <v>27510.291755999999</v>
       </c>
       <c r="Q217">
-        <v>28277.117900000001</v>
+        <v>28277.117892000002</v>
       </c>
       <c r="R217">
-        <v>28127.3897</v>
+        <v>28127.389689999996</v>
       </c>
       <c r="S217">
-        <v>27993.812399999999</v>
+        <v>27993.812435999997</v>
       </c>
       <c r="T217">
-        <v>28146.784299999999</v>
+        <v>28146.784324000004</v>
       </c>
       <c r="U217">
-        <v>27673.621899999998</v>
+        <v>27673.621900000002</v>
       </c>
       <c r="V217">
-        <v>27487.201400000002</v>
+        <v>27487.201405999993</v>
       </c>
       <c r="W217">
-        <v>29290.970300000001</v>
+        <v>29290.970342000001</v>
       </c>
       <c r="X217">
-        <v>31051.659899999999</v>
+        <v>31051.659863999997</v>
       </c>
       <c r="Y217">
-        <v>30736.3472</v>
+        <v>30736.34721</v>
       </c>
       <c r="Z217">
-        <v>30209.317899999998</v>
+        <v>30209.317866999998</v>
       </c>
       <c r="AA217">
-        <v>29421.8</v>
+        <v>29421.800000000003</v>
       </c>
       <c r="AB217">
-        <v>28473.921600000001</v>
+        <v>28473.921627</v>
       </c>
       <c r="AC217">
-        <v>26996.284599999999</v>
-      </c>
-    </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.2">
+        <v>26996.284586999998</v>
+      </c>
+      <c r="AD217">
+        <v>31043.8</v>
+      </c>
+      <c r="AE217">
+        <v>28330.299999999996</v>
+      </c>
+    </row>
+    <row r="218" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>95</v>
       </c>
@@ -19766,8 +21068,14 @@
       <c r="AC218">
         <v>26966.262500000001</v>
       </c>
-    </row>
-    <row r="219" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD218">
+        <v>30989.700000000004</v>
+      </c>
+      <c r="AE218">
+        <v>28205.1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>95</v>
       </c>
@@ -19855,8 +21163,14 @@
       <c r="AC219">
         <v>26761.8413</v>
       </c>
-    </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD219">
+        <v>31273.699999999997</v>
+      </c>
+      <c r="AE219">
+        <v>27820.7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>95</v>
       </c>
@@ -19944,8 +21258,14 @@
       <c r="AC220">
         <v>26941.4846</v>
       </c>
-    </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD220">
+        <v>31260.400000000001</v>
+      </c>
+      <c r="AE220">
+        <v>28327.200000000008</v>
+      </c>
+    </row>
+    <row r="221" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>95</v>
       </c>
@@ -20033,8 +21353,14 @@
       <c r="AC221">
         <v>27019.2405</v>
       </c>
-    </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD221">
+        <v>30823.499999999996</v>
+      </c>
+      <c r="AE221">
+        <v>28534.100000000002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>95</v>
       </c>
@@ -20122,8 +21448,14 @@
       <c r="AC222">
         <v>26360.365000000002</v>
       </c>
-    </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD222">
+        <v>30023.799999999996</v>
+      </c>
+      <c r="AE222">
+        <v>28122.899999999998</v>
+      </c>
+    </row>
+    <row r="223" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>95</v>
       </c>
@@ -20140,79 +21472,85 @@
         <v>1</v>
       </c>
       <c r="F223">
-        <v>24944.707900000001</v>
+        <v>24811.007861999995</v>
       </c>
       <c r="G223">
-        <v>23819.178400000001</v>
+        <v>23519.278399999996</v>
       </c>
       <c r="H223">
-        <v>23114.846300000001</v>
+        <v>22723.346250999995</v>
       </c>
       <c r="I223">
-        <v>22620.212</v>
+        <v>22157.212012000011</v>
       </c>
       <c r="J223">
-        <v>22335.8</v>
+        <v>21849.700000000004</v>
       </c>
       <c r="K223">
-        <v>21993.516599999999</v>
+        <v>21508.816645999999</v>
       </c>
       <c r="L223">
-        <v>21085.7</v>
+        <v>20604.799999999996</v>
       </c>
       <c r="M223">
-        <v>20970.8</v>
+        <v>20492.7</v>
       </c>
       <c r="N223">
-        <v>21816.731500000002</v>
+        <v>21342.631518000002</v>
       </c>
       <c r="O223">
-        <v>22703.4211</v>
+        <v>22449.921127000001</v>
       </c>
       <c r="P223">
-        <v>23620.340100000001</v>
+        <v>23541.140052000002</v>
       </c>
       <c r="Q223">
-        <v>24225.5026</v>
+        <v>24225.502591999997</v>
       </c>
       <c r="R223">
-        <v>24388.981800000001</v>
+        <v>24388.981771999996</v>
       </c>
       <c r="S223">
         <v>24267.200000000001</v>
       </c>
       <c r="T223">
-        <v>23921.126100000001</v>
+        <v>23921.126076000004</v>
       </c>
       <c r="U223">
-        <v>23696.7</v>
+        <v>23696.699999999997</v>
       </c>
       <c r="V223">
-        <v>23882.536599999999</v>
+        <v>23882.536568</v>
       </c>
       <c r="W223">
-        <v>26394</v>
+        <v>26392.6</v>
       </c>
       <c r="X223">
-        <v>28021.050200000001</v>
+        <v>28021.05024</v>
       </c>
       <c r="Y223">
-        <v>28044.0929</v>
+        <v>28044.092896000002</v>
       </c>
       <c r="Z223">
-        <v>27780.511600000002</v>
+        <v>27780.511573000003</v>
       </c>
       <c r="AA223">
-        <v>27420.002</v>
+        <v>27420.001995999999</v>
       </c>
       <c r="AB223">
-        <v>26700.986199999999</v>
+        <v>26700.986190000003</v>
       </c>
       <c r="AC223">
-        <v>25301.520199999999</v>
-      </c>
-    </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.2">
+        <v>25301.520171</v>
+      </c>
+      <c r="AD223">
+        <v>28177.600000000002</v>
+      </c>
+      <c r="AE223">
+        <v>24391.599999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>95</v>
       </c>
@@ -20300,8 +21638,14 @@
       <c r="AC224">
         <v>26484.174500000001</v>
       </c>
-    </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD224">
+        <v>31075.600000000002</v>
+      </c>
+      <c r="AE224">
+        <v>28527.399999999994</v>
+      </c>
+    </row>
+    <row r="225" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>95</v>
       </c>
@@ -20389,8 +21733,14 @@
       <c r="AC225">
         <v>26336.067500000001</v>
       </c>
-    </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD225">
+        <v>30992.2</v>
+      </c>
+      <c r="AE225">
+        <v>28136.900000000005</v>
+      </c>
+    </row>
+    <row r="226" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>95</v>
       </c>
@@ -20478,8 +21828,14 @@
       <c r="AC226">
         <v>26433.539199999999</v>
       </c>
-    </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD226">
+        <v>30766.700000000004</v>
+      </c>
+      <c r="AE226">
+        <v>27991.699999999997</v>
+      </c>
+    </row>
+    <row r="227" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>95</v>
       </c>
@@ -20567,8 +21923,14 @@
       <c r="AC227">
         <v>26885.016299999999</v>
       </c>
-    </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD227">
+        <v>31136.299999999996</v>
+      </c>
+      <c r="AE227">
+        <v>28156.6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>95</v>
       </c>
@@ -20656,8 +22018,14 @@
       <c r="AC228">
         <v>25551.895700000001</v>
       </c>
-    </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD228">
+        <v>30432.400000000001</v>
+      </c>
+      <c r="AE228">
+        <v>28490.3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>95</v>
       </c>
@@ -20745,8 +22113,14 @@
       <c r="AC229">
         <v>24738.037499999999</v>
       </c>
-    </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD229">
+        <v>29083.9</v>
+      </c>
+      <c r="AE229">
+        <v>26883</v>
+      </c>
+    </row>
+    <row r="230" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>95</v>
       </c>
@@ -20834,8 +22208,14 @@
       <c r="AC230">
         <v>23548.079099999999</v>
       </c>
-    </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD230">
+        <v>26786.399999999998</v>
+      </c>
+      <c r="AE230">
+        <v>23093.9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>95</v>
       </c>
@@ -20923,8 +22303,14 @@
       <c r="AC231">
         <v>25348.400000000001</v>
       </c>
-    </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD231">
+        <v>30006.799999999999</v>
+      </c>
+      <c r="AE231">
+        <v>26818.999999999996</v>
+      </c>
+    </row>
+    <row r="232" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>95</v>
       </c>
@@ -21012,8 +22398,14 @@
       <c r="AC232">
         <v>24831.248899999999</v>
       </c>
-    </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD232">
+        <v>29988.300000000003</v>
+      </c>
+      <c r="AE232">
+        <v>27196.6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>95</v>
       </c>
@@ -21101,8 +22493,14 @@
       <c r="AC233">
         <v>24495.523700000002</v>
       </c>
-    </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD233">
+        <v>29901.1</v>
+      </c>
+      <c r="AE233">
+        <v>27065.400000000005</v>
+      </c>
+    </row>
+    <row r="234" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>95</v>
       </c>
@@ -21190,8 +22588,14 @@
       <c r="AC234">
         <v>24464.922900000001</v>
       </c>
-    </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD234">
+        <v>29556.700000000004</v>
+      </c>
+      <c r="AE234">
+        <v>26778.300000000007</v>
+      </c>
+    </row>
+    <row r="235" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>95</v>
       </c>
@@ -21279,8 +22683,14 @@
       <c r="AC235">
         <v>24240.891</v>
       </c>
-    </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD235">
+        <v>29611.8</v>
+      </c>
+      <c r="AE235">
+        <v>26676.300000000003</v>
+      </c>
+    </row>
+    <row r="236" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>95</v>
       </c>
@@ -21368,8 +22778,14 @@
       <c r="AC236">
         <v>23844.1</v>
       </c>
-    </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD236">
+        <v>28438.400000000001</v>
+      </c>
+      <c r="AE236">
+        <v>26234.200000000004</v>
+      </c>
+    </row>
+    <row r="237" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>95</v>
       </c>
@@ -21457,8 +22873,14 @@
       <c r="AC237">
         <v>22775.1</v>
       </c>
-    </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD237">
+        <v>26423.7</v>
+      </c>
+      <c r="AE237">
+        <v>22502.699999999997</v>
+      </c>
+    </row>
+    <row r="238" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>95</v>
       </c>
@@ -21546,8 +22968,14 @@
       <c r="AC238">
         <v>24361.4699</v>
       </c>
-    </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD238">
+        <v>29520.6</v>
+      </c>
+      <c r="AE238">
+        <v>26431.800000000007</v>
+      </c>
+    </row>
+    <row r="239" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>95</v>
       </c>
@@ -21635,8 +23063,14 @@
       <c r="AC239">
         <v>23874.7075</v>
       </c>
-    </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD239">
+        <v>29268.200000000004</v>
+      </c>
+      <c r="AE239">
+        <v>26366.799999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>95</v>
       </c>
@@ -21724,8 +23158,14 @@
       <c r="AC240">
         <v>24156.6</v>
       </c>
-    </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD240">
+        <v>29558.1</v>
+      </c>
+      <c r="AE240">
+        <v>26519.8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>95</v>
       </c>
@@ -21813,8 +23253,14 @@
       <c r="AC241">
         <v>23972.6751</v>
       </c>
-    </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD241">
+        <v>29697.600000000002</v>
+      </c>
+      <c r="AE241">
+        <v>26808.800000000003</v>
+      </c>
+    </row>
+    <row r="242" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>95</v>
       </c>
@@ -21902,8 +23348,14 @@
       <c r="AC242">
         <v>24093.334299999999</v>
       </c>
-    </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD242">
+        <v>29225.7</v>
+      </c>
+      <c r="AE242">
+        <v>26703.899999999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>95</v>
       </c>
@@ -21991,8 +23443,14 @@
       <c r="AC243">
         <v>23629.361499999999</v>
       </c>
-    </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD243">
+        <v>28226.799999999996</v>
+      </c>
+      <c r="AE243">
+        <v>26162.100000000002</v>
+      </c>
+    </row>
+    <row r="244" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>95</v>
       </c>
@@ -22080,8 +23538,14 @@
       <c r="AC244">
         <v>22891.8766</v>
       </c>
-    </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD244">
+        <v>26540.884649000003</v>
+      </c>
+      <c r="AE244">
+        <v>23102.600000000002</v>
+      </c>
+    </row>
+    <row r="245" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>95</v>
       </c>
@@ -22169,8 +23633,14 @@
       <c r="AC245">
         <v>23500.7</v>
       </c>
-    </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD245">
+        <v>28373.7</v>
+      </c>
+      <c r="AE245">
+        <v>25804.05948</v>
+      </c>
+    </row>
+    <row r="246" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>95</v>
       </c>
@@ -22258,8 +23728,14 @@
       <c r="AC246">
         <v>22477.361400000002</v>
       </c>
-    </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD246">
+        <v>25787.300000000003</v>
+      </c>
+      <c r="AE246">
+        <v>21710.039691999991</v>
+      </c>
+    </row>
+    <row r="247" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>95</v>
       </c>
@@ -22347,8 +23823,14 @@
       <c r="AC247">
         <v>23429.627199999999</v>
       </c>
-    </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD247">
+        <v>29283.499999999996</v>
+      </c>
+      <c r="AE247">
+        <v>26284.376323000004</v>
+      </c>
+    </row>
+    <row r="248" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>95</v>
       </c>
@@ -22436,8 +23918,14 @@
       <c r="AC248">
         <v>23323.805899999999</v>
       </c>
-    </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD248">
+        <v>29430.908739999999</v>
+      </c>
+      <c r="AE248">
+        <v>26650.976986000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>95</v>
       </c>
@@ -22525,8 +24013,14 @@
       <c r="AC249">
         <v>23247.924500000001</v>
       </c>
-    </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD249">
+        <v>28949.7</v>
+      </c>
+      <c r="AE249">
+        <v>26070.332143999996</v>
+      </c>
+    </row>
+    <row r="250" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>95</v>
       </c>
@@ -22614,8 +24108,14 @@
       <c r="AC250">
         <v>22762.941200000001</v>
       </c>
-    </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD250">
+        <v>27706.558398999998</v>
+      </c>
+      <c r="AE250">
+        <v>25644.199999999993</v>
+      </c>
+    </row>
+    <row r="251" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>95</v>
       </c>
@@ -22703,8 +24203,14 @@
       <c r="AC251">
         <v>22245.097699999998</v>
       </c>
-    </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD251">
+        <v>26084.131357000002</v>
+      </c>
+      <c r="AE251">
+        <v>22060.5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>95</v>
       </c>
@@ -22792,8 +24298,14 @@
       <c r="AC252">
         <v>23505.767500000002</v>
       </c>
-    </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD252">
+        <v>29532.300000000003</v>
+      </c>
+      <c r="AE252">
+        <v>26212.437396000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>95</v>
       </c>
@@ -22881,8 +24393,14 @@
       <c r="AC253">
         <v>23167.473600000001</v>
       </c>
-    </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD253">
+        <v>28763.519714999995</v>
+      </c>
+      <c r="AE253">
+        <v>26077.100000000002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>95</v>
       </c>
@@ -22970,8 +24488,14 @@
       <c r="AC254">
         <v>22182.0386</v>
       </c>
-    </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD254">
+        <v>25922.300000000003</v>
+      </c>
+      <c r="AE254">
+        <v>21427.399999999998</v>
+      </c>
+    </row>
+    <row r="255" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>95</v>
       </c>
@@ -23059,8 +24583,14 @@
       <c r="AC255">
         <v>23011.8</v>
       </c>
-    </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD255">
+        <v>28268.331645999999</v>
+      </c>
+      <c r="AE255">
+        <v>25328.100000000002</v>
+      </c>
+    </row>
+    <row r="256" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>95</v>
       </c>
@@ -23148,8 +24678,14 @@
       <c r="AC256">
         <v>22545.017</v>
       </c>
-    </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD256">
+        <v>26526.899999999998</v>
+      </c>
+      <c r="AE256">
+        <v>22551.7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>95</v>
       </c>
@@ -23237,8 +24773,14 @@
       <c r="AC257">
         <v>22638.946599999999</v>
       </c>
-    </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD257">
+        <v>27246.9</v>
+      </c>
+      <c r="AE257">
+        <v>25087.1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>95</v>
       </c>
@@ -23326,8 +24868,14 @@
       <c r="AC258">
         <v>22040.252799999998</v>
       </c>
-    </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD258">
+        <v>25702.299999999996</v>
+      </c>
+      <c r="AE258">
+        <v>22225.399999999998</v>
+      </c>
+    </row>
+    <row r="259" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>95</v>
       </c>
@@ -23415,8 +24963,14 @@
       <c r="AC259">
         <v>23449.3891</v>
       </c>
-    </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD259">
+        <v>28783.7</v>
+      </c>
+      <c r="AE259">
+        <v>25076.200000000004</v>
+      </c>
+    </row>
+    <row r="260" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>95</v>
       </c>
@@ -23504,8 +25058,14 @@
       <c r="AC260">
         <v>23739.8</v>
       </c>
-    </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD260">
+        <v>29002.500000000004</v>
+      </c>
+      <c r="AE260">
+        <v>25796.133473999998</v>
+      </c>
+    </row>
+    <row r="261" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>95</v>
       </c>
@@ -23593,8 +25153,14 @@
       <c r="AC261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD261">
+        <v>29414.899999999994</v>
+      </c>
+      <c r="AE261">
+        <v>26046.199999999993</v>
+      </c>
+    </row>
+    <row r="262" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>95</v>
       </c>
@@ -23610,8 +25176,14 @@
       <c r="E262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD262">
+        <v>29167.4</v>
+      </c>
+      <c r="AE262">
+        <v>26453.258720000005</v>
+      </c>
+    </row>
+    <row r="263" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>95</v>
       </c>
@@ -23627,8 +25199,14 @@
       <c r="E263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD263">
+        <v>29198.400000000001</v>
+      </c>
+      <c r="AE263">
+        <v>25954.259554000004</v>
+      </c>
+    </row>
+    <row r="264" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>95</v>
       </c>
@@ -23644,8 +25222,14 @@
       <c r="E264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD264">
+        <v>28214.611223</v>
+      </c>
+      <c r="AE264">
+        <v>26127.000000000007</v>
+      </c>
+    </row>
+    <row r="265" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>95</v>
       </c>
@@ -23661,8 +25245,14 @@
       <c r="E265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD265">
+        <v>26501.299999999992</v>
+      </c>
+      <c r="AE265">
+        <v>22769.4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>95</v>
       </c>
@@ -23678,8 +25268,14 @@
       <c r="E266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD266">
+        <v>29713.399999999991</v>
+      </c>
+      <c r="AE266">
+        <v>26528.800000000003</v>
+      </c>
+    </row>
+    <row r="267" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>95</v>
       </c>
@@ -23695,8 +25291,14 @@
       <c r="E267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD267">
+        <v>29877.000000000007</v>
+      </c>
+      <c r="AE267">
+        <v>26708.399999999998</v>
+      </c>
+    </row>
+    <row r="268" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>95</v>
       </c>
@@ -23712,8 +25314,14 @@
       <c r="E268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD268">
+        <v>29803.3</v>
+      </c>
+      <c r="AE268">
+        <v>26532.499999999993</v>
+      </c>
+    </row>
+    <row r="269" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>95</v>
       </c>
@@ -23729,8 +25337,14 @@
       <c r="E269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD269">
+        <v>29310.899999999998</v>
+      </c>
+      <c r="AE269">
+        <v>26579.4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>95</v>
       </c>
@@ -23746,8 +25360,14 @@
       <c r="E270">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD270">
+        <v>29092.400000000001</v>
+      </c>
+      <c r="AE270">
+        <v>26795.799999999996</v>
+      </c>
+    </row>
+    <row r="271" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>95</v>
       </c>
@@ -23763,8 +25383,14 @@
       <c r="E271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD271">
+        <v>28182.299999999996</v>
+      </c>
+      <c r="AE271">
+        <v>26420.813137999998</v>
+      </c>
+    </row>
+    <row r="272" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>95</v>
       </c>
@@ -23780,8 +25406,14 @@
       <c r="E272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD272">
+        <v>26208.400000000001</v>
+      </c>
+      <c r="AE272">
+        <v>22402.803811999998</v>
+      </c>
+    </row>
+    <row r="273" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>95</v>
       </c>
@@ -23797,8 +25429,14 @@
       <c r="E273">
         <v>3</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD273">
+        <v>27076.400000000001</v>
+      </c>
+      <c r="AE273">
+        <v>23578.7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>95</v>
       </c>
@@ -23814,8 +25452,14 @@
       <c r="E274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD274">
+        <v>29871.300000000003</v>
+      </c>
+      <c r="AE274">
+        <v>26749.100000000002</v>
+      </c>
+    </row>
+    <row r="275" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>95</v>
       </c>
@@ -23831,8 +25475,14 @@
       <c r="E275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD275">
+        <v>29679.3</v>
+      </c>
+      <c r="AE275">
+        <v>26695.800000000003</v>
+      </c>
+    </row>
+    <row r="276" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>95</v>
       </c>
@@ -23848,8 +25498,14 @@
       <c r="E276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD276">
+        <v>29360.999999999996</v>
+      </c>
+      <c r="AE276">
+        <v>27637.298773000006</v>
+      </c>
+    </row>
+    <row r="277" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>95</v>
       </c>
@@ -23865,8 +25521,14 @@
       <c r="E277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD277">
+        <v>29500.300000000003</v>
+      </c>
+      <c r="AE277">
+        <v>26652.800000000003</v>
+      </c>
+    </row>
+    <row r="278" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>95</v>
       </c>
@@ -23882,8 +25544,14 @@
       <c r="E278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD278">
+        <v>28238.100000000002</v>
+      </c>
+      <c r="AE278">
+        <v>26548.500000000004</v>
+      </c>
+    </row>
+    <row r="279" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>95</v>
       </c>
@@ -23899,8 +25567,14 @@
       <c r="E279">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD279">
+        <v>26297.899999999998</v>
+      </c>
+      <c r="AE279">
+        <v>22519.450832000006</v>
+      </c>
+    </row>
+    <row r="280" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>95</v>
       </c>
@@ -23916,8 +25590,14 @@
       <c r="E280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD280">
+        <v>29718.100000000002</v>
+      </c>
+      <c r="AE280">
+        <v>26846.1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>95</v>
       </c>
@@ -23933,8 +25613,14 @@
       <c r="E281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD281">
+        <v>29172.899999999994</v>
+      </c>
+      <c r="AE281">
+        <v>26990.900000000005</v>
+      </c>
+    </row>
+    <row r="282" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>95</v>
       </c>
@@ -23950,8 +25636,14 @@
       <c r="E282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD282">
+        <v>29482</v>
+      </c>
+      <c r="AE282">
+        <v>26715.860295999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>95</v>
       </c>
@@ -23967,8 +25659,14 @@
       <c r="E283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD283">
+        <v>29574.799999999999</v>
+      </c>
+      <c r="AE283">
+        <v>26932.6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>95</v>
       </c>
@@ -23984,8 +25682,14 @@
       <c r="E284">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD284">
+        <v>29130.7</v>
+      </c>
+      <c r="AE284">
+        <v>26930.399999999994</v>
+      </c>
+    </row>
+    <row r="285" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>95</v>
       </c>
@@ -24001,8 +25705,14 @@
       <c r="E285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD285">
+        <v>27952.1</v>
+      </c>
+      <c r="AE285">
+        <v>25700.200000000004</v>
+      </c>
+    </row>
+    <row r="286" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>95</v>
       </c>
@@ -24018,8 +25728,14 @@
       <c r="E286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD286">
+        <v>25997.9</v>
+      </c>
+      <c r="AE286">
+        <v>21891.5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>95</v>
       </c>
@@ -24035,8 +25751,14 @@
       <c r="E287">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD287">
+        <v>29053.399999999998</v>
+      </c>
+      <c r="AE287">
+        <v>26017.299999999996</v>
+      </c>
+    </row>
+    <row r="288" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>95</v>
       </c>
@@ -24052,8 +25774,14 @@
       <c r="E288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD288">
+        <v>29173.500000000004</v>
+      </c>
+      <c r="AE288">
+        <v>26051.199999999993</v>
+      </c>
+    </row>
+    <row r="289" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>95</v>
       </c>
@@ -24069,8 +25797,14 @@
       <c r="E289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD289">
+        <v>29173.600000000002</v>
+      </c>
+      <c r="AE289">
+        <v>26169.9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>95</v>
       </c>
@@ -24086,8 +25820,14 @@
       <c r="E290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD290">
+        <v>28875.200000000001</v>
+      </c>
+      <c r="AE290">
+        <v>26305.100000000002</v>
+      </c>
+    </row>
+    <row r="291" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>95</v>
       </c>
@@ -24104,7 +25844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>95</v>
       </c>
@@ -24121,7 +25861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>95</v>
       </c>
@@ -24138,7 +25878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>95</v>
       </c>
@@ -24155,7 +25895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>95</v>
       </c>
@@ -24172,7 +25912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>95</v>
       </c>
@@ -24189,7 +25929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>95</v>
       </c>
@@ -24206,7 +25946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>95</v>
       </c>
@@ -24223,7 +25963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>95</v>
       </c>
@@ -24240,7 +25980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>95</v>
       </c>
@@ -24257,7 +25997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>95</v>
       </c>
@@ -24274,7 +26014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>95</v>
       </c>
@@ -24291,7 +26031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>95</v>
       </c>
@@ -24308,7 +26048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>95</v>
       </c>
@@ -24325,7 +26065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>95</v>
       </c>
@@ -24342,7 +26082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>95</v>
       </c>
@@ -24359,7 +26099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>95</v>
       </c>
@@ -24376,7 +26116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>95</v>
       </c>
@@ -24393,7 +26133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>95</v>
       </c>
@@ -24410,7 +26150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>95</v>
       </c>
@@ -24427,7 +26167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>95</v>
       </c>
@@ -24444,7 +26184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>95</v>
       </c>
@@ -24461,7 +26201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>95</v>
       </c>
@@ -24478,7 +26218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>95</v>
       </c>
@@ -24495,7 +26235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>95</v>
       </c>
@@ -24512,7 +26252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>95</v>
       </c>
@@ -24529,7 +26269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>95</v>
       </c>
@@ -24546,7 +26286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>95</v>
       </c>
@@ -24563,7 +26303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>95</v>
       </c>
@@ -24580,7 +26320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>95</v>
       </c>
@@ -24597,7 +26337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>95</v>
       </c>
@@ -24614,7 +26354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>95</v>
       </c>
@@ -24631,7 +26371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>95</v>
       </c>
@@ -24648,7 +26388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>95</v>
       </c>
@@ -24665,7 +26405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>95</v>
       </c>
@@ -24682,7 +26422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>95</v>
       </c>
@@ -24699,7 +26439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>95</v>
       </c>
@@ -24716,7 +26456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>95</v>
       </c>
@@ -24733,7 +26473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>95</v>
       </c>
@@ -24750,7 +26490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>95</v>
       </c>
@@ -24767,7 +26507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>95</v>
       </c>
@@ -24784,7 +26524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>95</v>
       </c>
@@ -24801,7 +26541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>95</v>
       </c>
@@ -24818,7 +26558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>95</v>
       </c>
@@ -24835,7 +26575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>95</v>
       </c>
@@ -24852,7 +26592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>95</v>
       </c>
@@ -24869,7 +26609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>95</v>
       </c>
@@ -24886,7 +26626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>95</v>
       </c>
@@ -24903,7 +26643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>95</v>
       </c>
@@ -24920,7 +26660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>95</v>
       </c>
@@ -24937,7 +26677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>95</v>
       </c>
@@ -24954,7 +26694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>95</v>
       </c>
@@ -24971,7 +26711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>95</v>
       </c>
@@ -24988,7 +26728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>95</v>
       </c>
@@ -25005,7 +26745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>95</v>
       </c>
@@ -25022,7 +26762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>95</v>
       </c>
@@ -25039,7 +26779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>95</v>
       </c>
@@ -25056,7 +26796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>95</v>
       </c>
@@ -25073,7 +26813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>95</v>
       </c>
@@ -25090,7 +26830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>95</v>
       </c>
@@ -25107,7 +26847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>95</v>
       </c>
@@ -25124,7 +26864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>95</v>
       </c>
@@ -25141,7 +26881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>95</v>
       </c>
@@ -25158,7 +26898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>95</v>
       </c>
@@ -25175,7 +26915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>95</v>
       </c>
@@ -25192,7 +26932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>95</v>
       </c>
@@ -25209,7 +26949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>95</v>
       </c>
@@ -25226,7 +26966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>95</v>
       </c>
@@ -25243,7 +26983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>95</v>
       </c>
@@ -25260,7 +27000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>95</v>
       </c>
@@ -25277,7 +27017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>95</v>
       </c>
@@ -25294,7 +27034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>95</v>
       </c>
@@ -25311,7 +27051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>95</v>
       </c>
@@ -25328,7 +27068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>95</v>
       </c>
@@ -25345,7 +27085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>95</v>
       </c>
@@ -25362,7 +27102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>95</v>
       </c>
@@ -25390,7 +27130,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25402,7 +27142,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
